--- a/manualisasi/manualisasi 10docs baru.xlsx
+++ b/manualisasi/manualisasi 10docs baru.xlsx
@@ -9,14 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="system" sheetId="1" r:id="rId1"/>
     <sheet name="bm25" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
-    <sheet name="pagerank" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
+    <sheet name="pagerank" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1250" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="304">
   <si>
     <t>dokumen</t>
   </si>
@@ -929,12 +931,24 @@
   <si>
     <t>senang</t>
   </si>
+  <si>
+    <t>Dokumen</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalimat </t>
+  </si>
+  <si>
+    <t>PageRank</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -977,8 +991,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1021,8 +1067,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7CAAC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1082,11 +1134,144 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1141,11 +1326,21 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1159,18 +1354,55 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1759,8 +1991,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:HA107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView topLeftCell="K55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="R67" sqref="R67:AC78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1911,211 +2143,211 @@
       </c>
     </row>
     <row r="17" spans="1:209" x14ac:dyDescent="0.25">
-      <c r="M17" s="30" t="s">
+      <c r="M17" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="U17" s="24" t="s">
+      <c r="U17" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="V17" s="24"/>
-      <c r="W17" s="24"/>
-      <c r="X17" s="24"/>
-      <c r="Y17" s="24"/>
-      <c r="Z17" s="24"/>
-      <c r="AA17" s="24"/>
-      <c r="AB17" s="24"/>
-      <c r="AC17" s="24"/>
-      <c r="AD17" s="24"/>
-      <c r="AE17" s="24"/>
-      <c r="AF17" s="24"/>
-      <c r="AG17" s="24"/>
-      <c r="AH17" s="24"/>
-      <c r="AI17" s="24"/>
-      <c r="AN17" s="24" t="s">
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+      <c r="AI17" s="29"/>
+      <c r="AN17" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="AO17" s="24"/>
-      <c r="AP17" s="24"/>
-      <c r="AQ17" s="24"/>
-      <c r="AR17" s="24"/>
-      <c r="AS17" s="24"/>
-      <c r="AT17" s="24"/>
-      <c r="AU17" s="24"/>
-      <c r="AV17" s="24"/>
-      <c r="AW17" s="24"/>
-      <c r="AX17" s="24"/>
-      <c r="AY17" s="24"/>
-      <c r="AZ17" s="24"/>
-      <c r="BA17" s="24"/>
-      <c r="BF17" s="24" t="s">
+      <c r="AO17" s="29"/>
+      <c r="AP17" s="29"/>
+      <c r="AQ17" s="29"/>
+      <c r="AR17" s="29"/>
+      <c r="AS17" s="29"/>
+      <c r="AT17" s="29"/>
+      <c r="AU17" s="29"/>
+      <c r="AV17" s="29"/>
+      <c r="AW17" s="29"/>
+      <c r="AX17" s="29"/>
+      <c r="AY17" s="29"/>
+      <c r="AZ17" s="29"/>
+      <c r="BA17" s="29"/>
+      <c r="BF17" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="BG17" s="24"/>
-      <c r="BH17" s="24"/>
-      <c r="BI17" s="24"/>
-      <c r="BJ17" s="24"/>
-      <c r="BK17" s="24"/>
-      <c r="BL17" s="24"/>
-      <c r="BM17" s="24"/>
-      <c r="BN17" s="24"/>
-      <c r="BO17" s="24"/>
-      <c r="BP17" s="24"/>
-      <c r="BQ17" s="24"/>
-      <c r="BR17" s="24"/>
-      <c r="BS17" s="24"/>
-      <c r="BT17" s="24"/>
-      <c r="BU17" s="24"/>
-      <c r="BV17" s="24"/>
-      <c r="BW17" s="24"/>
-      <c r="BX17" s="24"/>
-      <c r="BY17" s="24"/>
-      <c r="BZ17" s="24"/>
-      <c r="CA17" s="24"/>
-      <c r="CF17" s="24" t="s">
+      <c r="BG17" s="29"/>
+      <c r="BH17" s="29"/>
+      <c r="BI17" s="29"/>
+      <c r="BJ17" s="29"/>
+      <c r="BK17" s="29"/>
+      <c r="BL17" s="29"/>
+      <c r="BM17" s="29"/>
+      <c r="BN17" s="29"/>
+      <c r="BO17" s="29"/>
+      <c r="BP17" s="29"/>
+      <c r="BQ17" s="29"/>
+      <c r="BR17" s="29"/>
+      <c r="BS17" s="29"/>
+      <c r="BT17" s="29"/>
+      <c r="BU17" s="29"/>
+      <c r="BV17" s="29"/>
+      <c r="BW17" s="29"/>
+      <c r="BX17" s="29"/>
+      <c r="BY17" s="29"/>
+      <c r="BZ17" s="29"/>
+      <c r="CA17" s="29"/>
+      <c r="CF17" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="CG17" s="24"/>
-      <c r="CH17" s="24"/>
-      <c r="CI17" s="24"/>
-      <c r="CJ17" s="24"/>
-      <c r="CK17" s="24"/>
-      <c r="CL17" s="24"/>
-      <c r="CM17" s="24"/>
-      <c r="CN17" s="24"/>
-      <c r="CO17" s="24"/>
-      <c r="CP17" s="24"/>
+      <c r="CG17" s="29"/>
+      <c r="CH17" s="29"/>
+      <c r="CI17" s="29"/>
+      <c r="CJ17" s="29"/>
+      <c r="CK17" s="29"/>
+      <c r="CL17" s="29"/>
+      <c r="CM17" s="29"/>
+      <c r="CN17" s="29"/>
+      <c r="CO17" s="29"/>
+      <c r="CP17" s="29"/>
       <c r="CQ17" s="3"/>
       <c r="CR17" s="3"/>
       <c r="CS17" s="4"/>
-      <c r="CU17" s="24" t="s">
+      <c r="CU17" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="CV17" s="24"/>
-      <c r="CW17" s="24"/>
-      <c r="CX17" s="24"/>
-      <c r="CY17" s="24"/>
-      <c r="CZ17" s="24"/>
-      <c r="DA17" s="24"/>
-      <c r="DB17" s="24"/>
-      <c r="DC17" s="24"/>
-      <c r="DD17" s="24"/>
-      <c r="DE17" s="24"/>
-      <c r="DF17" s="24"/>
+      <c r="CV17" s="29"/>
+      <c r="CW17" s="29"/>
+      <c r="CX17" s="29"/>
+      <c r="CY17" s="29"/>
+      <c r="CZ17" s="29"/>
+      <c r="DA17" s="29"/>
+      <c r="DB17" s="29"/>
+      <c r="DC17" s="29"/>
+      <c r="DD17" s="29"/>
+      <c r="DE17" s="29"/>
+      <c r="DF17" s="29"/>
       <c r="DG17" s="3"/>
       <c r="DI17" s="4"/>
-      <c r="DK17" s="24" t="s">
+      <c r="DK17" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="DL17" s="24"/>
-      <c r="DM17" s="24"/>
-      <c r="DN17" s="24"/>
-      <c r="DO17" s="24"/>
-      <c r="DP17" s="24"/>
-      <c r="DQ17" s="24"/>
-      <c r="DR17" s="24"/>
-      <c r="DS17" s="24"/>
-      <c r="DT17" s="24"/>
+      <c r="DL17" s="29"/>
+      <c r="DM17" s="29"/>
+      <c r="DN17" s="29"/>
+      <c r="DO17" s="29"/>
+      <c r="DP17" s="29"/>
+      <c r="DQ17" s="29"/>
+      <c r="DR17" s="29"/>
+      <c r="DS17" s="29"/>
+      <c r="DT17" s="29"/>
       <c r="DU17" s="3"/>
       <c r="DW17" s="4"/>
-      <c r="DY17" s="24" t="s">
+      <c r="DY17" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="DZ17" s="24"/>
-      <c r="EA17" s="24"/>
-      <c r="EB17" s="24"/>
-      <c r="EC17" s="24"/>
-      <c r="ED17" s="24"/>
-      <c r="EE17" s="24"/>
-      <c r="EF17" s="24"/>
-      <c r="EG17" s="24"/>
-      <c r="EH17" s="24"/>
-      <c r="EI17" s="24"/>
-      <c r="EJ17" s="24"/>
-      <c r="EK17" s="24"/>
-      <c r="EL17" s="24"/>
+      <c r="DZ17" s="29"/>
+      <c r="EA17" s="29"/>
+      <c r="EB17" s="29"/>
+      <c r="EC17" s="29"/>
+      <c r="ED17" s="29"/>
+      <c r="EE17" s="29"/>
+      <c r="EF17" s="29"/>
+      <c r="EG17" s="29"/>
+      <c r="EH17" s="29"/>
+      <c r="EI17" s="29"/>
+      <c r="EJ17" s="29"/>
+      <c r="EK17" s="29"/>
+      <c r="EL17" s="29"/>
       <c r="EO17" s="4"/>
-      <c r="EQ17" s="24" t="s">
+      <c r="EQ17" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="ER17" s="24"/>
-      <c r="ES17" s="24"/>
-      <c r="ET17" s="24"/>
-      <c r="EU17" s="24"/>
-      <c r="EV17" s="24"/>
-      <c r="EW17" s="24"/>
-      <c r="EX17" s="24"/>
-      <c r="EY17" s="24"/>
-      <c r="EZ17" s="24"/>
-      <c r="FA17" s="24"/>
-      <c r="FB17" s="24"/>
-      <c r="FC17" s="24"/>
-      <c r="FD17" s="24"/>
-      <c r="FE17" s="24"/>
-      <c r="FF17" s="24"/>
-      <c r="FG17" s="24"/>
-      <c r="FH17" s="24"/>
-      <c r="FI17" s="24"/>
-      <c r="FJ17" s="24"/>
-      <c r="FK17" s="24"/>
+      <c r="ER17" s="29"/>
+      <c r="ES17" s="29"/>
+      <c r="ET17" s="29"/>
+      <c r="EU17" s="29"/>
+      <c r="EV17" s="29"/>
+      <c r="EW17" s="29"/>
+      <c r="EX17" s="29"/>
+      <c r="EY17" s="29"/>
+      <c r="EZ17" s="29"/>
+      <c r="FA17" s="29"/>
+      <c r="FB17" s="29"/>
+      <c r="FC17" s="29"/>
+      <c r="FD17" s="29"/>
+      <c r="FE17" s="29"/>
+      <c r="FF17" s="29"/>
+      <c r="FG17" s="29"/>
+      <c r="FH17" s="29"/>
+      <c r="FI17" s="29"/>
+      <c r="FJ17" s="29"/>
+      <c r="FK17" s="29"/>
       <c r="FN17" s="4"/>
-      <c r="FP17" s="24" t="s">
+      <c r="FP17" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="FQ17" s="24"/>
-      <c r="FR17" s="24"/>
-      <c r="FS17" s="24"/>
-      <c r="FT17" s="24"/>
-      <c r="FU17" s="24"/>
-      <c r="FV17" s="24"/>
-      <c r="FW17" s="24"/>
-      <c r="FX17" s="24"/>
-      <c r="FY17" s="24"/>
-      <c r="FZ17" s="24"/>
-      <c r="GA17" s="24"/>
+      <c r="FQ17" s="29"/>
+      <c r="FR17" s="29"/>
+      <c r="FS17" s="29"/>
+      <c r="FT17" s="29"/>
+      <c r="FU17" s="29"/>
+      <c r="FV17" s="29"/>
+      <c r="FW17" s="29"/>
+      <c r="FX17" s="29"/>
+      <c r="FY17" s="29"/>
+      <c r="FZ17" s="29"/>
+      <c r="GA17" s="29"/>
       <c r="GD17" s="4"/>
-      <c r="GF17" s="24" t="s">
+      <c r="GF17" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="GG17" s="24"/>
-      <c r="GH17" s="24"/>
-      <c r="GI17" s="24"/>
-      <c r="GJ17" s="24"/>
-      <c r="GK17" s="24"/>
-      <c r="GL17" s="24"/>
-      <c r="GM17" s="24"/>
-      <c r="GN17" s="24"/>
-      <c r="GO17" s="24"/>
-      <c r="GP17" s="24"/>
-      <c r="GQ17" s="24"/>
-      <c r="GR17" s="24"/>
-      <c r="GS17" s="24"/>
-      <c r="GT17" s="24"/>
-      <c r="GU17" s="24"/>
-      <c r="GV17" s="24"/>
-      <c r="GW17" s="24"/>
-      <c r="GX17" s="24"/>
-      <c r="GY17" s="24"/>
-      <c r="GZ17" s="24"/>
-      <c r="HA17" s="24"/>
+      <c r="GG17" s="29"/>
+      <c r="GH17" s="29"/>
+      <c r="GI17" s="29"/>
+      <c r="GJ17" s="29"/>
+      <c r="GK17" s="29"/>
+      <c r="GL17" s="29"/>
+      <c r="GM17" s="29"/>
+      <c r="GN17" s="29"/>
+      <c r="GO17" s="29"/>
+      <c r="GP17" s="29"/>
+      <c r="GQ17" s="29"/>
+      <c r="GR17" s="29"/>
+      <c r="GS17" s="29"/>
+      <c r="GT17" s="29"/>
+      <c r="GU17" s="29"/>
+      <c r="GV17" s="29"/>
+      <c r="GW17" s="29"/>
+      <c r="GX17" s="29"/>
+      <c r="GY17" s="29"/>
+      <c r="GZ17" s="29"/>
+      <c r="HA17" s="29"/>
     </row>
     <row r="18" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="28" t="s">
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="M18" s="29" t="s">
+      <c r="M18" s="33" t="s">
         <v>59</v>
       </c>
       <c r="P18" t="s">
@@ -2124,189 +2356,189 @@
       <c r="Q18">
         <v>1.2</v>
       </c>
-      <c r="U18" s="24" t="s">
+      <c r="U18" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="24"/>
-      <c r="Z18" s="24"/>
-      <c r="AA18" s="24"/>
-      <c r="AB18" s="24"/>
-      <c r="AC18" s="24"/>
-      <c r="AD18" s="24"/>
-      <c r="AE18" s="24"/>
-      <c r="AF18" s="24"/>
-      <c r="AG18" s="24"/>
-      <c r="AH18" s="24"/>
-      <c r="AI18" s="24"/>
-      <c r="AN18" s="24" t="s">
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="29"/>
+      <c r="AN18" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AO18" s="24"/>
-      <c r="AP18" s="24"/>
-      <c r="AQ18" s="24"/>
-      <c r="AR18" s="24"/>
-      <c r="AS18" s="24"/>
-      <c r="AT18" s="24"/>
-      <c r="AU18" s="24"/>
-      <c r="AV18" s="24"/>
-      <c r="AW18" s="24"/>
-      <c r="AX18" s="24"/>
-      <c r="AY18" s="24"/>
-      <c r="AZ18" s="24"/>
-      <c r="BA18" s="24"/>
-      <c r="BF18" s="24" t="s">
+      <c r="AO18" s="29"/>
+      <c r="AP18" s="29"/>
+      <c r="AQ18" s="29"/>
+      <c r="AR18" s="29"/>
+      <c r="AS18" s="29"/>
+      <c r="AT18" s="29"/>
+      <c r="AU18" s="29"/>
+      <c r="AV18" s="29"/>
+      <c r="AW18" s="29"/>
+      <c r="AX18" s="29"/>
+      <c r="AY18" s="29"/>
+      <c r="AZ18" s="29"/>
+      <c r="BA18" s="29"/>
+      <c r="BF18" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="BG18" s="24"/>
-      <c r="BH18" s="24"/>
-      <c r="BI18" s="24"/>
-      <c r="BJ18" s="24"/>
-      <c r="BK18" s="24"/>
-      <c r="BL18" s="24"/>
-      <c r="BM18" s="24"/>
-      <c r="BN18" s="24"/>
-      <c r="BO18" s="24"/>
-      <c r="BP18" s="24"/>
-      <c r="BQ18" s="24"/>
-      <c r="BR18" s="24"/>
-      <c r="BS18" s="24"/>
-      <c r="BT18" s="24"/>
-      <c r="BU18" s="24"/>
-      <c r="BV18" s="24"/>
-      <c r="BW18" s="24"/>
-      <c r="BX18" s="24"/>
-      <c r="BY18" s="24"/>
-      <c r="BZ18" s="24"/>
-      <c r="CA18" s="24"/>
-      <c r="CF18" s="24" t="s">
+      <c r="BG18" s="29"/>
+      <c r="BH18" s="29"/>
+      <c r="BI18" s="29"/>
+      <c r="BJ18" s="29"/>
+      <c r="BK18" s="29"/>
+      <c r="BL18" s="29"/>
+      <c r="BM18" s="29"/>
+      <c r="BN18" s="29"/>
+      <c r="BO18" s="29"/>
+      <c r="BP18" s="29"/>
+      <c r="BQ18" s="29"/>
+      <c r="BR18" s="29"/>
+      <c r="BS18" s="29"/>
+      <c r="BT18" s="29"/>
+      <c r="BU18" s="29"/>
+      <c r="BV18" s="29"/>
+      <c r="BW18" s="29"/>
+      <c r="BX18" s="29"/>
+      <c r="BY18" s="29"/>
+      <c r="BZ18" s="29"/>
+      <c r="CA18" s="29"/>
+      <c r="CF18" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="CG18" s="24"/>
-      <c r="CH18" s="24"/>
-      <c r="CI18" s="24"/>
-      <c r="CJ18" s="24"/>
-      <c r="CK18" s="24"/>
-      <c r="CL18" s="24"/>
-      <c r="CM18" s="24"/>
-      <c r="CN18" s="24"/>
-      <c r="CO18" s="24"/>
-      <c r="CP18" s="24"/>
+      <c r="CG18" s="29"/>
+      <c r="CH18" s="29"/>
+      <c r="CI18" s="29"/>
+      <c r="CJ18" s="29"/>
+      <c r="CK18" s="29"/>
+      <c r="CL18" s="29"/>
+      <c r="CM18" s="29"/>
+      <c r="CN18" s="29"/>
+      <c r="CO18" s="29"/>
+      <c r="CP18" s="29"/>
       <c r="CQ18" s="3"/>
       <c r="CR18" s="3"/>
       <c r="CS18" s="4"/>
-      <c r="CU18" s="24" t="s">
+      <c r="CU18" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="CV18" s="24"/>
-      <c r="CW18" s="24"/>
-      <c r="CX18" s="24"/>
-      <c r="CY18" s="24"/>
-      <c r="CZ18" s="24"/>
-      <c r="DA18" s="24"/>
-      <c r="DB18" s="24"/>
-      <c r="DC18" s="24"/>
-      <c r="DD18" s="24"/>
-      <c r="DE18" s="24"/>
-      <c r="DF18" s="24"/>
+      <c r="CV18" s="29"/>
+      <c r="CW18" s="29"/>
+      <c r="CX18" s="29"/>
+      <c r="CY18" s="29"/>
+      <c r="CZ18" s="29"/>
+      <c r="DA18" s="29"/>
+      <c r="DB18" s="29"/>
+      <c r="DC18" s="29"/>
+      <c r="DD18" s="29"/>
+      <c r="DE18" s="29"/>
+      <c r="DF18" s="29"/>
       <c r="DG18" s="3"/>
       <c r="DI18" s="4"/>
-      <c r="DK18" s="24" t="s">
+      <c r="DK18" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="DL18" s="24"/>
-      <c r="DM18" s="24"/>
-      <c r="DN18" s="24"/>
-      <c r="DO18" s="24"/>
-      <c r="DP18" s="24"/>
-      <c r="DQ18" s="24"/>
-      <c r="DR18" s="24"/>
-      <c r="DS18" s="24"/>
-      <c r="DT18" s="24"/>
+      <c r="DL18" s="29"/>
+      <c r="DM18" s="29"/>
+      <c r="DN18" s="29"/>
+      <c r="DO18" s="29"/>
+      <c r="DP18" s="29"/>
+      <c r="DQ18" s="29"/>
+      <c r="DR18" s="29"/>
+      <c r="DS18" s="29"/>
+      <c r="DT18" s="29"/>
       <c r="DU18" s="3"/>
       <c r="DW18" s="4"/>
-      <c r="DY18" s="24" t="s">
+      <c r="DY18" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="DZ18" s="24"/>
-      <c r="EA18" s="24"/>
-      <c r="EB18" s="24"/>
-      <c r="EC18" s="24"/>
-      <c r="ED18" s="24"/>
-      <c r="EE18" s="24"/>
-      <c r="EF18" s="24"/>
-      <c r="EG18" s="24"/>
-      <c r="EH18" s="24"/>
-      <c r="EI18" s="24"/>
-      <c r="EJ18" s="24"/>
-      <c r="EK18" s="24"/>
-      <c r="EL18" s="24"/>
+      <c r="DZ18" s="29"/>
+      <c r="EA18" s="29"/>
+      <c r="EB18" s="29"/>
+      <c r="EC18" s="29"/>
+      <c r="ED18" s="29"/>
+      <c r="EE18" s="29"/>
+      <c r="EF18" s="29"/>
+      <c r="EG18" s="29"/>
+      <c r="EH18" s="29"/>
+      <c r="EI18" s="29"/>
+      <c r="EJ18" s="29"/>
+      <c r="EK18" s="29"/>
+      <c r="EL18" s="29"/>
       <c r="EO18" s="4"/>
-      <c r="EQ18" s="24" t="s">
+      <c r="EQ18" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="ER18" s="24"/>
-      <c r="ES18" s="24"/>
-      <c r="ET18" s="24"/>
-      <c r="EU18" s="24"/>
-      <c r="EV18" s="24"/>
-      <c r="EW18" s="24"/>
-      <c r="EX18" s="24"/>
-      <c r="EY18" s="24"/>
-      <c r="EZ18" s="24"/>
-      <c r="FA18" s="24"/>
-      <c r="FB18" s="24"/>
-      <c r="FC18" s="24"/>
-      <c r="FD18" s="24"/>
-      <c r="FE18" s="24"/>
-      <c r="FF18" s="24"/>
-      <c r="FG18" s="24"/>
-      <c r="FH18" s="24"/>
-      <c r="FI18" s="24"/>
-      <c r="FJ18" s="24"/>
-      <c r="FK18" s="24"/>
+      <c r="ER18" s="29"/>
+      <c r="ES18" s="29"/>
+      <c r="ET18" s="29"/>
+      <c r="EU18" s="29"/>
+      <c r="EV18" s="29"/>
+      <c r="EW18" s="29"/>
+      <c r="EX18" s="29"/>
+      <c r="EY18" s="29"/>
+      <c r="EZ18" s="29"/>
+      <c r="FA18" s="29"/>
+      <c r="FB18" s="29"/>
+      <c r="FC18" s="29"/>
+      <c r="FD18" s="29"/>
+      <c r="FE18" s="29"/>
+      <c r="FF18" s="29"/>
+      <c r="FG18" s="29"/>
+      <c r="FH18" s="29"/>
+      <c r="FI18" s="29"/>
+      <c r="FJ18" s="29"/>
+      <c r="FK18" s="29"/>
       <c r="FN18" s="4"/>
-      <c r="FP18" s="24" t="s">
+      <c r="FP18" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="FQ18" s="24"/>
-      <c r="FR18" s="24"/>
-      <c r="FS18" s="24"/>
-      <c r="FT18" s="24"/>
-      <c r="FU18" s="24"/>
-      <c r="FV18" s="24"/>
-      <c r="FW18" s="24"/>
-      <c r="FX18" s="24"/>
-      <c r="FY18" s="24"/>
-      <c r="FZ18" s="24"/>
-      <c r="GA18" s="24"/>
+      <c r="FQ18" s="29"/>
+      <c r="FR18" s="29"/>
+      <c r="FS18" s="29"/>
+      <c r="FT18" s="29"/>
+      <c r="FU18" s="29"/>
+      <c r="FV18" s="29"/>
+      <c r="FW18" s="29"/>
+      <c r="FX18" s="29"/>
+      <c r="FY18" s="29"/>
+      <c r="FZ18" s="29"/>
+      <c r="GA18" s="29"/>
       <c r="GD18" s="4"/>
-      <c r="GF18" s="24" t="s">
+      <c r="GF18" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="GG18" s="24"/>
-      <c r="GH18" s="24"/>
-      <c r="GI18" s="24"/>
-      <c r="GJ18" s="24"/>
-      <c r="GK18" s="24"/>
-      <c r="GL18" s="24"/>
-      <c r="GM18" s="24"/>
-      <c r="GN18" s="24"/>
-      <c r="GO18" s="24"/>
-      <c r="GP18" s="24"/>
-      <c r="GQ18" s="24"/>
-      <c r="GR18" s="24"/>
-      <c r="GS18" s="24"/>
-      <c r="GT18" s="24"/>
-      <c r="GU18" s="24"/>
-      <c r="GV18" s="24"/>
-      <c r="GW18" s="24"/>
-      <c r="GX18" s="24"/>
-      <c r="GY18" s="24"/>
-      <c r="GZ18" s="24"/>
-      <c r="HA18" s="24"/>
+      <c r="GG18" s="29"/>
+      <c r="GH18" s="29"/>
+      <c r="GI18" s="29"/>
+      <c r="GJ18" s="29"/>
+      <c r="GK18" s="29"/>
+      <c r="GL18" s="29"/>
+      <c r="GM18" s="29"/>
+      <c r="GN18" s="29"/>
+      <c r="GO18" s="29"/>
+      <c r="GP18" s="29"/>
+      <c r="GQ18" s="29"/>
+      <c r="GR18" s="29"/>
+      <c r="GS18" s="29"/>
+      <c r="GT18" s="29"/>
+      <c r="GU18" s="29"/>
+      <c r="GV18" s="29"/>
+      <c r="GW18" s="29"/>
+      <c r="GX18" s="29"/>
+      <c r="GY18" s="29"/>
+      <c r="GZ18" s="29"/>
+      <c r="HA18" s="29"/>
     </row>
     <row r="19" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -2342,8 +2574,8 @@
       <c r="K19" s="7">
         <v>10</v>
       </c>
-      <c r="L19" s="28"/>
-      <c r="M19" s="29"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="33"/>
       <c r="P19" t="s">
         <v>61</v>
       </c>
@@ -2898,7 +3130,7 @@
         <f>SUM(B107:K107)/10</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="S20" s="26">
+      <c r="S20" s="30">
         <v>2</v>
       </c>
       <c r="T20" t="s">
@@ -2964,7 +3196,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL20" s="26">
+      <c r="AL20" s="30">
         <v>1</v>
       </c>
       <c r="AM20" t="s">
@@ -3026,7 +3258,7 @@
         <f>VLOOKUP(BA$19,$A$20:$M$106,2)</f>
         <v>2</v>
       </c>
-      <c r="BD20" s="26">
+      <c r="BD20" s="30">
         <v>1</v>
       </c>
       <c r="BE20" t="s">
@@ -3120,7 +3352,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CD20" s="26">
+      <c r="CD20" s="30">
         <v>1</v>
       </c>
       <c r="CE20" t="s">
@@ -3170,7 +3402,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="CS20" s="26">
+      <c r="CS20" s="30">
         <v>1</v>
       </c>
       <c r="CT20" t="s">
@@ -3224,7 +3456,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="DI20" s="26">
+      <c r="DI20" s="30">
         <v>1</v>
       </c>
       <c r="DJ20" t="s">
@@ -3270,7 +3502,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="DW20" s="26">
+      <c r="DW20" s="30">
         <v>1</v>
       </c>
       <c r="DX20" t="s">
@@ -3332,7 +3564,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="EO20" s="26">
+      <c r="EO20" s="30">
         <v>1</v>
       </c>
       <c r="EP20" t="s">
@@ -3422,7 +3654,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="FN20" s="26">
+      <c r="FN20" s="30">
         <v>1</v>
       </c>
       <c r="FO20" t="s">
@@ -3476,7 +3708,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="GD20" s="26">
+      <c r="GD20" s="30">
         <v>1</v>
       </c>
       <c r="GE20" t="s">
@@ -3617,7 +3849,7 @@
         <f t="shared" ref="N21:N84" si="11">LOG10(COLUMNS($B$19:$K$19)-L21+0.5)-LOG10(L21+0.5)</f>
         <v>0.53147891704225514</v>
       </c>
-      <c r="S21" s="26"/>
+      <c r="S21" s="30"/>
       <c r="T21" t="s">
         <v>59</v>
       </c>
@@ -3681,7 +3913,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL21" s="26"/>
+      <c r="AL21" s="30"/>
       <c r="AM21" t="s">
         <v>59</v>
       </c>
@@ -3741,7 +3973,7 @@
         <f>IF(BA20=0,0,VLOOKUP(BA19,$A$20:$M$106,13))</f>
         <v>0.34242268082220628</v>
       </c>
-      <c r="BD21" s="26"/>
+      <c r="BD21" s="30"/>
       <c r="BE21" t="s">
         <v>59</v>
       </c>
@@ -3833,7 +4065,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="CD21" s="26"/>
+      <c r="CD21" s="30"/>
       <c r="CE21" t="s">
         <v>59</v>
       </c>
@@ -3881,7 +4113,7 @@
         <f t="shared" si="15"/>
         <v>0.56427143043856254</v>
       </c>
-      <c r="CS21" s="26"/>
+      <c r="CS21" s="30"/>
       <c r="CT21" t="s">
         <v>59</v>
       </c>
@@ -3933,7 +4165,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DI21" s="26"/>
+      <c r="DI21" s="30"/>
       <c r="DJ21" t="s">
         <v>59</v>
       </c>
@@ -3977,7 +4209,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DW21" s="26"/>
+      <c r="DW21" s="30"/>
       <c r="DX21" t="s">
         <v>59</v>
       </c>
@@ -4037,7 +4269,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="EO21" s="26"/>
+      <c r="EO21" s="30"/>
       <c r="EP21" t="s">
         <v>59</v>
       </c>
@@ -4125,7 +4357,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="FN21" s="26"/>
+      <c r="FN21" s="30"/>
       <c r="FO21" t="s">
         <v>59</v>
       </c>
@@ -4177,7 +4409,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="GD21" s="26"/>
+      <c r="GD21" s="30"/>
       <c r="GE21" t="s">
         <v>59</v>
       </c>
@@ -4316,7 +4548,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S22" s="26"/>
+      <c r="S22" s="30"/>
       <c r="T22" t="s">
         <v>67</v>
       </c>
@@ -4380,7 +4612,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AL22" s="26"/>
+      <c r="AL22" s="30"/>
       <c r="AM22" t="s">
         <v>69</v>
       </c>
@@ -4440,7 +4672,7 @@
         <f t="shared" si="23"/>
         <v>0.46766179145949793</v>
       </c>
-      <c r="BD22" s="26"/>
+      <c r="BD22" s="30"/>
       <c r="BE22" t="s">
         <v>71</v>
       </c>
@@ -4532,7 +4764,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="CD22" s="26"/>
+      <c r="CD22" s="30"/>
       <c r="CE22" t="s">
         <v>73</v>
       </c>
@@ -4580,7 +4812,7 @@
         <f>(CP21*($Q$18+1)*CP20)/($Q$18*((1-$Q$19)+($Q$19*$B$107/$Q$20))+CP20)</f>
         <v>0.55876335790716669</v>
       </c>
-      <c r="CS22" s="26"/>
+      <c r="CS22" s="30"/>
       <c r="CT22" t="s">
         <v>82</v>
       </c>
@@ -4632,7 +4864,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="DI22" s="26"/>
+      <c r="DI22" s="30"/>
       <c r="DJ22" t="s">
         <v>86</v>
       </c>
@@ -4676,7 +4908,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="DW22" s="26"/>
+      <c r="DW22" s="30"/>
       <c r="DX22" t="s">
         <v>90</v>
       </c>
@@ -4736,7 +4968,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="EO22" s="26"/>
+      <c r="EO22" s="30"/>
       <c r="EP22" t="s">
         <v>94</v>
       </c>
@@ -4824,7 +5056,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="FN22" s="26"/>
+      <c r="FN22" s="30"/>
       <c r="FO22" t="s">
         <v>98</v>
       </c>
@@ -4876,7 +5108,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="GD22" s="26"/>
+      <c r="GD22" s="30"/>
       <c r="GE22" t="s">
         <v>101</v>
       </c>
@@ -5015,7 +5247,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S23" s="26"/>
+      <c r="S23" s="30"/>
       <c r="T23" t="s">
         <v>68</v>
       </c>
@@ -5023,7 +5255,7 @@
         <f>SUM(U22:AI22)</f>
         <v>2.0867093472984299</v>
       </c>
-      <c r="AL23" s="26"/>
+      <c r="AL23" s="30"/>
       <c r="AM23" t="s">
         <v>70</v>
       </c>
@@ -5031,7 +5263,7 @@
         <f>SUM(AN22:BA22)</f>
         <v>2.0202327040927357</v>
       </c>
-      <c r="BD23" s="26"/>
+      <c r="BD23" s="30"/>
       <c r="BE23" t="s">
         <v>72</v>
       </c>
@@ -5039,7 +5271,7 @@
         <f>SUM(BF22:CA22)</f>
         <v>4.3941072548284881</v>
       </c>
-      <c r="CD23" s="26"/>
+      <c r="CD23" s="30"/>
       <c r="CE23" t="s">
         <v>74</v>
       </c>
@@ -5047,7 +5279,7 @@
         <f>SUM(CF22:CP22)</f>
         <v>1.2870969822833596</v>
       </c>
-      <c r="CS23" s="26"/>
+      <c r="CS23" s="30"/>
       <c r="CT23" t="s">
         <v>83</v>
       </c>
@@ -5055,7 +5287,7 @@
         <f>SUM(CU22:DE22)</f>
         <v>0</v>
       </c>
-      <c r="DI23" s="26"/>
+      <c r="DI23" s="30"/>
       <c r="DJ23" t="s">
         <v>87</v>
       </c>
@@ -5063,7 +5295,7 @@
         <f>SUM(DK22:DT22)</f>
         <v>0.26067183291669505</v>
       </c>
-      <c r="DW23" s="26"/>
+      <c r="DW23" s="30"/>
       <c r="DX23" t="s">
         <v>91</v>
       </c>
@@ -5071,7 +5303,7 @@
         <f>SUM(DY22:EL22)</f>
         <v>2.3363598372565613</v>
       </c>
-      <c r="EO23" s="26"/>
+      <c r="EO23" s="30"/>
       <c r="EP23" t="s">
         <v>95</v>
       </c>
@@ -5079,7 +5311,7 @@
         <f>SUM(EQ22:FK22)</f>
         <v>2.1995021868335436</v>
       </c>
-      <c r="FN23" s="26"/>
+      <c r="FN23" s="30"/>
       <c r="FO23" t="s">
         <v>99</v>
       </c>
@@ -5087,7 +5319,7 @@
         <f>SUM(FP22:GA22)</f>
         <v>0</v>
       </c>
-      <c r="GD23" s="26"/>
+      <c r="GD23" s="30"/>
       <c r="GE23" t="s">
         <v>102</v>
       </c>
@@ -5199,7 +5431,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S25" s="26">
+      <c r="S25" s="30">
         <v>3</v>
       </c>
       <c r="T25" t="s">
@@ -5265,7 +5497,7 @@
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="AL25" s="26">
+      <c r="AL25" s="30">
         <v>3</v>
       </c>
       <c r="AM25" t="s">
@@ -5327,7 +5559,7 @@
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="BD25" s="26">
+      <c r="BD25" s="30">
         <v>2</v>
       </c>
       <c r="BE25" t="s">
@@ -5421,7 +5653,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="CD25" s="26">
+      <c r="CD25" s="30">
         <v>2</v>
       </c>
       <c r="CE25" t="s">
@@ -5471,7 +5703,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="CS25" s="26">
+      <c r="CS25" s="30">
         <v>2</v>
       </c>
       <c r="CT25" t="s">
@@ -5525,7 +5757,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="DI25" s="26">
+      <c r="DI25" s="30">
         <v>2</v>
       </c>
       <c r="DJ25" t="s">
@@ -5571,7 +5803,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="DW25" s="26">
+      <c r="DW25" s="30">
         <v>2</v>
       </c>
       <c r="DX25" t="s">
@@ -5633,7 +5865,7 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="EO25" s="26">
+      <c r="EO25" s="30">
         <v>2</v>
       </c>
       <c r="EP25" t="s">
@@ -5723,7 +5955,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="FN25" s="26">
+      <c r="FN25" s="30">
         <v>2</v>
       </c>
       <c r="FO25" t="s">
@@ -5777,7 +6009,7 @@
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="GD25" s="26">
+      <c r="GD25" s="30">
         <v>2</v>
       </c>
       <c r="GE25" t="s">
@@ -5918,7 +6150,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S26" s="26"/>
+      <c r="S26" s="30"/>
       <c r="T26" t="s">
         <v>59</v>
       </c>
@@ -5982,7 +6214,7 @@
         <f t="shared" si="42"/>
         <v>0.74036268949424389</v>
       </c>
-      <c r="AL26" s="26"/>
+      <c r="AL26" s="30"/>
       <c r="AM26" t="s">
         <v>59</v>
       </c>
@@ -6042,7 +6274,7 @@
         <f t="shared" si="43"/>
         <v>0.34242268082220628</v>
       </c>
-      <c r="BD26" s="26"/>
+      <c r="BD26" s="30"/>
       <c r="BE26" t="s">
         <v>59</v>
       </c>
@@ -6134,7 +6366,7 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="CD26" s="26"/>
+      <c r="CD26" s="30"/>
       <c r="CE26" t="s">
         <v>59</v>
       </c>
@@ -6182,7 +6414,7 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="CS26" s="26"/>
+      <c r="CS26" s="30"/>
       <c r="CT26" t="s">
         <v>59</v>
       </c>
@@ -6234,7 +6466,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="DI26" s="26"/>
+      <c r="DI26" s="30"/>
       <c r="DJ26" t="s">
         <v>59</v>
       </c>
@@ -6278,7 +6510,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="DW26" s="26"/>
+      <c r="DW26" s="30"/>
       <c r="DX26" t="s">
         <v>59</v>
       </c>
@@ -6338,7 +6570,7 @@
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="EO26" s="26"/>
+      <c r="EO26" s="30"/>
       <c r="EP26" t="s">
         <v>59</v>
       </c>
@@ -6426,7 +6658,7 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="FN26" s="26"/>
+      <c r="FN26" s="30"/>
       <c r="FO26" t="s">
         <v>59</v>
       </c>
@@ -6478,7 +6710,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="GD26" s="26"/>
+      <c r="GD26" s="30"/>
       <c r="GE26" t="s">
         <v>59</v>
       </c>
@@ -6617,7 +6849,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S27" s="26"/>
+      <c r="S27" s="30"/>
       <c r="T27" t="s">
         <v>67</v>
       </c>
@@ -6681,7 +6913,7 @@
         <f t="shared" si="52"/>
         <v>0.61338578539768129</v>
       </c>
-      <c r="AL27" s="26"/>
+      <c r="AL27" s="30"/>
       <c r="AM27" t="s">
         <v>69</v>
       </c>
@@ -6741,7 +6973,7 @@
         <f t="shared" si="53"/>
         <v>0.28369501596249941</v>
       </c>
-      <c r="BD27" s="26"/>
+      <c r="BD27" s="30"/>
       <c r="BE27" t="s">
         <v>71</v>
       </c>
@@ -6833,7 +7065,7 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="CD27" s="26"/>
+      <c r="CD27" s="30"/>
       <c r="CE27" t="s">
         <v>73</v>
       </c>
@@ -6881,7 +7113,7 @@
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="CS27" s="26"/>
+      <c r="CS27" s="30"/>
       <c r="CT27" t="s">
         <v>82</v>
       </c>
@@ -6933,7 +7165,7 @@
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="DI27" s="26"/>
+      <c r="DI27" s="30"/>
       <c r="DJ27" t="s">
         <v>86</v>
       </c>
@@ -6977,7 +7209,7 @@
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="DW27" s="26"/>
+      <c r="DW27" s="30"/>
       <c r="DX27" t="s">
         <v>90</v>
       </c>
@@ -7037,7 +7269,7 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="EO27" s="26"/>
+      <c r="EO27" s="30"/>
       <c r="EP27" t="s">
         <v>94</v>
       </c>
@@ -7125,7 +7357,7 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="FN27" s="26"/>
+      <c r="FN27" s="30"/>
       <c r="FO27" t="s">
         <v>98</v>
       </c>
@@ -7177,7 +7409,7 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="GD27" s="26"/>
+      <c r="GD27" s="30"/>
       <c r="GE27" t="s">
         <v>101</v>
       </c>
@@ -7316,7 +7548,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S28" s="26"/>
+      <c r="S28" s="30"/>
       <c r="T28" t="s">
         <v>68</v>
       </c>
@@ -7324,7 +7556,7 @@
         <f>SUM(U27:AI27)</f>
         <v>3.9357065164898635</v>
       </c>
-      <c r="AL28" s="26"/>
+      <c r="AL28" s="30"/>
       <c r="AM28" t="s">
         <v>70</v>
       </c>
@@ -7332,7 +7564,7 @@
         <f>SUM(AN27:BB27)</f>
         <v>2.261878676221392</v>
       </c>
-      <c r="BD28" s="26"/>
+      <c r="BD28" s="30"/>
       <c r="BE28" t="s">
         <v>72</v>
       </c>
@@ -7340,7 +7572,7 @@
         <f>SUM(BF27:CA27)</f>
         <v>2.6741435730571617</v>
       </c>
-      <c r="CD28" s="26"/>
+      <c r="CD28" s="30"/>
       <c r="CE28" t="s">
         <v>74</v>
       </c>
@@ -7348,7 +7580,7 @@
         <f>SUM(CF27:CP27)</f>
         <v>1.9997338114102676</v>
       </c>
-      <c r="CS28" s="26"/>
+      <c r="CS28" s="30"/>
       <c r="CT28" t="s">
         <v>83</v>
       </c>
@@ -7356,7 +7588,7 @@
         <f>SUM(CU27:DE27)</f>
         <v>1.0448011008636686</v>
       </c>
-      <c r="DI28" s="26"/>
+      <c r="DI28" s="30"/>
       <c r="DJ28" t="s">
         <v>87</v>
       </c>
@@ -7364,7 +7596,7 @@
         <f>SUM(DK27:DT27)</f>
         <v>0.82940933632659775</v>
       </c>
-      <c r="DW28" s="26"/>
+      <c r="DW28" s="30"/>
       <c r="DX28" t="s">
         <v>91</v>
       </c>
@@ -7372,7 +7604,7 @@
         <f>SUM(DY27:EL27)</f>
         <v>1.2712125501992406</v>
       </c>
-      <c r="EO28" s="26"/>
+      <c r="EO28" s="30"/>
       <c r="EP28" t="s">
         <v>95</v>
       </c>
@@ -7380,7 +7612,7 @@
         <f>SUM(EQ27:FD27)</f>
         <v>0</v>
       </c>
-      <c r="FN28" s="26"/>
+      <c r="FN28" s="30"/>
       <c r="FO28" t="s">
         <v>99</v>
       </c>
@@ -7388,7 +7620,7 @@
         <f>SUM(FP27:GA27)</f>
         <v>0.35647879998936638</v>
       </c>
-      <c r="GD28" s="26"/>
+      <c r="GD28" s="30"/>
       <c r="GE28" t="s">
         <v>102</v>
       </c>
@@ -7500,7 +7732,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S30" s="26">
+      <c r="S30" s="30">
         <v>4</v>
       </c>
       <c r="T30" t="s">
@@ -7566,7 +7798,7 @@
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="AL30" s="26">
+      <c r="AL30" s="30">
         <v>4</v>
       </c>
       <c r="AM30" t="s">
@@ -7628,7 +7860,7 @@
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BD30" s="26">
+      <c r="BD30" s="30">
         <v>4</v>
       </c>
       <c r="BE30" t="s">
@@ -7722,7 +7954,7 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="CD30" s="26">
+      <c r="CD30" s="30">
         <v>3</v>
       </c>
       <c r="CE30" t="s">
@@ -7772,7 +8004,7 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="CS30" s="26">
+      <c r="CS30" s="30">
         <v>3</v>
       </c>
       <c r="CT30" t="s">
@@ -7826,7 +8058,7 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="DI30" s="26">
+      <c r="DI30" s="30">
         <v>3</v>
       </c>
       <c r="DJ30" t="s">
@@ -7872,7 +8104,7 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DW30" s="26">
+      <c r="DW30" s="30">
         <v>3</v>
       </c>
       <c r="DX30" t="s">
@@ -7934,7 +8166,7 @@
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="EO30" s="26">
+      <c r="EO30" s="30">
         <v>3</v>
       </c>
       <c r="EP30" t="s">
@@ -8024,7 +8256,7 @@
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="FN30" s="26">
+      <c r="FN30" s="30">
         <v>3</v>
       </c>
       <c r="FO30" t="s">
@@ -8078,7 +8310,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="GD30" s="26">
+      <c r="GD30" s="30">
         <v>3</v>
       </c>
       <c r="GE30" t="s">
@@ -8219,7 +8451,7 @@
         <f t="shared" si="11"/>
         <v>0.53147891704225514</v>
       </c>
-      <c r="S31" s="26"/>
+      <c r="S31" s="30"/>
       <c r="T31" t="s">
         <v>59</v>
       </c>
@@ -8283,7 +8515,7 @@
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="AL31" s="26"/>
+      <c r="AL31" s="30"/>
       <c r="AM31" t="s">
         <v>59</v>
       </c>
@@ -8343,7 +8575,7 @@
         <f t="shared" si="76"/>
         <v>0.34242268082220628</v>
       </c>
-      <c r="BD31" s="26"/>
+      <c r="BD31" s="30"/>
       <c r="BE31" t="s">
         <v>59</v>
       </c>
@@ -8435,7 +8667,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="CD31" s="26"/>
+      <c r="CD31" s="30"/>
       <c r="CE31" t="s">
         <v>59</v>
       </c>
@@ -8483,7 +8715,7 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="CS31" s="26"/>
+      <c r="CS31" s="30"/>
       <c r="CT31" t="s">
         <v>59</v>
       </c>
@@ -8535,7 +8767,7 @@
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="DI31" s="26"/>
+      <c r="DI31" s="30"/>
       <c r="DJ31" t="s">
         <v>59</v>
       </c>
@@ -8579,7 +8811,7 @@
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="DW31" s="26"/>
+      <c r="DW31" s="30"/>
       <c r="DX31" t="s">
         <v>59</v>
       </c>
@@ -8639,7 +8871,7 @@
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="EO31" s="26"/>
+      <c r="EO31" s="30"/>
       <c r="EP31" t="s">
         <v>59</v>
       </c>
@@ -8727,7 +8959,7 @@
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="FN31" s="26"/>
+      <c r="FN31" s="30"/>
       <c r="FO31" t="s">
         <v>59</v>
       </c>
@@ -8779,7 +9011,7 @@
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="GD31" s="26"/>
+      <c r="GD31" s="30"/>
       <c r="GE31" t="s">
         <v>59</v>
       </c>
@@ -8918,7 +9150,7 @@
         <f t="shared" si="11"/>
         <v>0.53147891704225514</v>
       </c>
-      <c r="S32" s="26"/>
+      <c r="S32" s="30"/>
       <c r="T32" t="s">
         <v>67</v>
       </c>
@@ -8982,7 +9214,7 @@
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="AL32" s="26"/>
+      <c r="AL32" s="30"/>
       <c r="AM32" t="s">
         <v>69</v>
       </c>
@@ -9042,7 +9274,7 @@
         <f t="shared" si="86"/>
         <v>0.39724511765015802</v>
       </c>
-      <c r="BD32" s="26"/>
+      <c r="BD32" s="30"/>
       <c r="BE32" t="s">
         <v>71</v>
       </c>
@@ -9134,7 +9366,7 @@
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="CD32" s="26"/>
+      <c r="CD32" s="30"/>
       <c r="CE32" t="s">
         <v>73</v>
       </c>
@@ -9182,7 +9414,7 @@
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
-      <c r="CS32" s="26"/>
+      <c r="CS32" s="30"/>
       <c r="CT32" t="s">
         <v>82</v>
       </c>
@@ -9234,7 +9466,7 @@
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
-      <c r="DI32" s="26"/>
+      <c r="DI32" s="30"/>
       <c r="DJ32" t="s">
         <v>86</v>
       </c>
@@ -9278,7 +9510,7 @@
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="DW32" s="26"/>
+      <c r="DW32" s="30"/>
       <c r="DX32" t="s">
         <v>90</v>
       </c>
@@ -9338,7 +9570,7 @@
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="EO32" s="26"/>
+      <c r="EO32" s="30"/>
       <c r="EP32" t="s">
         <v>94</v>
       </c>
@@ -9426,7 +9658,7 @@
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="FN32" s="26"/>
+      <c r="FN32" s="30"/>
       <c r="FO32" t="s">
         <v>98</v>
       </c>
@@ -9478,7 +9710,7 @@
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="GD32" s="26"/>
+      <c r="GD32" s="30"/>
       <c r="GE32" t="s">
         <v>101</v>
       </c>
@@ -9617,7 +9849,7 @@
         <f t="shared" si="11"/>
         <v>0.33099321904142442</v>
       </c>
-      <c r="S33" s="26"/>
+      <c r="S33" s="30"/>
       <c r="T33" t="s">
         <v>68</v>
       </c>
@@ -9625,7 +9857,7 @@
         <f>SUM(U32:AI32)</f>
         <v>1.3572441595047966</v>
       </c>
-      <c r="AL33" s="26"/>
+      <c r="AL33" s="30"/>
       <c r="AM33" t="s">
         <v>70</v>
       </c>
@@ -9633,7 +9865,7 @@
         <f>SUM(AN32:BB32)</f>
         <v>2.1192182262574351</v>
       </c>
-      <c r="BD33" s="26"/>
+      <c r="BD33" s="30"/>
       <c r="BE33" t="s">
         <v>72</v>
       </c>
@@ -9641,7 +9873,7 @@
         <f>SUM(BF32:CA32)</f>
         <v>0.70263194096552373</v>
       </c>
-      <c r="CD33" s="26"/>
+      <c r="CD33" s="30"/>
       <c r="CE33" t="s">
         <v>74</v>
       </c>
@@ -9649,7 +9881,7 @@
         <f>SUM(CF32:CP32)</f>
         <v>0.50178887254071436</v>
       </c>
-      <c r="CS33" s="26"/>
+      <c r="CS33" s="30"/>
       <c r="CT33" t="s">
         <v>83</v>
       </c>
@@ -9657,7 +9889,7 @@
         <f>SUM(CU32:DE32)</f>
         <v>0</v>
       </c>
-      <c r="DI33" s="26"/>
+      <c r="DI33" s="30"/>
       <c r="DJ33" t="s">
         <v>87</v>
       </c>
@@ -9665,7 +9897,7 @@
         <f>SUM(DK32:DT32)</f>
         <v>1.1151746579383957</v>
       </c>
-      <c r="DW33" s="26"/>
+      <c r="DW33" s="30"/>
       <c r="DX33" t="s">
         <v>91</v>
       </c>
@@ -9673,7 +9905,7 @@
         <f>SUM(DY32:EL32)</f>
         <v>1.4791590040972249</v>
       </c>
-      <c r="EO33" s="26"/>
+      <c r="EO33" s="30"/>
       <c r="EP33" t="s">
         <v>95</v>
       </c>
@@ -9681,7 +9913,7 @@
         <f>SUM(EQ32:FK32)</f>
         <v>2.279127662467423</v>
       </c>
-      <c r="FN33" s="26"/>
+      <c r="FN33" s="30"/>
       <c r="FO33" t="s">
         <v>99</v>
       </c>
@@ -9689,7 +9921,7 @@
         <f>SUM(FP32:GA32)</f>
         <v>0</v>
       </c>
-      <c r="GD33" s="26"/>
+      <c r="GD33" s="30"/>
       <c r="GE33" t="s">
         <v>102</v>
       </c>
@@ -9801,7 +10033,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S35" s="26">
+      <c r="S35" s="30">
         <v>5</v>
       </c>
       <c r="T35" t="s">
@@ -9867,7 +10099,7 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AL35" s="26">
+      <c r="AL35" s="30">
         <v>5</v>
       </c>
       <c r="AM35" t="s">
@@ -9929,7 +10161,7 @@
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="BD35" s="26">
+      <c r="BD35" s="30">
         <v>5</v>
       </c>
       <c r="BE35" t="s">
@@ -10023,7 +10255,7 @@
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="CD35" s="26">
+      <c r="CD35" s="30">
         <v>5</v>
       </c>
       <c r="CE35" t="s">
@@ -10073,7 +10305,7 @@
         <f>VLOOKUP(CP$19,$A$20:$M$106,6)</f>
         <v>0</v>
       </c>
-      <c r="CS35" s="26">
+      <c r="CS35" s="30">
         <v>4</v>
       </c>
       <c r="CT35" t="s">
@@ -10127,7 +10359,7 @@
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="DI35" s="26">
+      <c r="DI35" s="30">
         <v>4</v>
       </c>
       <c r="DJ35" t="s">
@@ -10173,7 +10405,7 @@
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="DW35" s="26">
+      <c r="DW35" s="30">
         <v>4</v>
       </c>
       <c r="DX35" t="s">
@@ -10235,7 +10467,7 @@
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="EO35" s="26">
+      <c r="EO35" s="30">
         <v>4</v>
       </c>
       <c r="EP35" t="s">
@@ -10325,7 +10557,7 @@
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="FN35" s="26">
+      <c r="FN35" s="30">
         <v>4</v>
       </c>
       <c r="FO35" t="s">
@@ -10379,7 +10611,7 @@
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="GD35" s="26">
+      <c r="GD35" s="30">
         <v>4</v>
       </c>
       <c r="GE35" t="s">
@@ -10520,7 +10752,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S36" s="26"/>
+      <c r="S36" s="30"/>
       <c r="T36" t="s">
         <v>59</v>
       </c>
@@ -10584,7 +10816,7 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AL36" s="26"/>
+      <c r="AL36" s="30"/>
       <c r="AM36" t="s">
         <v>59</v>
       </c>
@@ -10644,7 +10876,7 @@
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="BD36" s="26"/>
+      <c r="BD36" s="30"/>
       <c r="BE36" t="s">
         <v>59</v>
       </c>
@@ -10736,7 +10968,7 @@
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="CD36" s="26"/>
+      <c r="CD36" s="30"/>
       <c r="CE36" t="s">
         <v>59</v>
       </c>
@@ -10784,7 +11016,7 @@
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="CS36" s="26"/>
+      <c r="CS36" s="30"/>
       <c r="CT36" t="s">
         <v>59</v>
       </c>
@@ -10836,7 +11068,7 @@
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="DI36" s="26"/>
+      <c r="DI36" s="30"/>
       <c r="DJ36" t="s">
         <v>59</v>
       </c>
@@ -10880,7 +11112,7 @@
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="DW36" s="26"/>
+      <c r="DW36" s="30"/>
       <c r="DX36" t="s">
         <v>59</v>
       </c>
@@ -10940,7 +11172,7 @@
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="EO36" s="26"/>
+      <c r="EO36" s="30"/>
       <c r="EP36" t="s">
         <v>59</v>
       </c>
@@ -11028,7 +11260,7 @@
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="FN36" s="26"/>
+      <c r="FN36" s="30"/>
       <c r="FO36" t="s">
         <v>59</v>
       </c>
@@ -11080,7 +11312,7 @@
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="GD36" s="26"/>
+      <c r="GD36" s="30"/>
       <c r="GE36" t="s">
         <v>59</v>
       </c>
@@ -11219,7 +11451,7 @@
         <f t="shared" si="11"/>
         <v>0.15970084286751185</v>
       </c>
-      <c r="S37" s="26"/>
+      <c r="S37" s="30"/>
       <c r="T37" t="s">
         <v>67</v>
       </c>
@@ -11283,7 +11515,7 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AL37" s="26"/>
+      <c r="AL37" s="30"/>
       <c r="AM37" t="s">
         <v>69</v>
       </c>
@@ -11343,7 +11575,7 @@
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="BD37" s="26"/>
+      <c r="BD37" s="30"/>
       <c r="BE37" t="s">
         <v>71</v>
       </c>
@@ -11435,7 +11667,7 @@
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="CD37" s="26"/>
+      <c r="CD37" s="30"/>
       <c r="CE37" t="s">
         <v>73</v>
       </c>
@@ -11483,7 +11715,7 @@
         <f t="shared" ref="CP37" si="118">(CP36*($Q$18+1)*CP35)/($Q$18*((1-$Q$19)+($Q$19*$E$107/$Q$20))+CP35)</f>
         <v>0</v>
       </c>
-      <c r="CS37" s="26"/>
+      <c r="CS37" s="30"/>
       <c r="CT37" t="s">
         <v>82</v>
       </c>
@@ -11535,7 +11767,7 @@
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="DI37" s="26"/>
+      <c r="DI37" s="30"/>
       <c r="DJ37" t="s">
         <v>86</v>
       </c>
@@ -11579,7 +11811,7 @@
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="DW37" s="26"/>
+      <c r="DW37" s="30"/>
       <c r="DX37" t="s">
         <v>90</v>
       </c>
@@ -11639,7 +11871,7 @@
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
-      <c r="EO37" s="26"/>
+      <c r="EO37" s="30"/>
       <c r="EP37" t="s">
         <v>94</v>
       </c>
@@ -11727,7 +11959,7 @@
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="FN37" s="26"/>
+      <c r="FN37" s="30"/>
       <c r="FO37" t="s">
         <v>98</v>
       </c>
@@ -11779,7 +12011,7 @@
         <f t="shared" si="123"/>
         <v>0</v>
       </c>
-      <c r="GD37" s="26"/>
+      <c r="GD37" s="30"/>
       <c r="GE37" t="s">
         <v>101</v>
       </c>
@@ -11918,7 +12150,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S38" s="26"/>
+      <c r="S38" s="30"/>
       <c r="T38" t="s">
         <v>68</v>
       </c>
@@ -11982,7 +12214,7 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AL38" s="26"/>
+      <c r="AL38" s="30"/>
       <c r="AM38" t="s">
         <v>70</v>
       </c>
@@ -11990,7 +12222,7 @@
         <f>SUM(AN37:BA37)</f>
         <v>1.1319216373779339</v>
       </c>
-      <c r="BD38" s="26"/>
+      <c r="BD38" s="30"/>
       <c r="BE38" t="s">
         <v>72</v>
       </c>
@@ -11998,7 +12230,7 @@
         <f>SUM(BF37:CA37)</f>
         <v>0</v>
       </c>
-      <c r="CD38" s="26"/>
+      <c r="CD38" s="30"/>
       <c r="CE38" t="s">
         <v>74</v>
       </c>
@@ -12006,7 +12238,7 @@
         <f>SUM(CF37:CP37)</f>
         <v>2.5050690630324084</v>
       </c>
-      <c r="CS38" s="26"/>
+      <c r="CS38" s="30"/>
       <c r="CT38" t="s">
         <v>83</v>
       </c>
@@ -12014,7 +12246,7 @@
         <f>SUM(CU37:DF37)</f>
         <v>2.5766879371343512</v>
       </c>
-      <c r="DI38" s="26"/>
+      <c r="DI38" s="30"/>
       <c r="DJ38" t="s">
         <v>87</v>
       </c>
@@ -12022,7 +12254,7 @@
         <f>SUM(DK37:DT37)</f>
         <v>0.30538682331536576</v>
       </c>
-      <c r="DW38" s="26"/>
+      <c r="DW38" s="30"/>
       <c r="DX38" t="s">
         <v>91</v>
       </c>
@@ -12030,7 +12262,7 @@
         <f>SUM(DY37:EL37)</f>
         <v>1.4165862852919111</v>
       </c>
-      <c r="EO38" s="26"/>
+      <c r="EO38" s="30"/>
       <c r="EP38" t="s">
         <v>95</v>
       </c>
@@ -12038,7 +12270,7 @@
         <f>SUM(EQ37:FK37)</f>
         <v>0.65461221853927276</v>
       </c>
-      <c r="FN38" s="26"/>
+      <c r="FN38" s="30"/>
       <c r="FO38" t="s">
         <v>99</v>
       </c>
@@ -12046,7 +12278,7 @@
         <f>SUM(FP37:GA37)</f>
         <v>0.39724511765015802</v>
       </c>
-      <c r="GD38" s="26"/>
+      <c r="GD38" s="30"/>
       <c r="GE38" t="s">
         <v>102</v>
       </c>
@@ -12158,7 +12390,7 @@
         <f t="shared" si="11"/>
         <v>0.53147891704225514</v>
       </c>
-      <c r="S40" s="26">
+      <c r="S40" s="30">
         <v>6</v>
       </c>
       <c r="T40" t="s">
@@ -12224,7 +12456,7 @@
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="AL40" s="26">
+      <c r="AL40" s="30">
         <v>6</v>
       </c>
       <c r="AM40" t="s">
@@ -12286,7 +12518,7 @@
         <f t="shared" si="126"/>
         <v>0</v>
       </c>
-      <c r="BD40" s="26">
+      <c r="BD40" s="30">
         <v>6</v>
       </c>
       <c r="BE40" t="s">
@@ -12380,7 +12612,7 @@
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="CD40" s="26">
+      <c r="CD40" s="30">
         <v>6</v>
       </c>
       <c r="CE40" t="s">
@@ -12430,7 +12662,7 @@
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="CS40" s="26">
+      <c r="CS40" s="30">
         <v>6</v>
       </c>
       <c r="CT40" t="s">
@@ -12484,7 +12716,7 @@
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="DI40" s="26">
+      <c r="DI40" s="30">
         <v>5</v>
       </c>
       <c r="DJ40" t="s">
@@ -12530,7 +12762,7 @@
         <f t="shared" si="130"/>
         <v>1</v>
       </c>
-      <c r="DW40" s="26">
+      <c r="DW40" s="30">
         <v>5</v>
       </c>
       <c r="DX40" t="s">
@@ -12592,7 +12824,7 @@
         <f t="shared" si="131"/>
         <v>0</v>
       </c>
-      <c r="EO40" s="26">
+      <c r="EO40" s="30">
         <v>5</v>
       </c>
       <c r="EP40" t="s">
@@ -12682,7 +12914,7 @@
         <f t="shared" si="132"/>
         <v>0</v>
       </c>
-      <c r="FN40" s="26">
+      <c r="FN40" s="30">
         <v>5</v>
       </c>
       <c r="FO40" t="s">
@@ -12736,7 +12968,7 @@
         <f t="shared" si="133"/>
         <v>0</v>
       </c>
-      <c r="GD40" s="26">
+      <c r="GD40" s="30">
         <v>5</v>
       </c>
       <c r="GE40" t="s">
@@ -12877,7 +13109,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S41" s="26"/>
+      <c r="S41" s="30"/>
       <c r="T41" t="s">
         <v>59</v>
       </c>
@@ -12941,7 +13173,7 @@
         <f t="shared" si="135"/>
         <v>0</v>
       </c>
-      <c r="AL41" s="26"/>
+      <c r="AL41" s="30"/>
       <c r="AM41" t="s">
         <v>59</v>
       </c>
@@ -13001,7 +13233,7 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
-      <c r="BD41" s="26"/>
+      <c r="BD41" s="30"/>
       <c r="BE41" t="s">
         <v>59</v>
       </c>
@@ -13093,7 +13325,7 @@
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
-      <c r="CD41" s="26"/>
+      <c r="CD41" s="30"/>
       <c r="CE41" t="s">
         <v>59</v>
       </c>
@@ -13141,7 +13373,7 @@
         <f t="shared" si="138"/>
         <v>0</v>
       </c>
-      <c r="CS41" s="26"/>
+      <c r="CS41" s="30"/>
       <c r="CT41" t="s">
         <v>59</v>
       </c>
@@ -13193,7 +13425,7 @@
         <f t="shared" si="139"/>
         <v>0</v>
       </c>
-      <c r="DI41" s="26"/>
+      <c r="DI41" s="30"/>
       <c r="DJ41" t="s">
         <v>59</v>
       </c>
@@ -13237,7 +13469,7 @@
         <f t="shared" si="140"/>
         <v>0.56427143043856254</v>
       </c>
-      <c r="DW41" s="26"/>
+      <c r="DW41" s="30"/>
       <c r="DX41" t="s">
         <v>59</v>
       </c>
@@ -13297,7 +13529,7 @@
         <f t="shared" si="141"/>
         <v>0</v>
       </c>
-      <c r="EO41" s="26"/>
+      <c r="EO41" s="30"/>
       <c r="EP41" t="s">
         <v>59</v>
       </c>
@@ -13385,7 +13617,7 @@
         <f t="shared" si="142"/>
         <v>0</v>
       </c>
-      <c r="FN41" s="26"/>
+      <c r="FN41" s="30"/>
       <c r="FO41" t="s">
         <v>59</v>
       </c>
@@ -13437,7 +13669,7 @@
         <f t="shared" si="143"/>
         <v>0</v>
       </c>
-      <c r="GD41" s="26"/>
+      <c r="GD41" s="30"/>
       <c r="GE41" t="s">
         <v>59</v>
       </c>
@@ -13576,7 +13808,7 @@
         <f t="shared" si="11"/>
         <v>0.33099321904142442</v>
       </c>
-      <c r="S42" s="26"/>
+      <c r="S42" s="30"/>
       <c r="T42" t="s">
         <v>67</v>
       </c>
@@ -13640,7 +13872,7 @@
         <f t="shared" si="145"/>
         <v>0</v>
       </c>
-      <c r="AL42" s="26"/>
+      <c r="AL42" s="30"/>
       <c r="AM42" t="s">
         <v>69</v>
       </c>
@@ -13700,7 +13932,7 @@
         <f t="shared" si="146"/>
         <v>0</v>
       </c>
-      <c r="BD42" s="26"/>
+      <c r="BD42" s="30"/>
       <c r="BE42" t="s">
         <v>71</v>
       </c>
@@ -13792,7 +14024,7 @@
         <f t="shared" si="147"/>
         <v>0</v>
       </c>
-      <c r="CD42" s="26"/>
+      <c r="CD42" s="30"/>
       <c r="CE42" t="s">
         <v>73</v>
       </c>
@@ -13840,7 +14072,7 @@
         <f t="shared" si="148"/>
         <v>0</v>
       </c>
-      <c r="CS42" s="26"/>
+      <c r="CS42" s="30"/>
       <c r="CT42" t="s">
         <v>82</v>
       </c>
@@ -13892,7 +14124,7 @@
         <f t="shared" si="149"/>
         <v>0</v>
       </c>
-      <c r="DI42" s="26"/>
+      <c r="DI42" s="30"/>
       <c r="DJ42" t="s">
         <v>86</v>
       </c>
@@ -13936,7 +14168,7 @@
         <f>(DT41*($Q$18+1)*DT40)/($Q$18*((1-$Q$19)+($Q$19*$F$107/$Q$20))+DT40)</f>
         <v>0.63641731437975002</v>
       </c>
-      <c r="DW42" s="26"/>
+      <c r="DW42" s="30"/>
       <c r="DX42" t="s">
         <v>90</v>
       </c>
@@ -13996,7 +14228,7 @@
         <f t="shared" si="151"/>
         <v>0</v>
       </c>
-      <c r="EO42" s="26"/>
+      <c r="EO42" s="30"/>
       <c r="EP42" t="s">
         <v>94</v>
       </c>
@@ -14084,7 +14316,7 @@
         <f t="shared" si="152"/>
         <v>0</v>
       </c>
-      <c r="FN42" s="26"/>
+      <c r="FN42" s="30"/>
       <c r="FO42" t="s">
         <v>98</v>
       </c>
@@ -14136,7 +14368,7 @@
         <f t="shared" si="153"/>
         <v>0</v>
       </c>
-      <c r="GD42" s="26"/>
+      <c r="GD42" s="30"/>
       <c r="GE42" t="s">
         <v>101</v>
       </c>
@@ -14275,7 +14507,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S43" s="26"/>
+      <c r="S43" s="30"/>
       <c r="T43" t="s">
         <v>68</v>
       </c>
@@ -14283,7 +14515,7 @@
         <f>SUM(U42:AI42)</f>
         <v>0.30538682331536576</v>
       </c>
-      <c r="AL43" s="26"/>
+      <c r="AL43" s="30"/>
       <c r="AM43" t="s">
         <v>70</v>
       </c>
@@ -14291,7 +14523,7 @@
         <f>SUM(AN42:BB42)</f>
         <v>0.81505740713624242</v>
       </c>
-      <c r="BD43" s="26"/>
+      <c r="BD43" s="30"/>
       <c r="BE43" t="s">
         <v>72</v>
       </c>
@@ -14299,7 +14531,7 @@
         <f>SUM(BF42:CA42)</f>
         <v>1.6844690046740833</v>
       </c>
-      <c r="CD43" s="26"/>
+      <c r="CD43" s="30"/>
       <c r="CE43" t="s">
         <v>74</v>
       </c>
@@ -14307,7 +14539,7 @@
         <f>SUM(CF42:CP42)</f>
         <v>0.30538682331536576</v>
       </c>
-      <c r="CS43" s="26"/>
+      <c r="CS43" s="30"/>
       <c r="CT43" t="s">
         <v>83</v>
       </c>
@@ -14315,7 +14547,7 @@
         <f>SUM(CU42:DE42)</f>
         <v>1.8188950208994221</v>
       </c>
-      <c r="DI43" s="26"/>
+      <c r="DI43" s="30"/>
       <c r="DJ43" t="s">
         <v>87</v>
       </c>
@@ -14323,7 +14555,7 @@
         <f>SUM(DK42:DT42)</f>
         <v>1.768338951757684</v>
       </c>
-      <c r="DW43" s="26"/>
+      <c r="DW43" s="30"/>
       <c r="DX43" t="s">
         <v>91</v>
       </c>
@@ -14331,7 +14563,7 @@
         <f>SUM(DY42:EL42)</f>
         <v>0</v>
       </c>
-      <c r="EO43" s="26"/>
+      <c r="EO43" s="30"/>
       <c r="EP43" t="s">
         <v>95</v>
       </c>
@@ -14339,7 +14571,7 @@
         <f>SUM(EQ42:FK42)</f>
         <v>0</v>
       </c>
-      <c r="FN43" s="26"/>
+      <c r="FN43" s="30"/>
       <c r="FO43" t="s">
         <v>99</v>
       </c>
@@ -14347,7 +14579,7 @@
         <f>SUM(FP42:GA42)</f>
         <v>0</v>
       </c>
-      <c r="GD43" s="26"/>
+      <c r="GD43" s="30"/>
       <c r="GE43" t="s">
         <v>102</v>
       </c>
@@ -14459,7 +14691,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S45" s="26">
+      <c r="S45" s="30">
         <v>7</v>
       </c>
       <c r="T45" t="s">
@@ -14525,7 +14757,7 @@
         <f t="shared" si="155"/>
         <v>0</v>
       </c>
-      <c r="AL45" s="26">
+      <c r="AL45" s="30">
         <v>7</v>
       </c>
       <c r="AM45" t="s">
@@ -14587,7 +14819,7 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
-      <c r="BD45" s="26">
+      <c r="BD45" s="30">
         <v>7</v>
       </c>
       <c r="BE45" t="s">
@@ -14681,7 +14913,7 @@
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
-      <c r="CD45" s="26">
+      <c r="CD45" s="30">
         <v>7</v>
       </c>
       <c r="CE45" t="s">
@@ -14731,7 +14963,7 @@
         <f t="shared" si="158"/>
         <v>0</v>
       </c>
-      <c r="CS45" s="26">
+      <c r="CS45" s="30">
         <v>7</v>
       </c>
       <c r="CT45" t="s">
@@ -14785,7 +15017,7 @@
         <f t="shared" si="158"/>
         <v>0</v>
       </c>
-      <c r="DI45" s="26">
+      <c r="DI45" s="30">
         <v>7</v>
       </c>
       <c r="DJ45" t="s">
@@ -14831,7 +15063,7 @@
         <f t="shared" si="159"/>
         <v>0</v>
       </c>
-      <c r="DW45" s="26">
+      <c r="DW45" s="30">
         <v>6</v>
       </c>
       <c r="DX45" t="s">
@@ -14893,7 +15125,7 @@
         <f t="shared" si="160"/>
         <v>0</v>
       </c>
-      <c r="EO45" s="26">
+      <c r="EO45" s="30">
         <v>6</v>
       </c>
       <c r="EP45" t="s">
@@ -14983,7 +15215,7 @@
         <f t="shared" si="161"/>
         <v>0</v>
       </c>
-      <c r="FN45" s="26">
+      <c r="FN45" s="30">
         <v>6</v>
       </c>
       <c r="FO45" t="s">
@@ -15037,7 +15269,7 @@
         <f t="shared" si="162"/>
         <v>0</v>
       </c>
-      <c r="GD45" s="26">
+      <c r="GD45" s="30">
         <v>6</v>
       </c>
       <c r="GE45" t="s">
@@ -15178,7 +15410,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S46" s="26"/>
+      <c r="S46" s="30"/>
       <c r="T46" t="s">
         <v>59</v>
       </c>
@@ -15242,7 +15474,7 @@
         <f t="shared" si="164"/>
         <v>0</v>
       </c>
-      <c r="AL46" s="26"/>
+      <c r="AL46" s="30"/>
       <c r="AM46" t="s">
         <v>59</v>
       </c>
@@ -15302,7 +15534,7 @@
         <f t="shared" si="165"/>
         <v>0</v>
       </c>
-      <c r="BD46" s="26"/>
+      <c r="BD46" s="30"/>
       <c r="BE46" t="s">
         <v>59</v>
       </c>
@@ -15394,7 +15626,7 @@
         <f t="shared" si="166"/>
         <v>0</v>
       </c>
-      <c r="CD46" s="26"/>
+      <c r="CD46" s="30"/>
       <c r="CE46" t="s">
         <v>59</v>
       </c>
@@ -15442,7 +15674,7 @@
         <f t="shared" si="167"/>
         <v>0</v>
       </c>
-      <c r="CS46" s="26"/>
+      <c r="CS46" s="30"/>
       <c r="CT46" t="s">
         <v>59</v>
       </c>
@@ -15494,7 +15726,7 @@
         <f t="shared" si="168"/>
         <v>0</v>
       </c>
-      <c r="DI46" s="26"/>
+      <c r="DI46" s="30"/>
       <c r="DJ46" t="s">
         <v>59</v>
       </c>
@@ -15538,7 +15770,7 @@
         <f t="shared" si="169"/>
         <v>0</v>
       </c>
-      <c r="DW46" s="26"/>
+      <c r="DW46" s="30"/>
       <c r="DX46" t="s">
         <v>59</v>
       </c>
@@ -15598,7 +15830,7 @@
         <f t="shared" si="170"/>
         <v>0</v>
       </c>
-      <c r="EO46" s="26"/>
+      <c r="EO46" s="30"/>
       <c r="EP46" t="s">
         <v>59</v>
       </c>
@@ -15686,7 +15918,7 @@
         <f t="shared" si="171"/>
         <v>0</v>
       </c>
-      <c r="FN46" s="26"/>
+      <c r="FN46" s="30"/>
       <c r="FO46" t="s">
         <v>59</v>
       </c>
@@ -15738,7 +15970,7 @@
         <f t="shared" si="172"/>
         <v>0</v>
       </c>
-      <c r="GD46" s="26"/>
+      <c r="GD46" s="30"/>
       <c r="GE46" t="s">
         <v>59</v>
       </c>
@@ -15877,7 +16109,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S47" s="26"/>
+      <c r="S47" s="30"/>
       <c r="T47" t="s">
         <v>67</v>
       </c>
@@ -15941,7 +16173,7 @@
         <f t="shared" si="174"/>
         <v>0</v>
       </c>
-      <c r="AL47" s="26"/>
+      <c r="AL47" s="30"/>
       <c r="AM47" t="s">
         <v>69</v>
       </c>
@@ -16001,7 +16233,7 @@
         <f t="shared" si="175"/>
         <v>0</v>
       </c>
-      <c r="BD47" s="26"/>
+      <c r="BD47" s="30"/>
       <c r="BE47" t="s">
         <v>71</v>
       </c>
@@ -16093,7 +16325,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="CD47" s="26"/>
+      <c r="CD47" s="30"/>
       <c r="CE47" t="s">
         <v>73</v>
       </c>
@@ -16141,7 +16373,7 @@
         <f t="shared" si="177"/>
         <v>0</v>
       </c>
-      <c r="CS47" s="26"/>
+      <c r="CS47" s="30"/>
       <c r="CT47" t="s">
         <v>82</v>
       </c>
@@ -16193,7 +16425,7 @@
         <f t="shared" si="178"/>
         <v>0</v>
       </c>
-      <c r="DI47" s="26"/>
+      <c r="DI47" s="30"/>
       <c r="DJ47" t="s">
         <v>86</v>
       </c>
@@ -16237,7 +16469,7 @@
         <f t="shared" si="179"/>
         <v>0</v>
       </c>
-      <c r="DW47" s="26"/>
+      <c r="DW47" s="30"/>
       <c r="DX47" t="s">
         <v>90</v>
       </c>
@@ -16297,7 +16529,7 @@
         <f t="shared" si="180"/>
         <v>0</v>
       </c>
-      <c r="EO47" s="26"/>
+      <c r="EO47" s="30"/>
       <c r="EP47" t="s">
         <v>94</v>
       </c>
@@ -16385,7 +16617,7 @@
         <f t="shared" si="181"/>
         <v>0</v>
       </c>
-      <c r="FN47" s="26"/>
+      <c r="FN47" s="30"/>
       <c r="FO47" t="s">
         <v>98</v>
       </c>
@@ -16437,7 +16669,7 @@
         <f t="shared" si="182"/>
         <v>0</v>
       </c>
-      <c r="GD47" s="26"/>
+      <c r="GD47" s="30"/>
       <c r="GE47" t="s">
         <v>101</v>
       </c>
@@ -16576,7 +16808,7 @@
         <f t="shared" si="11"/>
         <v>0.33099321904142442</v>
       </c>
-      <c r="S48" s="26"/>
+      <c r="S48" s="30"/>
       <c r="T48" t="s">
         <v>68</v>
       </c>
@@ -16584,7 +16816,7 @@
         <f>SUM(U47:AI47)</f>
         <v>2.4562414708672167</v>
       </c>
-      <c r="AL48" s="26"/>
+      <c r="AL48" s="30"/>
       <c r="AM48" t="s">
         <v>70</v>
       </c>
@@ -16592,7 +16824,7 @@
         <f>SUM(AN47:BB47)</f>
         <v>1.2712125501992406</v>
       </c>
-      <c r="BD48" s="26"/>
+      <c r="BD48" s="30"/>
       <c r="BE48" t="s">
         <v>72</v>
       </c>
@@ -16600,7 +16832,7 @@
         <f>SUM(BF47:CA47)</f>
         <v>1.9861182973163989</v>
       </c>
-      <c r="CD48" s="26"/>
+      <c r="CD48" s="30"/>
       <c r="CE48" t="s">
         <v>74</v>
       </c>
@@ -16608,7 +16840,7 @@
         <f>SUM(CF47:CP47)</f>
         <v>1.2712125501992406</v>
       </c>
-      <c r="CS48" s="26"/>
+      <c r="CS48" s="30"/>
       <c r="CT48" t="s">
         <v>83</v>
       </c>
@@ -16616,7 +16848,7 @@
         <f>SUM(CU47:DE47)</f>
         <v>0</v>
       </c>
-      <c r="DI48" s="26"/>
+      <c r="DI48" s="30"/>
       <c r="DJ48" t="s">
         <v>87</v>
       </c>
@@ -16624,7 +16856,7 @@
         <f>SUM(DK47:DT47)</f>
         <v>1.0713845471065246</v>
       </c>
-      <c r="DW48" s="26"/>
+      <c r="DW48" s="30"/>
       <c r="DX48" t="s">
         <v>91</v>
       </c>
@@ -16632,7 +16864,7 @@
         <f>SUM(DY47:EL47)</f>
         <v>1.1747984208532067</v>
       </c>
-      <c r="EO48" s="26"/>
+      <c r="EO48" s="30"/>
       <c r="EP48" t="s">
         <v>95</v>
       </c>
@@ -16640,7 +16872,7 @@
         <f>SUM(EQ47:FK47)</f>
         <v>0.52018620231393398</v>
       </c>
-      <c r="FN48" s="26"/>
+      <c r="FN48" s="30"/>
       <c r="FO48" t="s">
         <v>99</v>
       </c>
@@ -16648,7 +16880,7 @@
         <f>SUM(FP47:GA47)</f>
         <v>0</v>
       </c>
-      <c r="GD48" s="26"/>
+      <c r="GD48" s="30"/>
       <c r="GE48" t="s">
         <v>102</v>
       </c>
@@ -16760,7 +16992,7 @@
         <f t="shared" si="11"/>
         <v>0.15970084286751185</v>
       </c>
-      <c r="S50" s="26">
+      <c r="S50" s="30">
         <v>8</v>
       </c>
       <c r="T50" t="s">
@@ -16826,7 +17058,7 @@
         <f t="shared" si="184"/>
         <v>0</v>
       </c>
-      <c r="AL50" s="26">
+      <c r="AL50" s="30">
         <v>8</v>
       </c>
       <c r="AM50" t="s">
@@ -16888,7 +17120,7 @@
         <f t="shared" si="185"/>
         <v>0</v>
       </c>
-      <c r="BD50" s="26">
+      <c r="BD50" s="30">
         <v>8</v>
       </c>
       <c r="BE50" t="s">
@@ -16982,7 +17214,7 @@
         <f t="shared" si="186"/>
         <v>0</v>
       </c>
-      <c r="CD50" s="26">
+      <c r="CD50" s="30">
         <v>8</v>
       </c>
       <c r="CE50" t="s">
@@ -17032,7 +17264,7 @@
         <f t="shared" si="187"/>
         <v>1</v>
       </c>
-      <c r="CS50" s="26">
+      <c r="CS50" s="30">
         <v>8</v>
       </c>
       <c r="CT50" t="s">
@@ -17086,7 +17318,7 @@
         <f t="shared" si="187"/>
         <v>0</v>
       </c>
-      <c r="DI50" s="26">
+      <c r="DI50" s="30">
         <v>8</v>
       </c>
       <c r="DJ50" t="s">
@@ -17132,7 +17364,7 @@
         <f t="shared" si="188"/>
         <v>0</v>
       </c>
-      <c r="DW50" s="26">
+      <c r="DW50" s="30">
         <v>8</v>
       </c>
       <c r="DX50" t="s">
@@ -17194,7 +17426,7 @@
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="EO50" s="26">
+      <c r="EO50" s="30">
         <v>7</v>
       </c>
       <c r="EP50" t="s">
@@ -17284,7 +17516,7 @@
         <f t="shared" si="190"/>
         <v>1</v>
       </c>
-      <c r="FN50" s="26">
+      <c r="FN50" s="30">
         <v>7</v>
       </c>
       <c r="FO50" t="s">
@@ -17338,7 +17570,7 @@
         <f t="shared" si="191"/>
         <v>0</v>
       </c>
-      <c r="GD50" s="26">
+      <c r="GD50" s="30">
         <v>7</v>
       </c>
       <c r="GE50" t="s">
@@ -17479,7 +17711,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S51" s="26"/>
+      <c r="S51" s="30"/>
       <c r="T51" t="s">
         <v>59</v>
       </c>
@@ -17543,7 +17775,7 @@
         <f t="shared" si="193"/>
         <v>0</v>
       </c>
-      <c r="AL51" s="26"/>
+      <c r="AL51" s="30"/>
       <c r="AM51" t="s">
         <v>59</v>
       </c>
@@ -17603,7 +17835,7 @@
         <f t="shared" si="194"/>
         <v>0</v>
       </c>
-      <c r="BD51" s="26"/>
+      <c r="BD51" s="30"/>
       <c r="BE51" t="s">
         <v>59</v>
       </c>
@@ -17695,7 +17927,7 @@
         <f t="shared" si="195"/>
         <v>0</v>
       </c>
-      <c r="CD51" s="26"/>
+      <c r="CD51" s="30"/>
       <c r="CE51" t="s">
         <v>59</v>
       </c>
@@ -17743,7 +17975,7 @@
         <f t="shared" si="196"/>
         <v>0.56427143043856254</v>
       </c>
-      <c r="CS51" s="26"/>
+      <c r="CS51" s="30"/>
       <c r="CT51" t="s">
         <v>59</v>
       </c>
@@ -17795,7 +18027,7 @@
         <f t="shared" si="197"/>
         <v>0</v>
       </c>
-      <c r="DI51" s="26"/>
+      <c r="DI51" s="30"/>
       <c r="DJ51" t="s">
         <v>59</v>
       </c>
@@ -17839,7 +18071,7 @@
         <f t="shared" si="198"/>
         <v>0</v>
       </c>
-      <c r="DW51" s="26"/>
+      <c r="DW51" s="30"/>
       <c r="DX51" t="s">
         <v>59</v>
       </c>
@@ -17899,7 +18131,7 @@
         <f t="shared" si="199"/>
         <v>0</v>
       </c>
-      <c r="EO51" s="26"/>
+      <c r="EO51" s="30"/>
       <c r="EP51" t="s">
         <v>59</v>
       </c>
@@ -17987,7 +18219,7 @@
         <f t="shared" si="200"/>
         <v>0.74036268949424389</v>
       </c>
-      <c r="FN51" s="26"/>
+      <c r="FN51" s="30"/>
       <c r="FO51" t="s">
         <v>59</v>
       </c>
@@ -18039,7 +18271,7 @@
         <f t="shared" si="201"/>
         <v>0</v>
       </c>
-      <c r="GD51" s="26"/>
+      <c r="GD51" s="30"/>
       <c r="GE51" t="s">
         <v>59</v>
       </c>
@@ -18178,7 +18410,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S52" s="26"/>
+      <c r="S52" s="30"/>
       <c r="T52" t="s">
         <v>67</v>
       </c>
@@ -18242,7 +18474,7 @@
         <f t="shared" si="203"/>
         <v>0</v>
       </c>
-      <c r="AL52" s="26"/>
+      <c r="AL52" s="30"/>
       <c r="AM52" t="s">
         <v>69</v>
       </c>
@@ -18302,7 +18534,7 @@
         <f t="shared" si="204"/>
         <v>0</v>
       </c>
-      <c r="BD52" s="26"/>
+      <c r="BD52" s="30"/>
       <c r="BE52" t="s">
         <v>71</v>
       </c>
@@ -18394,7 +18626,7 @@
         <f t="shared" si="205"/>
         <v>0</v>
       </c>
-      <c r="CD52" s="26"/>
+      <c r="CD52" s="30"/>
       <c r="CE52" t="s">
         <v>73</v>
       </c>
@@ -18442,7 +18674,7 @@
         <f t="shared" si="206"/>
         <v>0.46749529581706689</v>
       </c>
-      <c r="CS52" s="26"/>
+      <c r="CS52" s="30"/>
       <c r="CT52" t="s">
         <v>82</v>
       </c>
@@ -18494,7 +18726,7 @@
         <f t="shared" si="207"/>
         <v>0</v>
       </c>
-      <c r="DI52" s="26"/>
+      <c r="DI52" s="30"/>
       <c r="DJ52" t="s">
         <v>86</v>
       </c>
@@ -18538,7 +18770,7 @@
         <f t="shared" si="208"/>
         <v>0</v>
       </c>
-      <c r="DW52" s="26"/>
+      <c r="DW52" s="30"/>
       <c r="DX52" t="s">
         <v>90</v>
       </c>
@@ -18598,7 +18830,7 @@
         <f t="shared" si="209"/>
         <v>0</v>
       </c>
-      <c r="EO52" s="26"/>
+      <c r="EO52" s="30"/>
       <c r="EP52" t="s">
         <v>94</v>
       </c>
@@ -18686,7 +18918,7 @@
         <f>(FK51*($Q$18+1)*FK50)/($Q$18*((1-$Q$19)+($Q$19*$H$107/$Q$20))+FK50)</f>
         <v>0.77075386032867133</v>
       </c>
-      <c r="FN52" s="26"/>
+      <c r="FN52" s="30"/>
       <c r="FO52" t="s">
         <v>98</v>
       </c>
@@ -18738,7 +18970,7 @@
         <f t="shared" si="211"/>
         <v>0</v>
       </c>
-      <c r="GD52" s="26"/>
+      <c r="GD52" s="30"/>
       <c r="GE52" t="s">
         <v>101</v>
       </c>
@@ -18877,7 +19109,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S53" s="26"/>
+      <c r="S53" s="30"/>
       <c r="T53" t="s">
         <v>68</v>
       </c>
@@ -18885,7 +19117,7 @@
         <f>SUM(U52:AI52)</f>
         <v>1.6629592839517924</v>
       </c>
-      <c r="AL53" s="26"/>
+      <c r="AL53" s="30"/>
       <c r="AM53" t="s">
         <v>70</v>
       </c>
@@ -18893,7 +19125,7 @@
         <f>SUM(AN52:BB52)</f>
         <v>0</v>
       </c>
-      <c r="BD53" s="26"/>
+      <c r="BD53" s="30"/>
       <c r="BE53" t="s">
         <v>72</v>
       </c>
@@ -18901,7 +19133,7 @@
         <f>SUM(BF52:CA52)</f>
         <v>2.0751305530232154</v>
       </c>
-      <c r="CD53" s="26"/>
+      <c r="CD53" s="30"/>
       <c r="CE53" t="s">
         <v>74</v>
       </c>
@@ -18909,7 +19141,7 @@
         <f>SUM(CF52:CP52)</f>
         <v>0.46749529581706689</v>
       </c>
-      <c r="CS53" s="26"/>
+      <c r="CS53" s="30"/>
       <c r="CT53" t="s">
         <v>83</v>
       </c>
@@ -18917,7 +19149,7 @@
         <f>SUM(CU52:DE52)</f>
         <v>0</v>
       </c>
-      <c r="DI53" s="26"/>
+      <c r="DI53" s="30"/>
       <c r="DJ53" t="s">
         <v>87</v>
       </c>
@@ -18925,7 +19157,7 @@
         <f>SUM(DK52:DT52)</f>
         <v>0.41217126907142304</v>
       </c>
-      <c r="DW53" s="26"/>
+      <c r="DW53" s="30"/>
       <c r="DX53" t="s">
         <v>91</v>
       </c>
@@ -18933,7 +19165,7 @@
         <f>SUM(DY52:EL52)</f>
         <v>3.2706346070576262</v>
       </c>
-      <c r="EO53" s="26"/>
+      <c r="EO53" s="30"/>
       <c r="EP53" t="s">
         <v>95</v>
       </c>
@@ -18941,7 +19173,7 @@
         <f>SUM(EQ52:FK52)</f>
         <v>3.5276260179737413</v>
       </c>
-      <c r="FN53" s="26"/>
+      <c r="FN53" s="30"/>
       <c r="FO53" t="s">
         <v>99</v>
       </c>
@@ -18949,7 +19181,7 @@
         <f>SUM(FP52:GA52)</f>
         <v>0.35647879998936638</v>
       </c>
-      <c r="GD53" s="26"/>
+      <c r="GD53" s="30"/>
       <c r="GE53" t="s">
         <v>102</v>
       </c>
@@ -19061,7 +19293,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S55" s="26">
+      <c r="S55" s="30">
         <v>9</v>
       </c>
       <c r="T55" t="s">
@@ -19127,7 +19359,7 @@
         <f t="shared" si="213"/>
         <v>0</v>
       </c>
-      <c r="AL55" s="26">
+      <c r="AL55" s="30">
         <v>9</v>
       </c>
       <c r="AM55" t="s">
@@ -19189,7 +19421,7 @@
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="BD55" s="26">
+      <c r="BD55" s="30">
         <v>9</v>
       </c>
       <c r="BE55" t="s">
@@ -19283,7 +19515,7 @@
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="CD55" s="26">
+      <c r="CD55" s="30">
         <v>9</v>
       </c>
       <c r="CE55" t="s">
@@ -19333,7 +19565,7 @@
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="CS55" s="26">
+      <c r="CS55" s="30">
         <v>9</v>
       </c>
       <c r="CT55" t="s">
@@ -19387,7 +19619,7 @@
         <f t="shared" si="218"/>
         <v>0</v>
       </c>
-      <c r="DI55" s="26">
+      <c r="DI55" s="30">
         <v>9</v>
       </c>
       <c r="DJ55" t="s">
@@ -19433,7 +19665,7 @@
         <f t="shared" si="219"/>
         <v>0</v>
       </c>
-      <c r="DW55" s="26">
+      <c r="DW55" s="30">
         <v>9</v>
       </c>
       <c r="DX55" t="s">
@@ -19495,7 +19727,7 @@
         <f t="shared" si="220"/>
         <v>0</v>
       </c>
-      <c r="EO55" s="26">
+      <c r="EO55" s="30">
         <v>9</v>
       </c>
       <c r="EP55" t="s">
@@ -19585,7 +19817,7 @@
         <f t="shared" si="221"/>
         <v>0</v>
       </c>
-      <c r="FN55" s="26">
+      <c r="FN55" s="30">
         <v>8</v>
       </c>
       <c r="FO55" t="s">
@@ -19639,7 +19871,7 @@
         <f t="shared" si="222"/>
         <v>0</v>
       </c>
-      <c r="GD55" s="26">
+      <c r="GD55" s="30">
         <v>8</v>
       </c>
       <c r="GE55" t="s">
@@ -19780,7 +20012,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S56" s="26"/>
+      <c r="S56" s="30"/>
       <c r="T56" t="s">
         <v>59</v>
       </c>
@@ -19844,7 +20076,7 @@
         <f t="shared" si="213"/>
         <v>0</v>
       </c>
-      <c r="AL56" s="26"/>
+      <c r="AL56" s="30"/>
       <c r="AM56" t="s">
         <v>59</v>
       </c>
@@ -19904,7 +20136,7 @@
         <f t="shared" si="224"/>
         <v>0</v>
       </c>
-      <c r="BD56" s="26"/>
+      <c r="BD56" s="30"/>
       <c r="BE56" t="s">
         <v>59</v>
       </c>
@@ -19996,7 +20228,7 @@
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="CD56" s="26"/>
+      <c r="CD56" s="30"/>
       <c r="CE56" t="s">
         <v>59</v>
       </c>
@@ -20044,7 +20276,7 @@
         <f t="shared" si="225"/>
         <v>0</v>
       </c>
-      <c r="CS56" s="26"/>
+      <c r="CS56" s="30"/>
       <c r="CT56" t="s">
         <v>59</v>
       </c>
@@ -20096,7 +20328,7 @@
         <f t="shared" si="226"/>
         <v>0</v>
       </c>
-      <c r="DI56" s="26"/>
+      <c r="DI56" s="30"/>
       <c r="DJ56" t="s">
         <v>59</v>
       </c>
@@ -20140,7 +20372,7 @@
         <f t="shared" si="227"/>
         <v>0</v>
       </c>
-      <c r="DW56" s="26"/>
+      <c r="DW56" s="30"/>
       <c r="DX56" t="s">
         <v>59</v>
       </c>
@@ -20200,7 +20432,7 @@
         <f t="shared" si="228"/>
         <v>0</v>
       </c>
-      <c r="EO56" s="26"/>
+      <c r="EO56" s="30"/>
       <c r="EP56" t="s">
         <v>59</v>
       </c>
@@ -20288,7 +20520,7 @@
         <f t="shared" si="229"/>
         <v>0</v>
       </c>
-      <c r="FN56" s="26"/>
+      <c r="FN56" s="30"/>
       <c r="FO56" t="s">
         <v>59</v>
       </c>
@@ -20340,7 +20572,7 @@
         <f t="shared" si="230"/>
         <v>0</v>
       </c>
-      <c r="GD56" s="26"/>
+      <c r="GD56" s="30"/>
       <c r="GE56" t="s">
         <v>59</v>
       </c>
@@ -20479,7 +20711,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S57" s="26"/>
+      <c r="S57" s="30"/>
       <c r="T57" t="s">
         <v>67</v>
       </c>
@@ -20543,7 +20775,7 @@
         <f t="shared" si="213"/>
         <v>0</v>
       </c>
-      <c r="AL57" s="26"/>
+      <c r="AL57" s="30"/>
       <c r="AM57" t="s">
         <v>69</v>
       </c>
@@ -20603,7 +20835,7 @@
         <f t="shared" si="232"/>
         <v>0</v>
       </c>
-      <c r="BD57" s="26"/>
+      <c r="BD57" s="30"/>
       <c r="BE57" t="s">
         <v>71</v>
       </c>
@@ -20695,7 +20927,7 @@
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="CD57" s="26"/>
+      <c r="CD57" s="30"/>
       <c r="CE57" t="s">
         <v>73</v>
       </c>
@@ -20743,7 +20975,7 @@
         <f t="shared" si="233"/>
         <v>0</v>
       </c>
-      <c r="CS57" s="26"/>
+      <c r="CS57" s="30"/>
       <c r="CT57" t="s">
         <v>82</v>
       </c>
@@ -20795,7 +21027,7 @@
         <f t="shared" si="234"/>
         <v>0</v>
       </c>
-      <c r="DI57" s="26"/>
+      <c r="DI57" s="30"/>
       <c r="DJ57" t="s">
         <v>86</v>
       </c>
@@ -20839,7 +21071,7 @@
         <f t="shared" si="235"/>
         <v>0</v>
       </c>
-      <c r="DW57" s="26"/>
+      <c r="DW57" s="30"/>
       <c r="DX57" t="s">
         <v>90</v>
       </c>
@@ -20899,7 +21131,7 @@
         <f t="shared" si="236"/>
         <v>0</v>
       </c>
-      <c r="EO57" s="26"/>
+      <c r="EO57" s="30"/>
       <c r="EP57" t="s">
         <v>94</v>
       </c>
@@ -20987,7 +21219,7 @@
         <f t="shared" si="237"/>
         <v>0</v>
       </c>
-      <c r="FN57" s="26"/>
+      <c r="FN57" s="30"/>
       <c r="FO57" t="s">
         <v>98</v>
       </c>
@@ -21039,7 +21271,7 @@
         <f t="shared" si="238"/>
         <v>0</v>
       </c>
-      <c r="GD57" s="26"/>
+      <c r="GD57" s="30"/>
       <c r="GE57" t="s">
         <v>101</v>
       </c>
@@ -21178,7 +21410,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S58" s="26"/>
+      <c r="S58" s="30"/>
       <c r="T58" t="s">
         <v>68</v>
       </c>
@@ -21242,7 +21474,7 @@
         <f t="shared" si="213"/>
         <v>0</v>
       </c>
-      <c r="AL58" s="26"/>
+      <c r="AL58" s="30"/>
       <c r="AM58" t="s">
         <v>70</v>
       </c>
@@ -21250,7 +21482,7 @@
         <f>SUM(AN57:BA57)</f>
         <v>0.38620371536834386</v>
       </c>
-      <c r="BD58" s="26"/>
+      <c r="BD58" s="30"/>
       <c r="BE58" t="s">
         <v>72</v>
       </c>
@@ -21258,7 +21490,7 @@
         <f>VLOOKUP(BF$19,$A$20:$M$106,10)</f>
         <v>0</v>
       </c>
-      <c r="CD58" s="26"/>
+      <c r="CD58" s="30"/>
       <c r="CE58" t="s">
         <v>74</v>
       </c>
@@ -21266,7 +21498,7 @@
         <f>SUM(CF57:CP57)</f>
         <v>0.38620371536834386</v>
       </c>
-      <c r="CS58" s="26"/>
+      <c r="CS58" s="30"/>
       <c r="CT58" t="s">
         <v>83</v>
       </c>
@@ -21274,7 +21506,7 @@
         <f>SUM(CU57:DE57)</f>
         <v>0</v>
       </c>
-      <c r="DI58" s="26"/>
+      <c r="DI58" s="30"/>
       <c r="DJ58" t="s">
         <v>87</v>
       </c>
@@ -21282,7 +21514,7 @@
         <f>SUM(DK57:DT57)</f>
         <v>0</v>
       </c>
-      <c r="DW58" s="26"/>
+      <c r="DW58" s="30"/>
       <c r="DX58" t="s">
         <v>91</v>
       </c>
@@ -21290,7 +21522,7 @@
         <f>SUM(DY57:EL57)</f>
         <v>0.38620371536834386</v>
       </c>
-      <c r="EO58" s="26"/>
+      <c r="EO58" s="30"/>
       <c r="EP58" t="s">
         <v>95</v>
       </c>
@@ -21298,7 +21530,7 @@
         <f>SUM(EQ57:FD57)</f>
         <v>0</v>
       </c>
-      <c r="FN58" s="26"/>
+      <c r="FN58" s="30"/>
       <c r="FO58" t="s">
         <v>99</v>
       </c>
@@ -21306,7 +21538,7 @@
         <f>SUM(FP57:GA57)</f>
         <v>0</v>
       </c>
-      <c r="GD58" s="26"/>
+      <c r="GD58" s="30"/>
       <c r="GE58" t="s">
         <v>102</v>
       </c>
@@ -21418,7 +21650,7 @@
         <f t="shared" si="11"/>
         <v>0.33099321904142442</v>
       </c>
-      <c r="S60" s="26">
+      <c r="S60" s="30">
         <v>10</v>
       </c>
       <c r="T60" t="s">
@@ -21484,7 +21716,7 @@
         <f t="shared" si="240"/>
         <v>0</v>
       </c>
-      <c r="AL60" s="26">
+      <c r="AL60" s="30">
         <v>10</v>
       </c>
       <c r="AM60" t="s">
@@ -21546,7 +21778,7 @@
         <f t="shared" si="241"/>
         <v>1</v>
       </c>
-      <c r="BD60" s="26">
+      <c r="BD60" s="30">
         <v>10</v>
       </c>
       <c r="BE60" t="s">
@@ -21640,7 +21872,7 @@
         <f t="shared" si="242"/>
         <v>0</v>
       </c>
-      <c r="CD60" s="26">
+      <c r="CD60" s="30">
         <v>10</v>
       </c>
       <c r="CE60" t="s">
@@ -21690,7 +21922,7 @@
         <f t="shared" si="243"/>
         <v>0</v>
       </c>
-      <c r="CS60" s="26">
+      <c r="CS60" s="30">
         <v>10</v>
       </c>
       <c r="CT60" t="s">
@@ -21744,7 +21976,7 @@
         <f t="shared" si="243"/>
         <v>0</v>
       </c>
-      <c r="DI60" s="26">
+      <c r="DI60" s="30">
         <v>10</v>
       </c>
       <c r="DJ60" t="s">
@@ -21790,7 +22022,7 @@
         <f t="shared" si="244"/>
         <v>1</v>
       </c>
-      <c r="DW60" s="26">
+      <c r="DW60" s="30">
         <v>10</v>
       </c>
       <c r="DX60" t="s">
@@ -21852,7 +22084,7 @@
         <f t="shared" si="245"/>
         <v>0</v>
       </c>
-      <c r="EO60" s="26">
+      <c r="EO60" s="30">
         <v>10</v>
       </c>
       <c r="EP60" t="s">
@@ -21942,7 +22174,7 @@
         <f t="shared" si="246"/>
         <v>0</v>
       </c>
-      <c r="FN60" s="26">
+      <c r="FN60" s="30">
         <v>10</v>
       </c>
       <c r="FO60" t="s">
@@ -21996,7 +22228,7 @@
         <f t="shared" si="247"/>
         <v>0</v>
       </c>
-      <c r="GD60" s="26">
+      <c r="GD60" s="30">
         <v>9</v>
       </c>
       <c r="GE60" t="s">
@@ -22137,7 +22369,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S61" s="26"/>
+      <c r="S61" s="30"/>
       <c r="T61" t="s">
         <v>59</v>
       </c>
@@ -22201,7 +22433,7 @@
         <f t="shared" si="249"/>
         <v>0</v>
       </c>
-      <c r="AL61" s="26"/>
+      <c r="AL61" s="30"/>
       <c r="AM61" t="s">
         <v>59</v>
       </c>
@@ -22261,7 +22493,7 @@
         <f t="shared" si="250"/>
         <v>0.34242268082220628</v>
       </c>
-      <c r="BD61" s="26"/>
+      <c r="BD61" s="30"/>
       <c r="BE61" t="s">
         <v>59</v>
       </c>
@@ -22353,7 +22585,7 @@
         <f t="shared" si="251"/>
         <v>0</v>
       </c>
-      <c r="CD61" s="26"/>
+      <c r="CD61" s="30"/>
       <c r="CE61" t="s">
         <v>59</v>
       </c>
@@ -22401,7 +22633,7 @@
         <f t="shared" si="252"/>
         <v>0</v>
       </c>
-      <c r="CS61" s="26"/>
+      <c r="CS61" s="30"/>
       <c r="CT61" t="s">
         <v>59</v>
       </c>
@@ -22453,7 +22685,7 @@
         <f t="shared" si="253"/>
         <v>0</v>
       </c>
-      <c r="DI61" s="26"/>
+      <c r="DI61" s="30"/>
       <c r="DJ61" t="s">
         <v>59</v>
       </c>
@@ -22497,7 +22729,7 @@
         <f t="shared" si="254"/>
         <v>0.56427143043856254</v>
       </c>
-      <c r="DW61" s="26"/>
+      <c r="DW61" s="30"/>
       <c r="DX61" t="s">
         <v>59</v>
       </c>
@@ -22557,7 +22789,7 @@
         <f t="shared" si="255"/>
         <v>0</v>
       </c>
-      <c r="EO61" s="26"/>
+      <c r="EO61" s="30"/>
       <c r="EP61" t="s">
         <v>59</v>
       </c>
@@ -22645,7 +22877,7 @@
         <f t="shared" si="256"/>
         <v>0</v>
       </c>
-      <c r="FN61" s="26"/>
+      <c r="FN61" s="30"/>
       <c r="FO61" t="s">
         <v>59</v>
       </c>
@@ -22697,7 +22929,7 @@
         <f t="shared" si="257"/>
         <v>0</v>
       </c>
-      <c r="GD61" s="26"/>
+      <c r="GD61" s="30"/>
       <c r="GE61" t="s">
         <v>59</v>
       </c>
@@ -22836,7 +23068,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S62" s="26"/>
+      <c r="S62" s="30"/>
       <c r="T62" t="s">
         <v>67</v>
       </c>
@@ -22900,7 +23132,7 @@
         <f t="shared" si="259"/>
         <v>0</v>
       </c>
-      <c r="AL62" s="26"/>
+      <c r="AL62" s="30"/>
       <c r="AM62" t="s">
         <v>69</v>
       </c>
@@ -22960,7 +23192,7 @@
         <f t="shared" si="260"/>
         <v>0.29577285486345728</v>
       </c>
-      <c r="BD62" s="26"/>
+      <c r="BD62" s="30"/>
       <c r="BE62" t="s">
         <v>71</v>
       </c>
@@ -23052,7 +23284,7 @@
         <f t="shared" si="261"/>
         <v>0</v>
       </c>
-      <c r="CD62" s="26"/>
+      <c r="CD62" s="30"/>
       <c r="CE62" t="s">
         <v>73</v>
       </c>
@@ -23100,7 +23332,7 @@
         <f t="shared" si="262"/>
         <v>0</v>
       </c>
-      <c r="CS62" s="26"/>
+      <c r="CS62" s="30"/>
       <c r="CT62" t="s">
         <v>82</v>
       </c>
@@ -23152,7 +23384,7 @@
         <f t="shared" si="263"/>
         <v>0</v>
       </c>
-      <c r="DI62" s="26"/>
+      <c r="DI62" s="30"/>
       <c r="DJ62" t="s">
         <v>86</v>
       </c>
@@ -23196,7 +23428,7 @@
         <f t="shared" si="264"/>
         <v>0.48739812298051816</v>
       </c>
-      <c r="DW62" s="26"/>
+      <c r="DW62" s="30"/>
       <c r="DX62" t="s">
         <v>90</v>
       </c>
@@ -23256,7 +23488,7 @@
         <f t="shared" si="265"/>
         <v>0</v>
       </c>
-      <c r="EO62" s="26"/>
+      <c r="EO62" s="30"/>
       <c r="EP62" t="s">
         <v>94</v>
       </c>
@@ -23344,7 +23576,7 @@
         <f t="shared" si="266"/>
         <v>0</v>
       </c>
-      <c r="FN62" s="26"/>
+      <c r="FN62" s="30"/>
       <c r="FO62" t="s">
         <v>98</v>
       </c>
@@ -23396,7 +23628,7 @@
         <f t="shared" si="267"/>
         <v>0</v>
       </c>
-      <c r="GD62" s="26"/>
+      <c r="GD62" s="30"/>
       <c r="GE62" t="s">
         <v>101</v>
       </c>
@@ -23535,7 +23767,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S63" s="26"/>
+      <c r="S63" s="30"/>
       <c r="T63" t="s">
         <v>68</v>
       </c>
@@ -23543,7 +23775,7 @@
         <f>SUM(U62:AI62)</f>
         <v>0.52315169114462368</v>
       </c>
-      <c r="AL63" s="26"/>
+      <c r="AL63" s="30"/>
       <c r="AM63" t="s">
         <v>70</v>
       </c>
@@ -23551,7 +23783,7 @@
         <f>SUM(AN62:BB62)</f>
         <v>2.9321618973627688</v>
       </c>
-      <c r="BD63" s="26"/>
+      <c r="BD63" s="30"/>
       <c r="BE63" t="s">
         <v>72</v>
       </c>
@@ -23559,7 +23791,7 @@
         <f>SUM(BF62:CA62)</f>
         <v>2.07482108286333</v>
       </c>
-      <c r="CD63" s="26"/>
+      <c r="CD63" s="30"/>
       <c r="CE63" t="s">
         <v>74</v>
       </c>
@@ -23567,7 +23799,7 @@
         <f>SUM(CF62:CP62)</f>
         <v>1.5778852829371819</v>
       </c>
-      <c r="CS63" s="26"/>
+      <c r="CS63" s="30"/>
       <c r="CT63" t="s">
         <v>83</v>
       </c>
@@ -23575,7 +23807,7 @@
         <f>SUM(CU62:DF62)</f>
         <v>2.4811743925700074</v>
       </c>
-      <c r="DI63" s="26"/>
+      <c r="DI63" s="30"/>
       <c r="DJ63" t="s">
         <v>87</v>
       </c>
@@ -23583,7 +23815,7 @@
         <f>SUM(DK62:DT62)</f>
         <v>3.1333248424254592</v>
       </c>
-      <c r="DW63" s="26"/>
+      <c r="DW63" s="30"/>
       <c r="DX63" t="s">
         <v>91</v>
       </c>
@@ -23591,7 +23823,7 @@
         <f>SUM(DY62:EL62)</f>
         <v>1.9669033283473623</v>
       </c>
-      <c r="EO63" s="26"/>
+      <c r="EO63" s="30"/>
       <c r="EP63" t="s">
         <v>95</v>
       </c>
@@ -23599,7 +23831,7 @@
         <f>SUM(EQ62:FK62)</f>
         <v>0.42477161357428583</v>
       </c>
-      <c r="FN63" s="26"/>
+      <c r="FN63" s="30"/>
       <c r="FO63" t="s">
         <v>99</v>
       </c>
@@ -23607,7 +23839,7 @@
         <f>SUM(FP62:GA62)</f>
         <v>0.93527251002735967</v>
       </c>
-      <c r="GD63" s="26"/>
+      <c r="GD63" s="30"/>
       <c r="GE63" t="s">
         <v>102</v>
       </c>
@@ -23806,18 +24038,18 @@
         <v>0.33099321904142442</v>
       </c>
       <c r="S67" s="16"/>
-      <c r="T67" s="24" t="s">
+      <c r="T67" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="U67" s="24"/>
-      <c r="V67" s="24"/>
-      <c r="W67" s="24"/>
-      <c r="X67" s="24"/>
-      <c r="Y67" s="24"/>
-      <c r="Z67" s="24"/>
-      <c r="AA67" s="24"/>
-      <c r="AB67" s="24"/>
-      <c r="AC67" s="24"/>
+      <c r="U67" s="29"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="29"/>
+      <c r="X67" s="29"/>
+      <c r="Y67" s="29"/>
+      <c r="Z67" s="29"/>
+      <c r="AA67" s="29"/>
+      <c r="AB67" s="29"/>
+      <c r="AC67" s="29"/>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
@@ -23943,7 +24175,7 @@
         <f t="shared" si="11"/>
         <v>0.53147891704225514</v>
       </c>
-      <c r="R69" s="25" t="s">
+      <c r="R69" s="34" t="s">
         <v>56</v>
       </c>
       <c r="S69" s="17">
@@ -24033,7 +24265,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="R70" s="25"/>
+      <c r="R70" s="34"/>
       <c r="S70" s="17">
         <v>2</v>
       </c>
@@ -24121,7 +24353,7 @@
         <f t="shared" si="11"/>
         <v>-0.15970084286751185</v>
       </c>
-      <c r="R71" s="25"/>
+      <c r="R71" s="34"/>
       <c r="S71" s="17">
         <v>3</v>
       </c>
@@ -24209,7 +24441,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="R72" s="25"/>
+      <c r="R72" s="34"/>
       <c r="S72" s="17">
         <v>4</v>
       </c>
@@ -24297,7 +24529,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="R73" s="25"/>
+      <c r="R73" s="34"/>
       <c r="S73" s="17">
         <v>5</v>
       </c>
@@ -24385,7 +24617,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="R74" s="25"/>
+      <c r="R74" s="34"/>
       <c r="S74" s="17">
         <v>6</v>
       </c>
@@ -24473,7 +24705,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="R75" s="25"/>
+      <c r="R75" s="34"/>
       <c r="S75" s="17">
         <v>7</v>
       </c>
@@ -24561,7 +24793,7 @@
         <f t="shared" si="11"/>
         <v>0.53147891704225514</v>
       </c>
-      <c r="R76" s="25"/>
+      <c r="R76" s="34"/>
       <c r="S76" s="17">
         <v>8</v>
       </c>
@@ -24649,7 +24881,7 @@
         <f t="shared" si="11"/>
         <v>0.33099321904142442</v>
       </c>
-      <c r="R77" s="25"/>
+      <c r="R77" s="34"/>
       <c r="S77" s="17">
         <v>9</v>
       </c>
@@ -24737,7 +24969,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="R78" s="25"/>
+      <c r="R78" s="34"/>
       <c r="S78" s="17">
         <v>10</v>
       </c>
@@ -26161,40 +26393,64 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="DY17:EL17"/>
-    <mergeCell ref="DY18:EL18"/>
-    <mergeCell ref="CU17:DF17"/>
-    <mergeCell ref="CU18:DF18"/>
-    <mergeCell ref="GF17:HA17"/>
-    <mergeCell ref="GF18:HA18"/>
-    <mergeCell ref="FP17:GA17"/>
-    <mergeCell ref="FP18:GA18"/>
-    <mergeCell ref="EQ17:FK17"/>
-    <mergeCell ref="EQ18:FK18"/>
-    <mergeCell ref="DK17:DT17"/>
-    <mergeCell ref="DK18:DT18"/>
-    <mergeCell ref="GD20:GD23"/>
-    <mergeCell ref="GD25:GD28"/>
-    <mergeCell ref="GD30:GD33"/>
-    <mergeCell ref="EO45:EO48"/>
-    <mergeCell ref="EO50:EO53"/>
-    <mergeCell ref="EO55:EO58"/>
-    <mergeCell ref="EO60:EO63"/>
-    <mergeCell ref="FN20:FN23"/>
-    <mergeCell ref="FN25:FN28"/>
-    <mergeCell ref="FN30:FN33"/>
-    <mergeCell ref="FN35:FN38"/>
-    <mergeCell ref="GD35:GD38"/>
-    <mergeCell ref="GD40:GD43"/>
-    <mergeCell ref="GD45:GD48"/>
-    <mergeCell ref="GD50:GD53"/>
-    <mergeCell ref="GD55:GD58"/>
-    <mergeCell ref="GD60:GD63"/>
-    <mergeCell ref="FN40:FN43"/>
-    <mergeCell ref="FN45:FN48"/>
-    <mergeCell ref="FN50:FN53"/>
-    <mergeCell ref="FN55:FN58"/>
-    <mergeCell ref="FN60:FN63"/>
+    <mergeCell ref="T67:AC67"/>
+    <mergeCell ref="R69:R78"/>
+    <mergeCell ref="S55:S58"/>
+    <mergeCell ref="S60:S63"/>
+    <mergeCell ref="S25:S28"/>
+    <mergeCell ref="S30:S33"/>
+    <mergeCell ref="S35:S38"/>
+    <mergeCell ref="S40:S43"/>
+    <mergeCell ref="S45:S48"/>
+    <mergeCell ref="S50:S53"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="AN17:BA17"/>
+    <mergeCell ref="AN18:BA18"/>
+    <mergeCell ref="AL20:AL23"/>
+    <mergeCell ref="AL25:AL28"/>
+    <mergeCell ref="AL30:AL33"/>
+    <mergeCell ref="AL35:AL38"/>
+    <mergeCell ref="S20:S23"/>
+    <mergeCell ref="U17:AI17"/>
+    <mergeCell ref="U18:AI18"/>
+    <mergeCell ref="AL40:AL43"/>
+    <mergeCell ref="AL45:AL48"/>
+    <mergeCell ref="AL50:AL53"/>
+    <mergeCell ref="BD50:BD53"/>
+    <mergeCell ref="BD55:BD58"/>
+    <mergeCell ref="BD60:BD63"/>
+    <mergeCell ref="CD20:CD23"/>
+    <mergeCell ref="CD25:CD28"/>
+    <mergeCell ref="CD30:CD33"/>
+    <mergeCell ref="CD35:CD38"/>
+    <mergeCell ref="CD40:CD43"/>
+    <mergeCell ref="AL55:AL58"/>
+    <mergeCell ref="AL60:AL63"/>
+    <mergeCell ref="BD20:BD23"/>
+    <mergeCell ref="BD25:BD28"/>
+    <mergeCell ref="BD30:BD33"/>
+    <mergeCell ref="BD35:BD38"/>
+    <mergeCell ref="BD40:BD43"/>
+    <mergeCell ref="BD45:BD48"/>
+    <mergeCell ref="BF17:CA17"/>
+    <mergeCell ref="BF18:CA18"/>
+    <mergeCell ref="CS20:CS23"/>
+    <mergeCell ref="CS25:CS28"/>
+    <mergeCell ref="CD45:CD48"/>
+    <mergeCell ref="CD50:CD53"/>
+    <mergeCell ref="CD55:CD58"/>
+    <mergeCell ref="CD60:CD63"/>
+    <mergeCell ref="CF17:CP17"/>
+    <mergeCell ref="CF18:CP18"/>
+    <mergeCell ref="CS60:CS63"/>
+    <mergeCell ref="CS30:CS33"/>
+    <mergeCell ref="CS35:CS38"/>
+    <mergeCell ref="CS40:CS43"/>
+    <mergeCell ref="CS45:CS48"/>
+    <mergeCell ref="CS50:CS53"/>
+    <mergeCell ref="CS55:CS58"/>
     <mergeCell ref="DW50:DW53"/>
     <mergeCell ref="DW55:DW58"/>
     <mergeCell ref="DW60:DW63"/>
@@ -26218,64 +26474,40 @@
     <mergeCell ref="DI40:DI43"/>
     <mergeCell ref="DI45:DI48"/>
     <mergeCell ref="DI50:DI53"/>
-    <mergeCell ref="BF17:CA17"/>
-    <mergeCell ref="BF18:CA18"/>
-    <mergeCell ref="CS20:CS23"/>
-    <mergeCell ref="CS25:CS28"/>
-    <mergeCell ref="CD45:CD48"/>
-    <mergeCell ref="CD50:CD53"/>
-    <mergeCell ref="CD55:CD58"/>
-    <mergeCell ref="CD60:CD63"/>
-    <mergeCell ref="CF17:CP17"/>
-    <mergeCell ref="CF18:CP18"/>
-    <mergeCell ref="CS60:CS63"/>
-    <mergeCell ref="CS30:CS33"/>
-    <mergeCell ref="CS35:CS38"/>
-    <mergeCell ref="CS40:CS43"/>
-    <mergeCell ref="CS45:CS48"/>
-    <mergeCell ref="CS50:CS53"/>
-    <mergeCell ref="CS55:CS58"/>
-    <mergeCell ref="AL40:AL43"/>
-    <mergeCell ref="AL45:AL48"/>
-    <mergeCell ref="AL50:AL53"/>
-    <mergeCell ref="BD50:BD53"/>
-    <mergeCell ref="BD55:BD58"/>
-    <mergeCell ref="BD60:BD63"/>
-    <mergeCell ref="CD20:CD23"/>
-    <mergeCell ref="CD25:CD28"/>
-    <mergeCell ref="CD30:CD33"/>
-    <mergeCell ref="CD35:CD38"/>
-    <mergeCell ref="CD40:CD43"/>
-    <mergeCell ref="AL55:AL58"/>
-    <mergeCell ref="AL60:AL63"/>
-    <mergeCell ref="BD20:BD23"/>
-    <mergeCell ref="BD25:BD28"/>
-    <mergeCell ref="BD30:BD33"/>
-    <mergeCell ref="BD35:BD38"/>
-    <mergeCell ref="BD40:BD43"/>
-    <mergeCell ref="BD45:BD48"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="AN17:BA17"/>
-    <mergeCell ref="AN18:BA18"/>
-    <mergeCell ref="AL20:AL23"/>
-    <mergeCell ref="AL25:AL28"/>
-    <mergeCell ref="AL30:AL33"/>
-    <mergeCell ref="AL35:AL38"/>
-    <mergeCell ref="S20:S23"/>
-    <mergeCell ref="U17:AI17"/>
-    <mergeCell ref="U18:AI18"/>
-    <mergeCell ref="T67:AC67"/>
-    <mergeCell ref="R69:R78"/>
-    <mergeCell ref="S55:S58"/>
-    <mergeCell ref="S60:S63"/>
-    <mergeCell ref="S25:S28"/>
-    <mergeCell ref="S30:S33"/>
-    <mergeCell ref="S35:S38"/>
-    <mergeCell ref="S40:S43"/>
-    <mergeCell ref="S45:S48"/>
-    <mergeCell ref="S50:S53"/>
+    <mergeCell ref="GD20:GD23"/>
+    <mergeCell ref="GD25:GD28"/>
+    <mergeCell ref="GD30:GD33"/>
+    <mergeCell ref="EO45:EO48"/>
+    <mergeCell ref="EO50:EO53"/>
+    <mergeCell ref="EO55:EO58"/>
+    <mergeCell ref="EO60:EO63"/>
+    <mergeCell ref="FN20:FN23"/>
+    <mergeCell ref="FN25:FN28"/>
+    <mergeCell ref="FN30:FN33"/>
+    <mergeCell ref="FN35:FN38"/>
+    <mergeCell ref="GD35:GD38"/>
+    <mergeCell ref="GD40:GD43"/>
+    <mergeCell ref="GD45:GD48"/>
+    <mergeCell ref="GD50:GD53"/>
+    <mergeCell ref="GD55:GD58"/>
+    <mergeCell ref="GD60:GD63"/>
+    <mergeCell ref="FN40:FN43"/>
+    <mergeCell ref="FN45:FN48"/>
+    <mergeCell ref="FN50:FN53"/>
+    <mergeCell ref="FN55:FN58"/>
+    <mergeCell ref="FN60:FN63"/>
+    <mergeCell ref="DY17:EL17"/>
+    <mergeCell ref="DY18:EL18"/>
+    <mergeCell ref="CU17:DF17"/>
+    <mergeCell ref="CU18:DF18"/>
+    <mergeCell ref="GF17:HA17"/>
+    <mergeCell ref="GF18:HA18"/>
+    <mergeCell ref="FP17:GA17"/>
+    <mergeCell ref="FP18:GA18"/>
+    <mergeCell ref="EQ17:FK17"/>
+    <mergeCell ref="EQ18:FK18"/>
+    <mergeCell ref="DK17:DT17"/>
+    <mergeCell ref="DK18:DT18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26287,85 +26519,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN70"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AI53" sqref="AI53"/>
+    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30559,7 +30716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:E12"/>
   <sheetViews>
@@ -30571,10 +30728,10 @@
   <sheetData>
     <row r="2" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="25" t="s">
         <v>292</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="26" t="s">
         <v>58</v>
       </c>
       <c r="E3" t="s">
@@ -30582,10 +30739,10 @@
       </c>
     </row>
     <row r="4" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="D4" s="34">
+      <c r="D4" s="28">
         <v>1</v>
       </c>
       <c r="E4">
@@ -30594,10 +30751,10 @@
       </c>
     </row>
     <row r="5" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="27" t="s">
         <v>294</v>
       </c>
-      <c r="D5" s="34">
+      <c r="D5" s="28">
         <v>1</v>
       </c>
       <c r="E5">
@@ -30606,10 +30763,10 @@
       </c>
     </row>
     <row r="6" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="27" t="s">
         <v>295</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="28">
         <v>1</v>
       </c>
       <c r="E6">
@@ -30618,10 +30775,10 @@
       </c>
     </row>
     <row r="7" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="D7" s="34">
+      <c r="D7" s="28">
         <v>1</v>
       </c>
       <c r="E7">
@@ -30630,10 +30787,10 @@
       </c>
     </row>
     <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="27" t="s">
         <v>297</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="28">
         <v>1</v>
       </c>
       <c r="E8">
@@ -30642,10 +30799,10 @@
       </c>
     </row>
     <row r="9" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="27" t="s">
         <v>298</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="28">
         <v>1</v>
       </c>
       <c r="E9">
@@ -30654,10 +30811,10 @@
       </c>
     </row>
     <row r="10" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="34">
+      <c r="D10" s="28">
         <v>1</v>
       </c>
       <c r="E10">
@@ -30666,10 +30823,10 @@
       </c>
     </row>
     <row r="11" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D11" s="34">
+      <c r="D11" s="28">
         <v>1</v>
       </c>
       <c r="E11">
@@ -30678,10 +30835,10 @@
       </c>
     </row>
     <row r="12" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="27" t="s">
         <v>299</v>
       </c>
-      <c r="D12" s="34">
+      <c r="D12" s="28">
         <v>1</v>
       </c>
       <c r="E12">
@@ -30692,4 +30849,1048 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:M15"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D4" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6">
+        <v>2.0867093472984299</v>
+      </c>
+      <c r="F6">
+        <v>3.9357065164898635</v>
+      </c>
+      <c r="G6">
+        <v>1.3572441595047966</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0.30538682331536576</v>
+      </c>
+      <c r="J6">
+        <v>2.4562414708672167</v>
+      </c>
+      <c r="K6">
+        <v>1.6629592839517924</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.52315169114462368</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="29"/>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>2.0202327040927357</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7">
+        <v>2.261878676221392</v>
+      </c>
+      <c r="G7">
+        <v>2.1192182262574351</v>
+      </c>
+      <c r="H7">
+        <v>1.1319216373779339</v>
+      </c>
+      <c r="I7">
+        <v>0.81505740713624242</v>
+      </c>
+      <c r="J7">
+        <v>1.2712125501992406</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.38620371536834386</v>
+      </c>
+      <c r="M7">
+        <v>2.9321618973627688</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="29"/>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>4.3941072548284881</v>
+      </c>
+      <c r="E8">
+        <v>2.6741435730571617</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8">
+        <v>0.70263194096552373</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>1.6844690046740833</v>
+      </c>
+      <c r="J8">
+        <v>1.9861182973163989</v>
+      </c>
+      <c r="K8">
+        <v>2.0751305530232154</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.07482108286333</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="29"/>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1.2870969822833596</v>
+      </c>
+      <c r="E9">
+        <v>1.9997338114102676</v>
+      </c>
+      <c r="F9">
+        <v>0.50178887254071436</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9">
+        <v>2.5050690630324084</v>
+      </c>
+      <c r="I9">
+        <v>0.30538682331536576</v>
+      </c>
+      <c r="J9">
+        <v>1.2712125501992406</v>
+      </c>
+      <c r="K9">
+        <v>0.46749529581706689</v>
+      </c>
+      <c r="L9">
+        <v>0.38620371536834386</v>
+      </c>
+      <c r="M9">
+        <v>1.5778852829371819</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1.0448011008636686</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>2.5766879371343512</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10">
+        <v>1.8188950208994221</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2.4811743925700074</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="29"/>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>0.26067183291669505</v>
+      </c>
+      <c r="E11">
+        <v>0.82940933632659775</v>
+      </c>
+      <c r="F11">
+        <v>1.1151746579383957</v>
+      </c>
+      <c r="G11">
+        <v>0.30538682331536576</v>
+      </c>
+      <c r="H11">
+        <v>1.768338951757684</v>
+      </c>
+      <c r="I11" s="4"/>
+      <c r="J11">
+        <v>1.0713845471065246</v>
+      </c>
+      <c r="K11">
+        <v>0.41217126907142304</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>3.1333248424254592</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="29"/>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>2.3363598372565613</v>
+      </c>
+      <c r="E12">
+        <v>1.2712125501992406</v>
+      </c>
+      <c r="F12">
+        <v>1.4791590040972249</v>
+      </c>
+      <c r="G12">
+        <v>1.4165862852919111</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>1.1747984208532067</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12">
+        <v>3.2706346070576262</v>
+      </c>
+      <c r="L12">
+        <v>0.38620371536834386</v>
+      </c>
+      <c r="M12">
+        <v>1.9669033283473623</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="29"/>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>2.1995021868335436</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>2.279127662467423</v>
+      </c>
+      <c r="G13">
+        <v>0.65461221853927276</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0.52018620231393398</v>
+      </c>
+      <c r="J13">
+        <v>3.5276260179737413</v>
+      </c>
+      <c r="K13" s="4"/>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0.42477161357428583</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="29"/>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0.35647879998936638</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0.39724511765015802</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.35647879998936638</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14">
+        <v>0.93527251002735967</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="29"/>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0.72833362437619298</v>
+      </c>
+      <c r="E15">
+        <v>3.6319691380326677</v>
+      </c>
+      <c r="F15">
+        <v>1.8663649697179618</v>
+      </c>
+      <c r="G15">
+        <v>2.1192182262574346</v>
+      </c>
+      <c r="H15">
+        <v>3.2397792871482367</v>
+      </c>
+      <c r="I15">
+        <v>4.1579762441127786</v>
+      </c>
+      <c r="J15">
+        <v>2.3425970973057653</v>
+      </c>
+      <c r="K15">
+        <v>0.41217126907142304</v>
+      </c>
+      <c r="L15">
+        <v>1.2212267363791467</v>
+      </c>
+      <c r="M15" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B6:B15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="45"/>
+      <c r="I1" s="50" t="s">
+        <v>302</v>
+      </c>
+      <c r="J1" s="51" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="41"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="35">
+        <v>1</v>
+      </c>
+      <c r="D2" s="35">
+        <v>2</v>
+      </c>
+      <c r="E2" s="35">
+        <v>3</v>
+      </c>
+      <c r="F2" s="35">
+        <v>4</v>
+      </c>
+      <c r="G2" s="35">
+        <v>5</v>
+      </c>
+      <c r="I2" s="52">
+        <v>1</v>
+      </c>
+      <c r="J2" s="53">
+        <v>0.40082786599999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="B3" s="36">
+        <v>1</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38">
+        <v>2.0867089999999999</v>
+      </c>
+      <c r="E3" s="38">
+        <v>3.9357069999999998</v>
+      </c>
+      <c r="F3" s="38">
+        <v>1.3572439999999999</v>
+      </c>
+      <c r="G3" s="38">
+        <v>0</v>
+      </c>
+      <c r="I3" s="52">
+        <v>2</v>
+      </c>
+      <c r="J3" s="53">
+        <v>0.86317008699999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="36">
+        <v>2</v>
+      </c>
+      <c r="C4" s="38">
+        <v>2.0202330000000002</v>
+      </c>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38">
+        <v>2.261879</v>
+      </c>
+      <c r="F4" s="38">
+        <v>2.119218</v>
+      </c>
+      <c r="G4" s="38">
+        <v>1.1319220000000001</v>
+      </c>
+      <c r="I4" s="52">
+        <v>3</v>
+      </c>
+      <c r="J4" s="53">
+        <v>0.38918776199999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="36">
+        <v>3</v>
+      </c>
+      <c r="C5" s="38">
+        <v>4.394107</v>
+      </c>
+      <c r="D5" s="38">
+        <v>2.6741440000000001</v>
+      </c>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38">
+        <v>0.70263200000000003</v>
+      </c>
+      <c r="G5" s="38">
+        <v>0</v>
+      </c>
+      <c r="I5" s="52">
+        <v>4</v>
+      </c>
+      <c r="J5" s="53">
+        <v>0.92409475100000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
+      <c r="B6" s="36">
+        <v>4</v>
+      </c>
+      <c r="C6" s="38">
+        <v>1.2870969999999999</v>
+      </c>
+      <c r="D6" s="38">
+        <v>1.9997339999999999</v>
+      </c>
+      <c r="E6" s="38">
+        <v>0.50178900000000004</v>
+      </c>
+      <c r="F6" s="37"/>
+      <c r="G6" s="38">
+        <v>2.5050690000000002</v>
+      </c>
+      <c r="I6" s="52">
+        <v>5</v>
+      </c>
+      <c r="J6" s="53">
+        <v>0.15764060799999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="36">
+        <v>5</v>
+      </c>
+      <c r="C7" s="38">
+        <v>0</v>
+      </c>
+      <c r="D7" s="38">
+        <v>1.0448010000000001</v>
+      </c>
+      <c r="E7" s="38">
+        <v>0</v>
+      </c>
+      <c r="F7" s="38">
+        <v>2.5766879999999999</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="I7" s="52">
+        <v>6</v>
+      </c>
+      <c r="J7" s="53">
+        <v>0.71498095800000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="46"/>
+      <c r="B8" s="36">
+        <v>6</v>
+      </c>
+      <c r="C8" s="38">
+        <v>0.26067200000000001</v>
+      </c>
+      <c r="D8" s="38">
+        <v>0.82940899999999995</v>
+      </c>
+      <c r="E8" s="38">
+        <v>1.115175</v>
+      </c>
+      <c r="F8" s="38">
+        <v>0.30538700000000002</v>
+      </c>
+      <c r="G8" s="38">
+        <v>1.7683390000000001</v>
+      </c>
+      <c r="I8" s="52">
+        <v>7</v>
+      </c>
+      <c r="J8" s="53">
+        <v>0.21685853399999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="46"/>
+      <c r="B9" s="36">
+        <v>7</v>
+      </c>
+      <c r="C9" s="38">
+        <v>2.33636</v>
+      </c>
+      <c r="D9" s="38">
+        <v>1.2712129999999999</v>
+      </c>
+      <c r="E9" s="38">
+        <v>1.4791589999999999</v>
+      </c>
+      <c r="F9" s="38">
+        <v>1.4165859999999999</v>
+      </c>
+      <c r="G9" s="38">
+        <v>0</v>
+      </c>
+      <c r="I9" s="52">
+        <v>8</v>
+      </c>
+      <c r="J9" s="53">
+        <v>0.23722153600000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
+      <c r="B10" s="36">
+        <v>8</v>
+      </c>
+      <c r="C10" s="38">
+        <v>2.1995019999999998</v>
+      </c>
+      <c r="D10" s="38">
+        <v>0</v>
+      </c>
+      <c r="E10" s="38">
+        <v>2.279128</v>
+      </c>
+      <c r="F10" s="38">
+        <v>0.65461199999999997</v>
+      </c>
+      <c r="G10" s="38">
+        <v>0</v>
+      </c>
+      <c r="I10" s="52">
+        <v>9</v>
+      </c>
+      <c r="J10" s="53">
+        <v>7.6112858000000005E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="36">
+        <v>9</v>
+      </c>
+      <c r="C11" s="38">
+        <v>0</v>
+      </c>
+      <c r="D11" s="38">
+        <v>0.35647899999999999</v>
+      </c>
+      <c r="E11" s="38">
+        <v>0</v>
+      </c>
+      <c r="F11" s="38">
+        <v>0.39724500000000001</v>
+      </c>
+      <c r="G11" s="38">
+        <v>0</v>
+      </c>
+      <c r="I11" s="52">
+        <v>10</v>
+      </c>
+      <c r="J11" s="53">
+        <v>0.84140168100000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="48"/>
+      <c r="B12" s="36">
+        <v>10</v>
+      </c>
+      <c r="C12" s="38">
+        <v>0.72833400000000004</v>
+      </c>
+      <c r="D12" s="38">
+        <v>3.6319689999999998</v>
+      </c>
+      <c r="E12" s="38">
+        <v>1.8663650000000001</v>
+      </c>
+      <c r="F12" s="38">
+        <v>2.119218</v>
+      </c>
+      <c r="G12" s="38">
+        <v>3.239779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="45"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="41"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="35">
+        <v>6</v>
+      </c>
+      <c r="D15" s="35">
+        <v>7</v>
+      </c>
+      <c r="E15" s="35">
+        <v>8</v>
+      </c>
+      <c r="F15" s="35">
+        <v>9</v>
+      </c>
+      <c r="G15" s="35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" s="36">
+        <v>1</v>
+      </c>
+      <c r="C16" s="38">
+        <v>0.30538700000000002</v>
+      </c>
+      <c r="D16" s="38">
+        <v>2.4562409999999999</v>
+      </c>
+      <c r="E16" s="38">
+        <v>1.6629590000000001</v>
+      </c>
+      <c r="F16" s="38">
+        <v>0</v>
+      </c>
+      <c r="G16" s="38">
+        <v>0.52315199999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="46"/>
+      <c r="B17" s="36">
+        <v>2</v>
+      </c>
+      <c r="C17" s="38">
+        <v>0.81505700000000003</v>
+      </c>
+      <c r="D17" s="38">
+        <v>1.2712129999999999</v>
+      </c>
+      <c r="E17" s="38">
+        <v>0</v>
+      </c>
+      <c r="F17" s="38">
+        <v>0.38620399999999999</v>
+      </c>
+      <c r="G17" s="38">
+        <v>2.9321619999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="36">
+        <v>3</v>
+      </c>
+      <c r="C18" s="38">
+        <v>1.684469</v>
+      </c>
+      <c r="D18" s="38">
+        <v>1.9861180000000001</v>
+      </c>
+      <c r="E18" s="38">
+        <v>2.0751309999999998</v>
+      </c>
+      <c r="F18" s="38">
+        <v>0</v>
+      </c>
+      <c r="G18" s="38">
+        <v>2.074821</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="36">
+        <v>4</v>
+      </c>
+      <c r="C19" s="38">
+        <v>0.30538700000000002</v>
+      </c>
+      <c r="D19" s="38">
+        <v>1.2712129999999999</v>
+      </c>
+      <c r="E19" s="38">
+        <v>0.46749499999999999</v>
+      </c>
+      <c r="F19" s="38">
+        <v>0.38620399999999999</v>
+      </c>
+      <c r="G19" s="38">
+        <v>1.577885</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
+      <c r="B20" s="36">
+        <v>5</v>
+      </c>
+      <c r="C20" s="38">
+        <v>1.8188949999999999</v>
+      </c>
+      <c r="D20" s="38">
+        <v>0</v>
+      </c>
+      <c r="E20" s="38">
+        <v>0</v>
+      </c>
+      <c r="F20" s="38">
+        <v>0</v>
+      </c>
+      <c r="G20" s="38">
+        <v>2.4811740000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="36">
+        <v>6</v>
+      </c>
+      <c r="C21" s="37"/>
+      <c r="D21" s="38">
+        <v>1.071385</v>
+      </c>
+      <c r="E21" s="38">
+        <v>0.41217100000000001</v>
+      </c>
+      <c r="F21" s="38">
+        <v>0</v>
+      </c>
+      <c r="G21" s="38">
+        <v>3.1333250000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="46"/>
+      <c r="B22" s="36">
+        <v>7</v>
+      </c>
+      <c r="C22" s="38">
+        <v>1.174798</v>
+      </c>
+      <c r="D22" s="37"/>
+      <c r="E22" s="38">
+        <v>3.270635</v>
+      </c>
+      <c r="F22" s="38">
+        <v>0.38620399999999999</v>
+      </c>
+      <c r="G22" s="38">
+        <v>1.9669030000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
+      <c r="B23" s="36">
+        <v>8</v>
+      </c>
+      <c r="C23" s="38">
+        <v>0.52018600000000004</v>
+      </c>
+      <c r="D23" s="38">
+        <v>3.5276260000000002</v>
+      </c>
+      <c r="E23" s="37"/>
+      <c r="F23" s="38">
+        <v>0</v>
+      </c>
+      <c r="G23" s="38">
+        <v>0.42477199999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="46"/>
+      <c r="B24" s="36">
+        <v>9</v>
+      </c>
+      <c r="C24" s="38">
+        <v>0</v>
+      </c>
+      <c r="D24" s="38">
+        <v>0.35647899999999999</v>
+      </c>
+      <c r="E24" s="38">
+        <v>0</v>
+      </c>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38">
+        <v>0.93527300000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="48"/>
+      <c r="B25" s="36">
+        <v>10</v>
+      </c>
+      <c r="C25" s="38">
+        <v>4.1579759999999997</v>
+      </c>
+      <c r="D25" s="38">
+        <v>2.342597</v>
+      </c>
+      <c r="E25" s="38">
+        <v>0.41217100000000001</v>
+      </c>
+      <c r="F25" s="38">
+        <v>1.2212270000000001</v>
+      </c>
+      <c r="G25" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A16:A25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/manualisasi/manualisasi 10docs baru.xlsx
+++ b/manualisasi/manualisasi 10docs baru.xlsx
@@ -9,16 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="system" sheetId="1" r:id="rId1"/>
     <sheet name="bm25" sheetId="2" r:id="rId2"/>
     <sheet name="pagerank" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet4" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="292">
   <si>
     <t>dokumen</t>
   </si>
@@ -907,48 +903,12 @@
   <si>
     <t>inverse document frequency smooth</t>
   </si>
-  <si>
-    <t>Term</t>
-  </si>
-  <si>
-    <t>ambil</t>
-  </si>
-  <si>
-    <t>bantu</t>
-  </si>
-  <si>
-    <t>esok</t>
-  </si>
-  <si>
-    <t>hati</t>
-  </si>
-  <si>
-    <t>kerja</t>
-  </si>
-  <si>
-    <t>lari</t>
-  </si>
-  <si>
-    <t>senang</t>
-  </si>
-  <si>
-    <t>Dokumen</t>
-  </si>
-  <si>
-    <t>Query</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalimat </t>
-  </si>
-  <si>
-    <t>PageRank</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -971,60 +931,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1067,14 +979,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF7CAAC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="16">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1082,196 +988,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1326,21 +1047,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1352,56 +1064,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1756,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,8 +1653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:HA107"/>
   <sheetViews>
-    <sheetView topLeftCell="K55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R67" sqref="R67:AC78"/>
+    <sheetView topLeftCell="H19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="U79" sqref="U79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2146,208 +1808,208 @@
       <c r="M17" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="U17" s="29" t="s">
+      <c r="U17" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="V17" s="29"/>
-      <c r="W17" s="29"/>
-      <c r="X17" s="29"/>
-      <c r="Y17" s="29"/>
-      <c r="Z17" s="29"/>
-      <c r="AA17" s="29"/>
-      <c r="AB17" s="29"/>
-      <c r="AC17" s="29"/>
-      <c r="AD17" s="29"/>
-      <c r="AE17" s="29"/>
-      <c r="AF17" s="29"/>
-      <c r="AG17" s="29"/>
-      <c r="AH17" s="29"/>
-      <c r="AI17" s="29"/>
-      <c r="AN17" s="29" t="s">
+      <c r="V17" s="25"/>
+      <c r="W17" s="25"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+      <c r="AF17" s="25"/>
+      <c r="AG17" s="25"/>
+      <c r="AH17" s="25"/>
+      <c r="AI17" s="25"/>
+      <c r="AN17" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="AO17" s="29"/>
-      <c r="AP17" s="29"/>
-      <c r="AQ17" s="29"/>
-      <c r="AR17" s="29"/>
-      <c r="AS17" s="29"/>
-      <c r="AT17" s="29"/>
-      <c r="AU17" s="29"/>
-      <c r="AV17" s="29"/>
-      <c r="AW17" s="29"/>
-      <c r="AX17" s="29"/>
-      <c r="AY17" s="29"/>
-      <c r="AZ17" s="29"/>
-      <c r="BA17" s="29"/>
-      <c r="BF17" s="29" t="s">
+      <c r="AO17" s="25"/>
+      <c r="AP17" s="25"/>
+      <c r="AQ17" s="25"/>
+      <c r="AR17" s="25"/>
+      <c r="AS17" s="25"/>
+      <c r="AT17" s="25"/>
+      <c r="AU17" s="25"/>
+      <c r="AV17" s="25"/>
+      <c r="AW17" s="25"/>
+      <c r="AX17" s="25"/>
+      <c r="AY17" s="25"/>
+      <c r="AZ17" s="25"/>
+      <c r="BA17" s="25"/>
+      <c r="BF17" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="BG17" s="29"/>
-      <c r="BH17" s="29"/>
-      <c r="BI17" s="29"/>
-      <c r="BJ17" s="29"/>
-      <c r="BK17" s="29"/>
-      <c r="BL17" s="29"/>
-      <c r="BM17" s="29"/>
-      <c r="BN17" s="29"/>
-      <c r="BO17" s="29"/>
-      <c r="BP17" s="29"/>
-      <c r="BQ17" s="29"/>
-      <c r="BR17" s="29"/>
-      <c r="BS17" s="29"/>
-      <c r="BT17" s="29"/>
-      <c r="BU17" s="29"/>
-      <c r="BV17" s="29"/>
-      <c r="BW17" s="29"/>
-      <c r="BX17" s="29"/>
-      <c r="BY17" s="29"/>
-      <c r="BZ17" s="29"/>
-      <c r="CA17" s="29"/>
-      <c r="CF17" s="29" t="s">
+      <c r="BG17" s="25"/>
+      <c r="BH17" s="25"/>
+      <c r="BI17" s="25"/>
+      <c r="BJ17" s="25"/>
+      <c r="BK17" s="25"/>
+      <c r="BL17" s="25"/>
+      <c r="BM17" s="25"/>
+      <c r="BN17" s="25"/>
+      <c r="BO17" s="25"/>
+      <c r="BP17" s="25"/>
+      <c r="BQ17" s="25"/>
+      <c r="BR17" s="25"/>
+      <c r="BS17" s="25"/>
+      <c r="BT17" s="25"/>
+      <c r="BU17" s="25"/>
+      <c r="BV17" s="25"/>
+      <c r="BW17" s="25"/>
+      <c r="BX17" s="25"/>
+      <c r="BY17" s="25"/>
+      <c r="BZ17" s="25"/>
+      <c r="CA17" s="25"/>
+      <c r="CF17" s="25" t="s">
         <v>79</v>
       </c>
-      <c r="CG17" s="29"/>
-      <c r="CH17" s="29"/>
-      <c r="CI17" s="29"/>
-      <c r="CJ17" s="29"/>
-      <c r="CK17" s="29"/>
-      <c r="CL17" s="29"/>
-      <c r="CM17" s="29"/>
-      <c r="CN17" s="29"/>
-      <c r="CO17" s="29"/>
-      <c r="CP17" s="29"/>
+      <c r="CG17" s="25"/>
+      <c r="CH17" s="25"/>
+      <c r="CI17" s="25"/>
+      <c r="CJ17" s="25"/>
+      <c r="CK17" s="25"/>
+      <c r="CL17" s="25"/>
+      <c r="CM17" s="25"/>
+      <c r="CN17" s="25"/>
+      <c r="CO17" s="25"/>
+      <c r="CP17" s="25"/>
       <c r="CQ17" s="3"/>
       <c r="CR17" s="3"/>
       <c r="CS17" s="4"/>
-      <c r="CU17" s="29" t="s">
+      <c r="CU17" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="CV17" s="29"/>
-      <c r="CW17" s="29"/>
-      <c r="CX17" s="29"/>
-      <c r="CY17" s="29"/>
-      <c r="CZ17" s="29"/>
-      <c r="DA17" s="29"/>
-      <c r="DB17" s="29"/>
-      <c r="DC17" s="29"/>
-      <c r="DD17" s="29"/>
-      <c r="DE17" s="29"/>
-      <c r="DF17" s="29"/>
+      <c r="CV17" s="25"/>
+      <c r="CW17" s="25"/>
+      <c r="CX17" s="25"/>
+      <c r="CY17" s="25"/>
+      <c r="CZ17" s="25"/>
+      <c r="DA17" s="25"/>
+      <c r="DB17" s="25"/>
+      <c r="DC17" s="25"/>
+      <c r="DD17" s="25"/>
+      <c r="DE17" s="25"/>
+      <c r="DF17" s="25"/>
       <c r="DG17" s="3"/>
       <c r="DI17" s="4"/>
-      <c r="DK17" s="29" t="s">
+      <c r="DK17" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="DL17" s="29"/>
-      <c r="DM17" s="29"/>
-      <c r="DN17" s="29"/>
-      <c r="DO17" s="29"/>
-      <c r="DP17" s="29"/>
-      <c r="DQ17" s="29"/>
-      <c r="DR17" s="29"/>
-      <c r="DS17" s="29"/>
-      <c r="DT17" s="29"/>
+      <c r="DL17" s="25"/>
+      <c r="DM17" s="25"/>
+      <c r="DN17" s="25"/>
+      <c r="DO17" s="25"/>
+      <c r="DP17" s="25"/>
+      <c r="DQ17" s="25"/>
+      <c r="DR17" s="25"/>
+      <c r="DS17" s="25"/>
+      <c r="DT17" s="25"/>
       <c r="DU17" s="3"/>
       <c r="DW17" s="4"/>
-      <c r="DY17" s="29" t="s">
+      <c r="DY17" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="DZ17" s="29"/>
-      <c r="EA17" s="29"/>
-      <c r="EB17" s="29"/>
-      <c r="EC17" s="29"/>
-      <c r="ED17" s="29"/>
-      <c r="EE17" s="29"/>
-      <c r="EF17" s="29"/>
-      <c r="EG17" s="29"/>
-      <c r="EH17" s="29"/>
-      <c r="EI17" s="29"/>
-      <c r="EJ17" s="29"/>
-      <c r="EK17" s="29"/>
-      <c r="EL17" s="29"/>
+      <c r="DZ17" s="25"/>
+      <c r="EA17" s="25"/>
+      <c r="EB17" s="25"/>
+      <c r="EC17" s="25"/>
+      <c r="ED17" s="25"/>
+      <c r="EE17" s="25"/>
+      <c r="EF17" s="25"/>
+      <c r="EG17" s="25"/>
+      <c r="EH17" s="25"/>
+      <c r="EI17" s="25"/>
+      <c r="EJ17" s="25"/>
+      <c r="EK17" s="25"/>
+      <c r="EL17" s="25"/>
       <c r="EO17" s="4"/>
-      <c r="EQ17" s="29" t="s">
+      <c r="EQ17" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="ER17" s="29"/>
-      <c r="ES17" s="29"/>
-      <c r="ET17" s="29"/>
-      <c r="EU17" s="29"/>
-      <c r="EV17" s="29"/>
-      <c r="EW17" s="29"/>
-      <c r="EX17" s="29"/>
-      <c r="EY17" s="29"/>
-      <c r="EZ17" s="29"/>
-      <c r="FA17" s="29"/>
-      <c r="FB17" s="29"/>
-      <c r="FC17" s="29"/>
-      <c r="FD17" s="29"/>
-      <c r="FE17" s="29"/>
-      <c r="FF17" s="29"/>
-      <c r="FG17" s="29"/>
-      <c r="FH17" s="29"/>
-      <c r="FI17" s="29"/>
-      <c r="FJ17" s="29"/>
-      <c r="FK17" s="29"/>
+      <c r="ER17" s="25"/>
+      <c r="ES17" s="25"/>
+      <c r="ET17" s="25"/>
+      <c r="EU17" s="25"/>
+      <c r="EV17" s="25"/>
+      <c r="EW17" s="25"/>
+      <c r="EX17" s="25"/>
+      <c r="EY17" s="25"/>
+      <c r="EZ17" s="25"/>
+      <c r="FA17" s="25"/>
+      <c r="FB17" s="25"/>
+      <c r="FC17" s="25"/>
+      <c r="FD17" s="25"/>
+      <c r="FE17" s="25"/>
+      <c r="FF17" s="25"/>
+      <c r="FG17" s="25"/>
+      <c r="FH17" s="25"/>
+      <c r="FI17" s="25"/>
+      <c r="FJ17" s="25"/>
+      <c r="FK17" s="25"/>
       <c r="FN17" s="4"/>
-      <c r="FP17" s="29" t="s">
+      <c r="FP17" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="FQ17" s="29"/>
-      <c r="FR17" s="29"/>
-      <c r="FS17" s="29"/>
-      <c r="FT17" s="29"/>
-      <c r="FU17" s="29"/>
-      <c r="FV17" s="29"/>
-      <c r="FW17" s="29"/>
-      <c r="FX17" s="29"/>
-      <c r="FY17" s="29"/>
-      <c r="FZ17" s="29"/>
-      <c r="GA17" s="29"/>
+      <c r="FQ17" s="25"/>
+      <c r="FR17" s="25"/>
+      <c r="FS17" s="25"/>
+      <c r="FT17" s="25"/>
+      <c r="FU17" s="25"/>
+      <c r="FV17" s="25"/>
+      <c r="FW17" s="25"/>
+      <c r="FX17" s="25"/>
+      <c r="FY17" s="25"/>
+      <c r="FZ17" s="25"/>
+      <c r="GA17" s="25"/>
       <c r="GD17" s="4"/>
-      <c r="GF17" s="29" t="s">
+      <c r="GF17" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="GG17" s="29"/>
-      <c r="GH17" s="29"/>
-      <c r="GI17" s="29"/>
-      <c r="GJ17" s="29"/>
-      <c r="GK17" s="29"/>
-      <c r="GL17" s="29"/>
-      <c r="GM17" s="29"/>
-      <c r="GN17" s="29"/>
-      <c r="GO17" s="29"/>
-      <c r="GP17" s="29"/>
-      <c r="GQ17" s="29"/>
-      <c r="GR17" s="29"/>
-      <c r="GS17" s="29"/>
-      <c r="GT17" s="29"/>
-      <c r="GU17" s="29"/>
-      <c r="GV17" s="29"/>
-      <c r="GW17" s="29"/>
-      <c r="GX17" s="29"/>
-      <c r="GY17" s="29"/>
-      <c r="GZ17" s="29"/>
-      <c r="HA17" s="29"/>
+      <c r="GG17" s="25"/>
+      <c r="GH17" s="25"/>
+      <c r="GI17" s="25"/>
+      <c r="GJ17" s="25"/>
+      <c r="GK17" s="25"/>
+      <c r="GL17" s="25"/>
+      <c r="GM17" s="25"/>
+      <c r="GN17" s="25"/>
+      <c r="GO17" s="25"/>
+      <c r="GP17" s="25"/>
+      <c r="GQ17" s="25"/>
+      <c r="GR17" s="25"/>
+      <c r="GS17" s="25"/>
+      <c r="GT17" s="25"/>
+      <c r="GU17" s="25"/>
+      <c r="GV17" s="25"/>
+      <c r="GW17" s="25"/>
+      <c r="GX17" s="25"/>
+      <c r="GY17" s="25"/>
+      <c r="GZ17" s="25"/>
+      <c r="HA17" s="25"/>
     </row>
     <row r="18" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="31"/>
-      <c r="H18" s="31"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="32" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="M18" s="33" t="s">
+      <c r="M18" s="30" t="s">
         <v>59</v>
       </c>
       <c r="P18" t="s">
@@ -2356,189 +2018,189 @@
       <c r="Q18">
         <v>1.2</v>
       </c>
-      <c r="U18" s="29" t="s">
+      <c r="U18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="V18" s="29"/>
-      <c r="W18" s="29"/>
-      <c r="X18" s="29"/>
-      <c r="Y18" s="29"/>
-      <c r="Z18" s="29"/>
-      <c r="AA18" s="29"/>
-      <c r="AB18" s="29"/>
-      <c r="AC18" s="29"/>
-      <c r="AD18" s="29"/>
-      <c r="AE18" s="29"/>
-      <c r="AF18" s="29"/>
-      <c r="AG18" s="29"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="29"/>
-      <c r="AN18" s="29" t="s">
+      <c r="V18" s="25"/>
+      <c r="W18" s="25"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+      <c r="AF18" s="25"/>
+      <c r="AG18" s="25"/>
+      <c r="AH18" s="25"/>
+      <c r="AI18" s="25"/>
+      <c r="AN18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="AO18" s="29"/>
-      <c r="AP18" s="29"/>
-      <c r="AQ18" s="29"/>
-      <c r="AR18" s="29"/>
-      <c r="AS18" s="29"/>
-      <c r="AT18" s="29"/>
-      <c r="AU18" s="29"/>
-      <c r="AV18" s="29"/>
-      <c r="AW18" s="29"/>
-      <c r="AX18" s="29"/>
-      <c r="AY18" s="29"/>
-      <c r="AZ18" s="29"/>
-      <c r="BA18" s="29"/>
-      <c r="BF18" s="29" t="s">
+      <c r="AO18" s="25"/>
+      <c r="AP18" s="25"/>
+      <c r="AQ18" s="25"/>
+      <c r="AR18" s="25"/>
+      <c r="AS18" s="25"/>
+      <c r="AT18" s="25"/>
+      <c r="AU18" s="25"/>
+      <c r="AV18" s="25"/>
+      <c r="AW18" s="25"/>
+      <c r="AX18" s="25"/>
+      <c r="AY18" s="25"/>
+      <c r="AZ18" s="25"/>
+      <c r="BA18" s="25"/>
+      <c r="BF18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="BG18" s="29"/>
-      <c r="BH18" s="29"/>
-      <c r="BI18" s="29"/>
-      <c r="BJ18" s="29"/>
-      <c r="BK18" s="29"/>
-      <c r="BL18" s="29"/>
-      <c r="BM18" s="29"/>
-      <c r="BN18" s="29"/>
-      <c r="BO18" s="29"/>
-      <c r="BP18" s="29"/>
-      <c r="BQ18" s="29"/>
-      <c r="BR18" s="29"/>
-      <c r="BS18" s="29"/>
-      <c r="BT18" s="29"/>
-      <c r="BU18" s="29"/>
-      <c r="BV18" s="29"/>
-      <c r="BW18" s="29"/>
-      <c r="BX18" s="29"/>
-      <c r="BY18" s="29"/>
-      <c r="BZ18" s="29"/>
-      <c r="CA18" s="29"/>
-      <c r="CF18" s="29" t="s">
+      <c r="BG18" s="25"/>
+      <c r="BH18" s="25"/>
+      <c r="BI18" s="25"/>
+      <c r="BJ18" s="25"/>
+      <c r="BK18" s="25"/>
+      <c r="BL18" s="25"/>
+      <c r="BM18" s="25"/>
+      <c r="BN18" s="25"/>
+      <c r="BO18" s="25"/>
+      <c r="BP18" s="25"/>
+      <c r="BQ18" s="25"/>
+      <c r="BR18" s="25"/>
+      <c r="BS18" s="25"/>
+      <c r="BT18" s="25"/>
+      <c r="BU18" s="25"/>
+      <c r="BV18" s="25"/>
+      <c r="BW18" s="25"/>
+      <c r="BX18" s="25"/>
+      <c r="BY18" s="25"/>
+      <c r="BZ18" s="25"/>
+      <c r="CA18" s="25"/>
+      <c r="CF18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="CG18" s="29"/>
-      <c r="CH18" s="29"/>
-      <c r="CI18" s="29"/>
-      <c r="CJ18" s="29"/>
-      <c r="CK18" s="29"/>
-      <c r="CL18" s="29"/>
-      <c r="CM18" s="29"/>
-      <c r="CN18" s="29"/>
-      <c r="CO18" s="29"/>
-      <c r="CP18" s="29"/>
+      <c r="CG18" s="25"/>
+      <c r="CH18" s="25"/>
+      <c r="CI18" s="25"/>
+      <c r="CJ18" s="25"/>
+      <c r="CK18" s="25"/>
+      <c r="CL18" s="25"/>
+      <c r="CM18" s="25"/>
+      <c r="CN18" s="25"/>
+      <c r="CO18" s="25"/>
+      <c r="CP18" s="25"/>
       <c r="CQ18" s="3"/>
       <c r="CR18" s="3"/>
       <c r="CS18" s="4"/>
-      <c r="CU18" s="29" t="s">
+      <c r="CU18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="CV18" s="29"/>
-      <c r="CW18" s="29"/>
-      <c r="CX18" s="29"/>
-      <c r="CY18" s="29"/>
-      <c r="CZ18" s="29"/>
-      <c r="DA18" s="29"/>
-      <c r="DB18" s="29"/>
-      <c r="DC18" s="29"/>
-      <c r="DD18" s="29"/>
-      <c r="DE18" s="29"/>
-      <c r="DF18" s="29"/>
+      <c r="CV18" s="25"/>
+      <c r="CW18" s="25"/>
+      <c r="CX18" s="25"/>
+      <c r="CY18" s="25"/>
+      <c r="CZ18" s="25"/>
+      <c r="DA18" s="25"/>
+      <c r="DB18" s="25"/>
+      <c r="DC18" s="25"/>
+      <c r="DD18" s="25"/>
+      <c r="DE18" s="25"/>
+      <c r="DF18" s="25"/>
       <c r="DG18" s="3"/>
       <c r="DI18" s="4"/>
-      <c r="DK18" s="29" t="s">
+      <c r="DK18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="DL18" s="29"/>
-      <c r="DM18" s="29"/>
-      <c r="DN18" s="29"/>
-      <c r="DO18" s="29"/>
-      <c r="DP18" s="29"/>
-      <c r="DQ18" s="29"/>
-      <c r="DR18" s="29"/>
-      <c r="DS18" s="29"/>
-      <c r="DT18" s="29"/>
+      <c r="DL18" s="25"/>
+      <c r="DM18" s="25"/>
+      <c r="DN18" s="25"/>
+      <c r="DO18" s="25"/>
+      <c r="DP18" s="25"/>
+      <c r="DQ18" s="25"/>
+      <c r="DR18" s="25"/>
+      <c r="DS18" s="25"/>
+      <c r="DT18" s="25"/>
       <c r="DU18" s="3"/>
       <c r="DW18" s="4"/>
-      <c r="DY18" s="29" t="s">
+      <c r="DY18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="DZ18" s="29"/>
-      <c r="EA18" s="29"/>
-      <c r="EB18" s="29"/>
-      <c r="EC18" s="29"/>
-      <c r="ED18" s="29"/>
-      <c r="EE18" s="29"/>
-      <c r="EF18" s="29"/>
-      <c r="EG18" s="29"/>
-      <c r="EH18" s="29"/>
-      <c r="EI18" s="29"/>
-      <c r="EJ18" s="29"/>
-      <c r="EK18" s="29"/>
-      <c r="EL18" s="29"/>
+      <c r="DZ18" s="25"/>
+      <c r="EA18" s="25"/>
+      <c r="EB18" s="25"/>
+      <c r="EC18" s="25"/>
+      <c r="ED18" s="25"/>
+      <c r="EE18" s="25"/>
+      <c r="EF18" s="25"/>
+      <c r="EG18" s="25"/>
+      <c r="EH18" s="25"/>
+      <c r="EI18" s="25"/>
+      <c r="EJ18" s="25"/>
+      <c r="EK18" s="25"/>
+      <c r="EL18" s="25"/>
       <c r="EO18" s="4"/>
-      <c r="EQ18" s="29" t="s">
+      <c r="EQ18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="ER18" s="29"/>
-      <c r="ES18" s="29"/>
-      <c r="ET18" s="29"/>
-      <c r="EU18" s="29"/>
-      <c r="EV18" s="29"/>
-      <c r="EW18" s="29"/>
-      <c r="EX18" s="29"/>
-      <c r="EY18" s="29"/>
-      <c r="EZ18" s="29"/>
-      <c r="FA18" s="29"/>
-      <c r="FB18" s="29"/>
-      <c r="FC18" s="29"/>
-      <c r="FD18" s="29"/>
-      <c r="FE18" s="29"/>
-      <c r="FF18" s="29"/>
-      <c r="FG18" s="29"/>
-      <c r="FH18" s="29"/>
-      <c r="FI18" s="29"/>
-      <c r="FJ18" s="29"/>
-      <c r="FK18" s="29"/>
+      <c r="ER18" s="25"/>
+      <c r="ES18" s="25"/>
+      <c r="ET18" s="25"/>
+      <c r="EU18" s="25"/>
+      <c r="EV18" s="25"/>
+      <c r="EW18" s="25"/>
+      <c r="EX18" s="25"/>
+      <c r="EY18" s="25"/>
+      <c r="EZ18" s="25"/>
+      <c r="FA18" s="25"/>
+      <c r="FB18" s="25"/>
+      <c r="FC18" s="25"/>
+      <c r="FD18" s="25"/>
+      <c r="FE18" s="25"/>
+      <c r="FF18" s="25"/>
+      <c r="FG18" s="25"/>
+      <c r="FH18" s="25"/>
+      <c r="FI18" s="25"/>
+      <c r="FJ18" s="25"/>
+      <c r="FK18" s="25"/>
       <c r="FN18" s="4"/>
-      <c r="FP18" s="29" t="s">
+      <c r="FP18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="FQ18" s="29"/>
-      <c r="FR18" s="29"/>
-      <c r="FS18" s="29"/>
-      <c r="FT18" s="29"/>
-      <c r="FU18" s="29"/>
-      <c r="FV18" s="29"/>
-      <c r="FW18" s="29"/>
-      <c r="FX18" s="29"/>
-      <c r="FY18" s="29"/>
-      <c r="FZ18" s="29"/>
-      <c r="GA18" s="29"/>
+      <c r="FQ18" s="25"/>
+      <c r="FR18" s="25"/>
+      <c r="FS18" s="25"/>
+      <c r="FT18" s="25"/>
+      <c r="FU18" s="25"/>
+      <c r="FV18" s="25"/>
+      <c r="FW18" s="25"/>
+      <c r="FX18" s="25"/>
+      <c r="FY18" s="25"/>
+      <c r="FZ18" s="25"/>
+      <c r="GA18" s="25"/>
       <c r="GD18" s="4"/>
-      <c r="GF18" s="29" t="s">
+      <c r="GF18" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="GG18" s="29"/>
-      <c r="GH18" s="29"/>
-      <c r="GI18" s="29"/>
-      <c r="GJ18" s="29"/>
-      <c r="GK18" s="29"/>
-      <c r="GL18" s="29"/>
-      <c r="GM18" s="29"/>
-      <c r="GN18" s="29"/>
-      <c r="GO18" s="29"/>
-      <c r="GP18" s="29"/>
-      <c r="GQ18" s="29"/>
-      <c r="GR18" s="29"/>
-      <c r="GS18" s="29"/>
-      <c r="GT18" s="29"/>
-      <c r="GU18" s="29"/>
-      <c r="GV18" s="29"/>
-      <c r="GW18" s="29"/>
-      <c r="GX18" s="29"/>
-      <c r="GY18" s="29"/>
-      <c r="GZ18" s="29"/>
-      <c r="HA18" s="29"/>
+      <c r="GG18" s="25"/>
+      <c r="GH18" s="25"/>
+      <c r="GI18" s="25"/>
+      <c r="GJ18" s="25"/>
+      <c r="GK18" s="25"/>
+      <c r="GL18" s="25"/>
+      <c r="GM18" s="25"/>
+      <c r="GN18" s="25"/>
+      <c r="GO18" s="25"/>
+      <c r="GP18" s="25"/>
+      <c r="GQ18" s="25"/>
+      <c r="GR18" s="25"/>
+      <c r="GS18" s="25"/>
+      <c r="GT18" s="25"/>
+      <c r="GU18" s="25"/>
+      <c r="GV18" s="25"/>
+      <c r="GW18" s="25"/>
+      <c r="GX18" s="25"/>
+      <c r="GY18" s="25"/>
+      <c r="GZ18" s="25"/>
+      <c r="HA18" s="25"/>
     </row>
     <row r="19" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -2574,8 +2236,8 @@
       <c r="K19" s="7">
         <v>10</v>
       </c>
-      <c r="L19" s="32"/>
-      <c r="M19" s="33"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="30"/>
       <c r="P19" t="s">
         <v>61</v>
       </c>
@@ -3130,7 +2792,7 @@
         <f>SUM(B107:K107)/10</f>
         <v>16.600000000000001</v>
       </c>
-      <c r="S20" s="30">
+      <c r="S20" s="27">
         <v>2</v>
       </c>
       <c r="T20" t="s">
@@ -3196,7 +2858,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AL20" s="30">
+      <c r="AL20" s="27">
         <v>1</v>
       </c>
       <c r="AM20" t="s">
@@ -3258,7 +2920,7 @@
         <f>VLOOKUP(BA$19,$A$20:$M$106,2)</f>
         <v>2</v>
       </c>
-      <c r="BD20" s="30">
+      <c r="BD20" s="27">
         <v>1</v>
       </c>
       <c r="BE20" t="s">
@@ -3352,7 +3014,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="CD20" s="30">
+      <c r="CD20" s="27">
         <v>1</v>
       </c>
       <c r="CE20" t="s">
@@ -3402,7 +3064,7 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="CS20" s="30">
+      <c r="CS20" s="27">
         <v>1</v>
       </c>
       <c r="CT20" t="s">
@@ -3456,7 +3118,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="DI20" s="30">
+      <c r="DI20" s="27">
         <v>1</v>
       </c>
       <c r="DJ20" t="s">
@@ -3502,7 +3164,7 @@
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="DW20" s="30">
+      <c r="DW20" s="27">
         <v>1</v>
       </c>
       <c r="DX20" t="s">
@@ -3564,7 +3226,7 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="EO20" s="30">
+      <c r="EO20" s="27">
         <v>1</v>
       </c>
       <c r="EP20" t="s">
@@ -3654,7 +3316,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="FN20" s="30">
+      <c r="FN20" s="27">
         <v>1</v>
       </c>
       <c r="FO20" t="s">
@@ -3708,7 +3370,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="GD20" s="30">
+      <c r="GD20" s="27">
         <v>1</v>
       </c>
       <c r="GE20" t="s">
@@ -3849,7 +3511,7 @@
         <f t="shared" ref="N21:N84" si="11">LOG10(COLUMNS($B$19:$K$19)-L21+0.5)-LOG10(L21+0.5)</f>
         <v>0.53147891704225514</v>
       </c>
-      <c r="S21" s="30"/>
+      <c r="S21" s="27"/>
       <c r="T21" t="s">
         <v>59</v>
       </c>
@@ -3913,7 +3575,7 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AL21" s="30"/>
+      <c r="AL21" s="27"/>
       <c r="AM21" t="s">
         <v>59</v>
       </c>
@@ -3973,7 +3635,7 @@
         <f>IF(BA20=0,0,VLOOKUP(BA19,$A$20:$M$106,13))</f>
         <v>0.34242268082220628</v>
       </c>
-      <c r="BD21" s="30"/>
+      <c r="BD21" s="27"/>
       <c r="BE21" t="s">
         <v>59</v>
       </c>
@@ -4065,7 +3727,7 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="CD21" s="30"/>
+      <c r="CD21" s="27"/>
       <c r="CE21" t="s">
         <v>59</v>
       </c>
@@ -4113,7 +3775,7 @@
         <f t="shared" si="15"/>
         <v>0.56427143043856254</v>
       </c>
-      <c r="CS21" s="30"/>
+      <c r="CS21" s="27"/>
       <c r="CT21" t="s">
         <v>59</v>
       </c>
@@ -4165,7 +3827,7 @@
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="DI21" s="30"/>
+      <c r="DI21" s="27"/>
       <c r="DJ21" t="s">
         <v>59</v>
       </c>
@@ -4209,7 +3871,7 @@
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="DW21" s="30"/>
+      <c r="DW21" s="27"/>
       <c r="DX21" t="s">
         <v>59</v>
       </c>
@@ -4269,7 +3931,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="EO21" s="30"/>
+      <c r="EO21" s="27"/>
       <c r="EP21" t="s">
         <v>59</v>
       </c>
@@ -4357,7 +4019,7 @@
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="FN21" s="30"/>
+      <c r="FN21" s="27"/>
       <c r="FO21" t="s">
         <v>59</v>
       </c>
@@ -4409,7 +4071,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="GD21" s="30"/>
+      <c r="GD21" s="27"/>
       <c r="GE21" t="s">
         <v>59</v>
       </c>
@@ -4548,7 +4210,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S22" s="30"/>
+      <c r="S22" s="27"/>
       <c r="T22" t="s">
         <v>67</v>
       </c>
@@ -4612,7 +4274,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AL22" s="30"/>
+      <c r="AL22" s="27"/>
       <c r="AM22" t="s">
         <v>69</v>
       </c>
@@ -4672,7 +4334,7 @@
         <f t="shared" si="23"/>
         <v>0.46766179145949793</v>
       </c>
-      <c r="BD22" s="30"/>
+      <c r="BD22" s="27"/>
       <c r="BE22" t="s">
         <v>71</v>
       </c>
@@ -4764,7 +4426,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="CD22" s="30"/>
+      <c r="CD22" s="27"/>
       <c r="CE22" t="s">
         <v>73</v>
       </c>
@@ -4812,7 +4474,7 @@
         <f>(CP21*($Q$18+1)*CP20)/($Q$18*((1-$Q$19)+($Q$19*$B$107/$Q$20))+CP20)</f>
         <v>0.55876335790716669</v>
       </c>
-      <c r="CS22" s="30"/>
+      <c r="CS22" s="27"/>
       <c r="CT22" t="s">
         <v>82</v>
       </c>
@@ -4864,7 +4526,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="DI22" s="30"/>
+      <c r="DI22" s="27"/>
       <c r="DJ22" t="s">
         <v>86</v>
       </c>
@@ -4908,7 +4570,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="DW22" s="30"/>
+      <c r="DW22" s="27"/>
       <c r="DX22" t="s">
         <v>90</v>
       </c>
@@ -4968,7 +4630,7 @@
         <f t="shared" si="29"/>
         <v>0</v>
       </c>
-      <c r="EO22" s="30"/>
+      <c r="EO22" s="27"/>
       <c r="EP22" t="s">
         <v>94</v>
       </c>
@@ -5056,7 +4718,7 @@
         <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="FN22" s="30"/>
+      <c r="FN22" s="27"/>
       <c r="FO22" t="s">
         <v>98</v>
       </c>
@@ -5108,7 +4770,7 @@
         <f t="shared" si="31"/>
         <v>0</v>
       </c>
-      <c r="GD22" s="30"/>
+      <c r="GD22" s="27"/>
       <c r="GE22" t="s">
         <v>101</v>
       </c>
@@ -5247,7 +4909,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S23" s="30"/>
+      <c r="S23" s="27"/>
       <c r="T23" t="s">
         <v>68</v>
       </c>
@@ -5255,7 +4917,7 @@
         <f>SUM(U22:AI22)</f>
         <v>2.0867093472984299</v>
       </c>
-      <c r="AL23" s="30"/>
+      <c r="AL23" s="27"/>
       <c r="AM23" t="s">
         <v>70</v>
       </c>
@@ -5263,7 +4925,7 @@
         <f>SUM(AN22:BA22)</f>
         <v>2.0202327040927357</v>
       </c>
-      <c r="BD23" s="30"/>
+      <c r="BD23" s="27"/>
       <c r="BE23" t="s">
         <v>72</v>
       </c>
@@ -5271,7 +4933,7 @@
         <f>SUM(BF22:CA22)</f>
         <v>4.3941072548284881</v>
       </c>
-      <c r="CD23" s="30"/>
+      <c r="CD23" s="27"/>
       <c r="CE23" t="s">
         <v>74</v>
       </c>
@@ -5279,7 +4941,7 @@
         <f>SUM(CF22:CP22)</f>
         <v>1.2870969822833596</v>
       </c>
-      <c r="CS23" s="30"/>
+      <c r="CS23" s="27"/>
       <c r="CT23" t="s">
         <v>83</v>
       </c>
@@ -5287,7 +4949,7 @@
         <f>SUM(CU22:DE22)</f>
         <v>0</v>
       </c>
-      <c r="DI23" s="30"/>
+      <c r="DI23" s="27"/>
       <c r="DJ23" t="s">
         <v>87</v>
       </c>
@@ -5295,7 +4957,7 @@
         <f>SUM(DK22:DT22)</f>
         <v>0.26067183291669505</v>
       </c>
-      <c r="DW23" s="30"/>
+      <c r="DW23" s="27"/>
       <c r="DX23" t="s">
         <v>91</v>
       </c>
@@ -5303,7 +4965,7 @@
         <f>SUM(DY22:EL22)</f>
         <v>2.3363598372565613</v>
       </c>
-      <c r="EO23" s="30"/>
+      <c r="EO23" s="27"/>
       <c r="EP23" t="s">
         <v>95</v>
       </c>
@@ -5311,7 +4973,7 @@
         <f>SUM(EQ22:FK22)</f>
         <v>2.1995021868335436</v>
       </c>
-      <c r="FN23" s="30"/>
+      <c r="FN23" s="27"/>
       <c r="FO23" t="s">
         <v>99</v>
       </c>
@@ -5319,7 +4981,7 @@
         <f>SUM(FP22:GA22)</f>
         <v>0</v>
       </c>
-      <c r="GD23" s="30"/>
+      <c r="GD23" s="27"/>
       <c r="GE23" t="s">
         <v>102</v>
       </c>
@@ -5431,7 +5093,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S25" s="30">
+      <c r="S25" s="27">
         <v>3</v>
       </c>
       <c r="T25" t="s">
@@ -5497,7 +5159,7 @@
         <f t="shared" si="33"/>
         <v>1</v>
       </c>
-      <c r="AL25" s="30">
+      <c r="AL25" s="27">
         <v>3</v>
       </c>
       <c r="AM25" t="s">
@@ -5559,7 +5221,7 @@
         <f t="shared" si="34"/>
         <v>1</v>
       </c>
-      <c r="BD25" s="30">
+      <c r="BD25" s="27">
         <v>2</v>
       </c>
       <c r="BE25" t="s">
@@ -5653,7 +5315,7 @@
         <f t="shared" si="35"/>
         <v>0</v>
       </c>
-      <c r="CD25" s="30">
+      <c r="CD25" s="27">
         <v>2</v>
       </c>
       <c r="CE25" t="s">
@@ -5703,7 +5365,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="CS25" s="30">
+      <c r="CS25" s="27">
         <v>2</v>
       </c>
       <c r="CT25" t="s">
@@ -5757,7 +5419,7 @@
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="DI25" s="30">
+      <c r="DI25" s="27">
         <v>2</v>
       </c>
       <c r="DJ25" t="s">
@@ -5803,7 +5465,7 @@
         <f t="shared" si="37"/>
         <v>0</v>
       </c>
-      <c r="DW25" s="30">
+      <c r="DW25" s="27">
         <v>2</v>
       </c>
       <c r="DX25" t="s">
@@ -5865,7 +5527,7 @@
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="EO25" s="30">
+      <c r="EO25" s="27">
         <v>2</v>
       </c>
       <c r="EP25" t="s">
@@ -5955,7 +5617,7 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="FN25" s="30">
+      <c r="FN25" s="27">
         <v>2</v>
       </c>
       <c r="FO25" t="s">
@@ -6009,7 +5671,7 @@
         <f t="shared" si="40"/>
         <v>0</v>
       </c>
-      <c r="GD25" s="30">
+      <c r="GD25" s="27">
         <v>2</v>
       </c>
       <c r="GE25" t="s">
@@ -6150,7 +5812,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S26" s="30"/>
+      <c r="S26" s="27"/>
       <c r="T26" t="s">
         <v>59</v>
       </c>
@@ -6214,7 +5876,7 @@
         <f t="shared" si="42"/>
         <v>0.74036268949424389</v>
       </c>
-      <c r="AL26" s="30"/>
+      <c r="AL26" s="27"/>
       <c r="AM26" t="s">
         <v>59</v>
       </c>
@@ -6274,7 +5936,7 @@
         <f t="shared" si="43"/>
         <v>0.34242268082220628</v>
       </c>
-      <c r="BD26" s="30"/>
+      <c r="BD26" s="27"/>
       <c r="BE26" t="s">
         <v>59</v>
       </c>
@@ -6366,7 +6028,7 @@
         <f t="shared" si="44"/>
         <v>0</v>
       </c>
-      <c r="CD26" s="30"/>
+      <c r="CD26" s="27"/>
       <c r="CE26" t="s">
         <v>59</v>
       </c>
@@ -6414,7 +6076,7 @@
         <f t="shared" si="45"/>
         <v>0</v>
       </c>
-      <c r="CS26" s="30"/>
+      <c r="CS26" s="27"/>
       <c r="CT26" t="s">
         <v>59</v>
       </c>
@@ -6466,7 +6128,7 @@
         <f t="shared" si="46"/>
         <v>0</v>
       </c>
-      <c r="DI26" s="30"/>
+      <c r="DI26" s="27"/>
       <c r="DJ26" t="s">
         <v>59</v>
       </c>
@@ -6510,7 +6172,7 @@
         <f t="shared" si="47"/>
         <v>0</v>
       </c>
-      <c r="DW26" s="30"/>
+      <c r="DW26" s="27"/>
       <c r="DX26" t="s">
         <v>59</v>
       </c>
@@ -6570,7 +6232,7 @@
         <f t="shared" si="48"/>
         <v>0</v>
       </c>
-      <c r="EO26" s="30"/>
+      <c r="EO26" s="27"/>
       <c r="EP26" t="s">
         <v>59</v>
       </c>
@@ -6658,7 +6320,7 @@
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="FN26" s="30"/>
+      <c r="FN26" s="27"/>
       <c r="FO26" t="s">
         <v>59</v>
       </c>
@@ -6710,7 +6372,7 @@
         <f t="shared" si="50"/>
         <v>0</v>
       </c>
-      <c r="GD26" s="30"/>
+      <c r="GD26" s="27"/>
       <c r="GE26" t="s">
         <v>59</v>
       </c>
@@ -6849,7 +6511,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S27" s="30"/>
+      <c r="S27" s="27"/>
       <c r="T27" t="s">
         <v>67</v>
       </c>
@@ -6913,7 +6575,7 @@
         <f t="shared" si="52"/>
         <v>0.61338578539768129</v>
       </c>
-      <c r="AL27" s="30"/>
+      <c r="AL27" s="27"/>
       <c r="AM27" t="s">
         <v>69</v>
       </c>
@@ -6973,7 +6635,7 @@
         <f t="shared" si="53"/>
         <v>0.28369501596249941</v>
       </c>
-      <c r="BD27" s="30"/>
+      <c r="BD27" s="27"/>
       <c r="BE27" t="s">
         <v>71</v>
       </c>
@@ -7065,7 +6727,7 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="CD27" s="30"/>
+      <c r="CD27" s="27"/>
       <c r="CE27" t="s">
         <v>73</v>
       </c>
@@ -7113,7 +6775,7 @@
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="CS27" s="30"/>
+      <c r="CS27" s="27"/>
       <c r="CT27" t="s">
         <v>82</v>
       </c>
@@ -7165,7 +6827,7 @@
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="DI27" s="30"/>
+      <c r="DI27" s="27"/>
       <c r="DJ27" t="s">
         <v>86</v>
       </c>
@@ -7209,7 +6871,7 @@
         <f t="shared" si="59"/>
         <v>0</v>
       </c>
-      <c r="DW27" s="30"/>
+      <c r="DW27" s="27"/>
       <c r="DX27" t="s">
         <v>90</v>
       </c>
@@ -7269,7 +6931,7 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="EO27" s="30"/>
+      <c r="EO27" s="27"/>
       <c r="EP27" t="s">
         <v>94</v>
       </c>
@@ -7357,7 +7019,7 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="FN27" s="30"/>
+      <c r="FN27" s="27"/>
       <c r="FO27" t="s">
         <v>98</v>
       </c>
@@ -7409,7 +7071,7 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="GD27" s="30"/>
+      <c r="GD27" s="27"/>
       <c r="GE27" t="s">
         <v>101</v>
       </c>
@@ -7548,7 +7210,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S28" s="30"/>
+      <c r="S28" s="27"/>
       <c r="T28" t="s">
         <v>68</v>
       </c>
@@ -7556,7 +7218,7 @@
         <f>SUM(U27:AI27)</f>
         <v>3.9357065164898635</v>
       </c>
-      <c r="AL28" s="30"/>
+      <c r="AL28" s="27"/>
       <c r="AM28" t="s">
         <v>70</v>
       </c>
@@ -7564,7 +7226,7 @@
         <f>SUM(AN27:BB27)</f>
         <v>2.261878676221392</v>
       </c>
-      <c r="BD28" s="30"/>
+      <c r="BD28" s="27"/>
       <c r="BE28" t="s">
         <v>72</v>
       </c>
@@ -7572,7 +7234,7 @@
         <f>SUM(BF27:CA27)</f>
         <v>2.6741435730571617</v>
       </c>
-      <c r="CD28" s="30"/>
+      <c r="CD28" s="27"/>
       <c r="CE28" t="s">
         <v>74</v>
       </c>
@@ -7580,7 +7242,7 @@
         <f>SUM(CF27:CP27)</f>
         <v>1.9997338114102676</v>
       </c>
-      <c r="CS28" s="30"/>
+      <c r="CS28" s="27"/>
       <c r="CT28" t="s">
         <v>83</v>
       </c>
@@ -7588,7 +7250,7 @@
         <f>SUM(CU27:DE27)</f>
         <v>1.0448011008636686</v>
       </c>
-      <c r="DI28" s="30"/>
+      <c r="DI28" s="27"/>
       <c r="DJ28" t="s">
         <v>87</v>
       </c>
@@ -7596,7 +7258,7 @@
         <f>SUM(DK27:DT27)</f>
         <v>0.82940933632659775</v>
       </c>
-      <c r="DW28" s="30"/>
+      <c r="DW28" s="27"/>
       <c r="DX28" t="s">
         <v>91</v>
       </c>
@@ -7604,7 +7266,7 @@
         <f>SUM(DY27:EL27)</f>
         <v>1.2712125501992406</v>
       </c>
-      <c r="EO28" s="30"/>
+      <c r="EO28" s="27"/>
       <c r="EP28" t="s">
         <v>95</v>
       </c>
@@ -7612,7 +7274,7 @@
         <f>SUM(EQ27:FD27)</f>
         <v>0</v>
       </c>
-      <c r="FN28" s="30"/>
+      <c r="FN28" s="27"/>
       <c r="FO28" t="s">
         <v>99</v>
       </c>
@@ -7620,7 +7282,7 @@
         <f>SUM(FP27:GA27)</f>
         <v>0.35647879998936638</v>
       </c>
-      <c r="GD28" s="30"/>
+      <c r="GD28" s="27"/>
       <c r="GE28" t="s">
         <v>102</v>
       </c>
@@ -7732,7 +7394,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S30" s="30">
+      <c r="S30" s="27">
         <v>4</v>
       </c>
       <c r="T30" t="s">
@@ -7798,7 +7460,7 @@
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="AL30" s="30">
+      <c r="AL30" s="27">
         <v>4</v>
       </c>
       <c r="AM30" t="s">
@@ -7860,7 +7522,7 @@
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
-      <c r="BD30" s="30">
+      <c r="BD30" s="27">
         <v>4</v>
       </c>
       <c r="BE30" t="s">
@@ -7954,7 +7616,7 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="CD30" s="30">
+      <c r="CD30" s="27">
         <v>3</v>
       </c>
       <c r="CE30" t="s">
@@ -8004,7 +7666,7 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="CS30" s="30">
+      <c r="CS30" s="27">
         <v>3</v>
       </c>
       <c r="CT30" t="s">
@@ -8058,7 +7720,7 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="DI30" s="30">
+      <c r="DI30" s="27">
         <v>3</v>
       </c>
       <c r="DJ30" t="s">
@@ -8104,7 +7766,7 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DW30" s="30">
+      <c r="DW30" s="27">
         <v>3</v>
       </c>
       <c r="DX30" t="s">
@@ -8166,7 +7828,7 @@
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="EO30" s="30">
+      <c r="EO30" s="27">
         <v>3</v>
       </c>
       <c r="EP30" t="s">
@@ -8256,7 +7918,7 @@
         <f t="shared" si="72"/>
         <v>0</v>
       </c>
-      <c r="FN30" s="30">
+      <c r="FN30" s="27">
         <v>3</v>
       </c>
       <c r="FO30" t="s">
@@ -8310,7 +7972,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="GD30" s="30">
+      <c r="GD30" s="27">
         <v>3</v>
       </c>
       <c r="GE30" t="s">
@@ -8451,7 +8113,7 @@
         <f t="shared" si="11"/>
         <v>0.53147891704225514</v>
       </c>
-      <c r="S31" s="30"/>
+      <c r="S31" s="27"/>
       <c r="T31" t="s">
         <v>59</v>
       </c>
@@ -8515,7 +8177,7 @@
         <f t="shared" si="75"/>
         <v>0</v>
       </c>
-      <c r="AL31" s="30"/>
+      <c r="AL31" s="27"/>
       <c r="AM31" t="s">
         <v>59</v>
       </c>
@@ -8575,7 +8237,7 @@
         <f t="shared" si="76"/>
         <v>0.34242268082220628</v>
       </c>
-      <c r="BD31" s="30"/>
+      <c r="BD31" s="27"/>
       <c r="BE31" t="s">
         <v>59</v>
       </c>
@@ -8667,7 +8329,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="CD31" s="30"/>
+      <c r="CD31" s="27"/>
       <c r="CE31" t="s">
         <v>59</v>
       </c>
@@ -8715,7 +8377,7 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="CS31" s="30"/>
+      <c r="CS31" s="27"/>
       <c r="CT31" t="s">
         <v>59</v>
       </c>
@@ -8767,7 +8429,7 @@
         <f t="shared" si="79"/>
         <v>0</v>
       </c>
-      <c r="DI31" s="30"/>
+      <c r="DI31" s="27"/>
       <c r="DJ31" t="s">
         <v>59</v>
       </c>
@@ -8811,7 +8473,7 @@
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="DW31" s="30"/>
+      <c r="DW31" s="27"/>
       <c r="DX31" t="s">
         <v>59</v>
       </c>
@@ -8871,7 +8533,7 @@
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="EO31" s="30"/>
+      <c r="EO31" s="27"/>
       <c r="EP31" t="s">
         <v>59</v>
       </c>
@@ -8959,7 +8621,7 @@
         <f t="shared" si="82"/>
         <v>0</v>
       </c>
-      <c r="FN31" s="30"/>
+      <c r="FN31" s="27"/>
       <c r="FO31" t="s">
         <v>59</v>
       </c>
@@ -9011,7 +8673,7 @@
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="GD31" s="30"/>
+      <c r="GD31" s="27"/>
       <c r="GE31" t="s">
         <v>59</v>
       </c>
@@ -9150,7 +8812,7 @@
         <f t="shared" si="11"/>
         <v>0.53147891704225514</v>
       </c>
-      <c r="S32" s="30"/>
+      <c r="S32" s="27"/>
       <c r="T32" t="s">
         <v>67</v>
       </c>
@@ -9214,7 +8876,7 @@
         <f t="shared" si="85"/>
         <v>0</v>
       </c>
-      <c r="AL32" s="30"/>
+      <c r="AL32" s="27"/>
       <c r="AM32" t="s">
         <v>69</v>
       </c>
@@ -9274,7 +8936,7 @@
         <f t="shared" si="86"/>
         <v>0.39724511765015802</v>
       </c>
-      <c r="BD32" s="30"/>
+      <c r="BD32" s="27"/>
       <c r="BE32" t="s">
         <v>71</v>
       </c>
@@ -9366,7 +9028,7 @@
         <f t="shared" si="87"/>
         <v>0</v>
       </c>
-      <c r="CD32" s="30"/>
+      <c r="CD32" s="27"/>
       <c r="CE32" t="s">
         <v>73</v>
       </c>
@@ -9414,7 +9076,7 @@
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
-      <c r="CS32" s="30"/>
+      <c r="CS32" s="27"/>
       <c r="CT32" t="s">
         <v>82</v>
       </c>
@@ -9466,7 +9128,7 @@
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
-      <c r="DI32" s="30"/>
+      <c r="DI32" s="27"/>
       <c r="DJ32" t="s">
         <v>86</v>
       </c>
@@ -9510,7 +9172,7 @@
         <f t="shared" si="90"/>
         <v>0</v>
       </c>
-      <c r="DW32" s="30"/>
+      <c r="DW32" s="27"/>
       <c r="DX32" t="s">
         <v>90</v>
       </c>
@@ -9570,7 +9232,7 @@
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="EO32" s="30"/>
+      <c r="EO32" s="27"/>
       <c r="EP32" t="s">
         <v>94</v>
       </c>
@@ -9658,7 +9320,7 @@
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="FN32" s="30"/>
+      <c r="FN32" s="27"/>
       <c r="FO32" t="s">
         <v>98</v>
       </c>
@@ -9710,7 +9372,7 @@
         <f t="shared" si="93"/>
         <v>0</v>
       </c>
-      <c r="GD32" s="30"/>
+      <c r="GD32" s="27"/>
       <c r="GE32" t="s">
         <v>101</v>
       </c>
@@ -9849,7 +9511,7 @@
         <f t="shared" si="11"/>
         <v>0.33099321904142442</v>
       </c>
-      <c r="S33" s="30"/>
+      <c r="S33" s="27"/>
       <c r="T33" t="s">
         <v>68</v>
       </c>
@@ -9857,7 +9519,7 @@
         <f>SUM(U32:AI32)</f>
         <v>1.3572441595047966</v>
       </c>
-      <c r="AL33" s="30"/>
+      <c r="AL33" s="27"/>
       <c r="AM33" t="s">
         <v>70</v>
       </c>
@@ -9865,7 +9527,7 @@
         <f>SUM(AN32:BB32)</f>
         <v>2.1192182262574351</v>
       </c>
-      <c r="BD33" s="30"/>
+      <c r="BD33" s="27"/>
       <c r="BE33" t="s">
         <v>72</v>
       </c>
@@ -9873,7 +9535,7 @@
         <f>SUM(BF32:CA32)</f>
         <v>0.70263194096552373</v>
       </c>
-      <c r="CD33" s="30"/>
+      <c r="CD33" s="27"/>
       <c r="CE33" t="s">
         <v>74</v>
       </c>
@@ -9881,7 +9543,7 @@
         <f>SUM(CF32:CP32)</f>
         <v>0.50178887254071436</v>
       </c>
-      <c r="CS33" s="30"/>
+      <c r="CS33" s="27"/>
       <c r="CT33" t="s">
         <v>83</v>
       </c>
@@ -9889,7 +9551,7 @@
         <f>SUM(CU32:DE32)</f>
         <v>0</v>
       </c>
-      <c r="DI33" s="30"/>
+      <c r="DI33" s="27"/>
       <c r="DJ33" t="s">
         <v>87</v>
       </c>
@@ -9897,7 +9559,7 @@
         <f>SUM(DK32:DT32)</f>
         <v>1.1151746579383957</v>
       </c>
-      <c r="DW33" s="30"/>
+      <c r="DW33" s="27"/>
       <c r="DX33" t="s">
         <v>91</v>
       </c>
@@ -9905,7 +9567,7 @@
         <f>SUM(DY32:EL32)</f>
         <v>1.4791590040972249</v>
       </c>
-      <c r="EO33" s="30"/>
+      <c r="EO33" s="27"/>
       <c r="EP33" t="s">
         <v>95</v>
       </c>
@@ -9913,7 +9575,7 @@
         <f>SUM(EQ32:FK32)</f>
         <v>2.279127662467423</v>
       </c>
-      <c r="FN33" s="30"/>
+      <c r="FN33" s="27"/>
       <c r="FO33" t="s">
         <v>99</v>
       </c>
@@ -9921,7 +9583,7 @@
         <f>SUM(FP32:GA32)</f>
         <v>0</v>
       </c>
-      <c r="GD33" s="30"/>
+      <c r="GD33" s="27"/>
       <c r="GE33" t="s">
         <v>102</v>
       </c>
@@ -10033,7 +9695,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S35" s="30">
+      <c r="S35" s="27">
         <v>5</v>
       </c>
       <c r="T35" t="s">
@@ -10099,7 +9761,7 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AL35" s="30">
+      <c r="AL35" s="27">
         <v>5</v>
       </c>
       <c r="AM35" t="s">
@@ -10161,7 +9823,7 @@
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="BD35" s="30">
+      <c r="BD35" s="27">
         <v>5</v>
       </c>
       <c r="BE35" t="s">
@@ -10255,7 +9917,7 @@
         <f t="shared" si="98"/>
         <v>0</v>
       </c>
-      <c r="CD35" s="30">
+      <c r="CD35" s="27">
         <v>5</v>
       </c>
       <c r="CE35" t="s">
@@ -10305,7 +9967,7 @@
         <f>VLOOKUP(CP$19,$A$20:$M$106,6)</f>
         <v>0</v>
       </c>
-      <c r="CS35" s="30">
+      <c r="CS35" s="27">
         <v>4</v>
       </c>
       <c r="CT35" t="s">
@@ -10359,7 +10021,7 @@
         <f t="shared" si="100"/>
         <v>0</v>
       </c>
-      <c r="DI35" s="30">
+      <c r="DI35" s="27">
         <v>4</v>
       </c>
       <c r="DJ35" t="s">
@@ -10405,7 +10067,7 @@
         <f t="shared" si="101"/>
         <v>0</v>
       </c>
-      <c r="DW35" s="30">
+      <c r="DW35" s="27">
         <v>4</v>
       </c>
       <c r="DX35" t="s">
@@ -10467,7 +10129,7 @@
         <f t="shared" si="102"/>
         <v>0</v>
       </c>
-      <c r="EO35" s="30">
+      <c r="EO35" s="27">
         <v>4</v>
       </c>
       <c r="EP35" t="s">
@@ -10557,7 +10219,7 @@
         <f t="shared" si="103"/>
         <v>0</v>
       </c>
-      <c r="FN35" s="30">
+      <c r="FN35" s="27">
         <v>4</v>
       </c>
       <c r="FO35" t="s">
@@ -10611,7 +10273,7 @@
         <f t="shared" si="104"/>
         <v>0</v>
       </c>
-      <c r="GD35" s="30">
+      <c r="GD35" s="27">
         <v>4</v>
       </c>
       <c r="GE35" t="s">
@@ -10752,7 +10414,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S36" s="30"/>
+      <c r="S36" s="27"/>
       <c r="T36" t="s">
         <v>59</v>
       </c>
@@ -10816,7 +10478,7 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AL36" s="30"/>
+      <c r="AL36" s="27"/>
       <c r="AM36" t="s">
         <v>59</v>
       </c>
@@ -10876,7 +10538,7 @@
         <f t="shared" si="106"/>
         <v>0</v>
       </c>
-      <c r="BD36" s="30"/>
+      <c r="BD36" s="27"/>
       <c r="BE36" t="s">
         <v>59</v>
       </c>
@@ -10968,7 +10630,7 @@
         <f t="shared" si="107"/>
         <v>0</v>
       </c>
-      <c r="CD36" s="30"/>
+      <c r="CD36" s="27"/>
       <c r="CE36" t="s">
         <v>59</v>
       </c>
@@ -11016,7 +10678,7 @@
         <f t="shared" si="108"/>
         <v>0</v>
       </c>
-      <c r="CS36" s="30"/>
+      <c r="CS36" s="27"/>
       <c r="CT36" t="s">
         <v>59</v>
       </c>
@@ -11068,7 +10730,7 @@
         <f t="shared" si="109"/>
         <v>0</v>
       </c>
-      <c r="DI36" s="30"/>
+      <c r="DI36" s="27"/>
       <c r="DJ36" t="s">
         <v>59</v>
       </c>
@@ -11112,7 +10774,7 @@
         <f t="shared" si="110"/>
         <v>0</v>
       </c>
-      <c r="DW36" s="30"/>
+      <c r="DW36" s="27"/>
       <c r="DX36" t="s">
         <v>59</v>
       </c>
@@ -11172,7 +10834,7 @@
         <f t="shared" si="111"/>
         <v>0</v>
       </c>
-      <c r="EO36" s="30"/>
+      <c r="EO36" s="27"/>
       <c r="EP36" t="s">
         <v>59</v>
       </c>
@@ -11260,7 +10922,7 @@
         <f t="shared" si="112"/>
         <v>0</v>
       </c>
-      <c r="FN36" s="30"/>
+      <c r="FN36" s="27"/>
       <c r="FO36" t="s">
         <v>59</v>
       </c>
@@ -11312,7 +10974,7 @@
         <f t="shared" si="113"/>
         <v>0</v>
       </c>
-      <c r="GD36" s="30"/>
+      <c r="GD36" s="27"/>
       <c r="GE36" t="s">
         <v>59</v>
       </c>
@@ -11451,7 +11113,7 @@
         <f t="shared" si="11"/>
         <v>0.15970084286751185</v>
       </c>
-      <c r="S37" s="30"/>
+      <c r="S37" s="27"/>
       <c r="T37" t="s">
         <v>67</v>
       </c>
@@ -11515,7 +11177,7 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AL37" s="30"/>
+      <c r="AL37" s="27"/>
       <c r="AM37" t="s">
         <v>69</v>
       </c>
@@ -11575,7 +11237,7 @@
         <f t="shared" si="115"/>
         <v>0</v>
       </c>
-      <c r="BD37" s="30"/>
+      <c r="BD37" s="27"/>
       <c r="BE37" t="s">
         <v>71</v>
       </c>
@@ -11667,7 +11329,7 @@
         <f t="shared" si="116"/>
         <v>0</v>
       </c>
-      <c r="CD37" s="30"/>
+      <c r="CD37" s="27"/>
       <c r="CE37" t="s">
         <v>73</v>
       </c>
@@ -11715,7 +11377,7 @@
         <f t="shared" ref="CP37" si="118">(CP36*($Q$18+1)*CP35)/($Q$18*((1-$Q$19)+($Q$19*$E$107/$Q$20))+CP35)</f>
         <v>0</v>
       </c>
-      <c r="CS37" s="30"/>
+      <c r="CS37" s="27"/>
       <c r="CT37" t="s">
         <v>82</v>
       </c>
@@ -11767,7 +11429,7 @@
         <f t="shared" si="119"/>
         <v>0</v>
       </c>
-      <c r="DI37" s="30"/>
+      <c r="DI37" s="27"/>
       <c r="DJ37" t="s">
         <v>86</v>
       </c>
@@ -11811,7 +11473,7 @@
         <f t="shared" si="120"/>
         <v>0</v>
       </c>
-      <c r="DW37" s="30"/>
+      <c r="DW37" s="27"/>
       <c r="DX37" t="s">
         <v>90</v>
       </c>
@@ -11871,7 +11533,7 @@
         <f t="shared" si="121"/>
         <v>0</v>
       </c>
-      <c r="EO37" s="30"/>
+      <c r="EO37" s="27"/>
       <c r="EP37" t="s">
         <v>94</v>
       </c>
@@ -11959,7 +11621,7 @@
         <f t="shared" si="122"/>
         <v>0</v>
       </c>
-      <c r="FN37" s="30"/>
+      <c r="FN37" s="27"/>
       <c r="FO37" t="s">
         <v>98</v>
       </c>
@@ -12011,7 +11673,7 @@
         <f t="shared" si="123"/>
         <v>0</v>
       </c>
-      <c r="GD37" s="30"/>
+      <c r="GD37" s="27"/>
       <c r="GE37" t="s">
         <v>101</v>
       </c>
@@ -12150,7 +11812,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S38" s="30"/>
+      <c r="S38" s="27"/>
       <c r="T38" t="s">
         <v>68</v>
       </c>
@@ -12214,7 +11876,7 @@
         <f t="shared" si="95"/>
         <v>0</v>
       </c>
-      <c r="AL38" s="30"/>
+      <c r="AL38" s="27"/>
       <c r="AM38" t="s">
         <v>70</v>
       </c>
@@ -12222,7 +11884,7 @@
         <f>SUM(AN37:BA37)</f>
         <v>1.1319216373779339</v>
       </c>
-      <c r="BD38" s="30"/>
+      <c r="BD38" s="27"/>
       <c r="BE38" t="s">
         <v>72</v>
       </c>
@@ -12230,7 +11892,7 @@
         <f>SUM(BF37:CA37)</f>
         <v>0</v>
       </c>
-      <c r="CD38" s="30"/>
+      <c r="CD38" s="27"/>
       <c r="CE38" t="s">
         <v>74</v>
       </c>
@@ -12238,7 +11900,7 @@
         <f>SUM(CF37:CP37)</f>
         <v>2.5050690630324084</v>
       </c>
-      <c r="CS38" s="30"/>
+      <c r="CS38" s="27"/>
       <c r="CT38" t="s">
         <v>83</v>
       </c>
@@ -12246,7 +11908,7 @@
         <f>SUM(CU37:DF37)</f>
         <v>2.5766879371343512</v>
       </c>
-      <c r="DI38" s="30"/>
+      <c r="DI38" s="27"/>
       <c r="DJ38" t="s">
         <v>87</v>
       </c>
@@ -12254,7 +11916,7 @@
         <f>SUM(DK37:DT37)</f>
         <v>0.30538682331536576</v>
       </c>
-      <c r="DW38" s="30"/>
+      <c r="DW38" s="27"/>
       <c r="DX38" t="s">
         <v>91</v>
       </c>
@@ -12262,7 +11924,7 @@
         <f>SUM(DY37:EL37)</f>
         <v>1.4165862852919111</v>
       </c>
-      <c r="EO38" s="30"/>
+      <c r="EO38" s="27"/>
       <c r="EP38" t="s">
         <v>95</v>
       </c>
@@ -12270,7 +11932,7 @@
         <f>SUM(EQ37:FK37)</f>
         <v>0.65461221853927276</v>
       </c>
-      <c r="FN38" s="30"/>
+      <c r="FN38" s="27"/>
       <c r="FO38" t="s">
         <v>99</v>
       </c>
@@ -12278,7 +11940,7 @@
         <f>SUM(FP37:GA37)</f>
         <v>0.39724511765015802</v>
       </c>
-      <c r="GD38" s="30"/>
+      <c r="GD38" s="27"/>
       <c r="GE38" t="s">
         <v>102</v>
       </c>
@@ -12390,7 +12052,7 @@
         <f t="shared" si="11"/>
         <v>0.53147891704225514</v>
       </c>
-      <c r="S40" s="30">
+      <c r="S40" s="27">
         <v>6</v>
       </c>
       <c r="T40" t="s">
@@ -12456,7 +12118,7 @@
         <f t="shared" si="125"/>
         <v>0</v>
       </c>
-      <c r="AL40" s="30">
+      <c r="AL40" s="27">
         <v>6</v>
       </c>
       <c r="AM40" t="s">
@@ -12518,7 +12180,7 @@
         <f t="shared" si="126"/>
         <v>0</v>
       </c>
-      <c r="BD40" s="30">
+      <c r="BD40" s="27">
         <v>6</v>
       </c>
       <c r="BE40" t="s">
@@ -12612,7 +12274,7 @@
         <f t="shared" si="128"/>
         <v>0</v>
       </c>
-      <c r="CD40" s="30">
+      <c r="CD40" s="27">
         <v>6</v>
       </c>
       <c r="CE40" t="s">
@@ -12662,7 +12324,7 @@
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="CS40" s="30">
+      <c r="CS40" s="27">
         <v>6</v>
       </c>
       <c r="CT40" t="s">
@@ -12716,7 +12378,7 @@
         <f t="shared" si="129"/>
         <v>0</v>
       </c>
-      <c r="DI40" s="30">
+      <c r="DI40" s="27">
         <v>5</v>
       </c>
       <c r="DJ40" t="s">
@@ -12762,7 +12424,7 @@
         <f t="shared" si="130"/>
         <v>1</v>
       </c>
-      <c r="DW40" s="30">
+      <c r="DW40" s="27">
         <v>5</v>
       </c>
       <c r="DX40" t="s">
@@ -12824,7 +12486,7 @@
         <f t="shared" si="131"/>
         <v>0</v>
       </c>
-      <c r="EO40" s="30">
+      <c r="EO40" s="27">
         <v>5</v>
       </c>
       <c r="EP40" t="s">
@@ -12914,7 +12576,7 @@
         <f t="shared" si="132"/>
         <v>0</v>
       </c>
-      <c r="FN40" s="30">
+      <c r="FN40" s="27">
         <v>5</v>
       </c>
       <c r="FO40" t="s">
@@ -12968,7 +12630,7 @@
         <f t="shared" si="133"/>
         <v>0</v>
       </c>
-      <c r="GD40" s="30">
+      <c r="GD40" s="27">
         <v>5</v>
       </c>
       <c r="GE40" t="s">
@@ -13109,7 +12771,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S41" s="30"/>
+      <c r="S41" s="27"/>
       <c r="T41" t="s">
         <v>59</v>
       </c>
@@ -13173,7 +12835,7 @@
         <f t="shared" si="135"/>
         <v>0</v>
       </c>
-      <c r="AL41" s="30"/>
+      <c r="AL41" s="27"/>
       <c r="AM41" t="s">
         <v>59</v>
       </c>
@@ -13233,7 +12895,7 @@
         <f t="shared" si="136"/>
         <v>0</v>
       </c>
-      <c r="BD41" s="30"/>
+      <c r="BD41" s="27"/>
       <c r="BE41" t="s">
         <v>59</v>
       </c>
@@ -13325,7 +12987,7 @@
         <f t="shared" si="137"/>
         <v>0</v>
       </c>
-      <c r="CD41" s="30"/>
+      <c r="CD41" s="27"/>
       <c r="CE41" t="s">
         <v>59</v>
       </c>
@@ -13373,7 +13035,7 @@
         <f t="shared" si="138"/>
         <v>0</v>
       </c>
-      <c r="CS41" s="30"/>
+      <c r="CS41" s="27"/>
       <c r="CT41" t="s">
         <v>59</v>
       </c>
@@ -13425,7 +13087,7 @@
         <f t="shared" si="139"/>
         <v>0</v>
       </c>
-      <c r="DI41" s="30"/>
+      <c r="DI41" s="27"/>
       <c r="DJ41" t="s">
         <v>59</v>
       </c>
@@ -13469,7 +13131,7 @@
         <f t="shared" si="140"/>
         <v>0.56427143043856254</v>
       </c>
-      <c r="DW41" s="30"/>
+      <c r="DW41" s="27"/>
       <c r="DX41" t="s">
         <v>59</v>
       </c>
@@ -13529,7 +13191,7 @@
         <f t="shared" si="141"/>
         <v>0</v>
       </c>
-      <c r="EO41" s="30"/>
+      <c r="EO41" s="27"/>
       <c r="EP41" t="s">
         <v>59</v>
       </c>
@@ -13617,7 +13279,7 @@
         <f t="shared" si="142"/>
         <v>0</v>
       </c>
-      <c r="FN41" s="30"/>
+      <c r="FN41" s="27"/>
       <c r="FO41" t="s">
         <v>59</v>
       </c>
@@ -13669,7 +13331,7 @@
         <f t="shared" si="143"/>
         <v>0</v>
       </c>
-      <c r="GD41" s="30"/>
+      <c r="GD41" s="27"/>
       <c r="GE41" t="s">
         <v>59</v>
       </c>
@@ -13808,7 +13470,7 @@
         <f t="shared" si="11"/>
         <v>0.33099321904142442</v>
       </c>
-      <c r="S42" s="30"/>
+      <c r="S42" s="27"/>
       <c r="T42" t="s">
         <v>67</v>
       </c>
@@ -13872,7 +13534,7 @@
         <f t="shared" si="145"/>
         <v>0</v>
       </c>
-      <c r="AL42" s="30"/>
+      <c r="AL42" s="27"/>
       <c r="AM42" t="s">
         <v>69</v>
       </c>
@@ -13932,7 +13594,7 @@
         <f t="shared" si="146"/>
         <v>0</v>
       </c>
-      <c r="BD42" s="30"/>
+      <c r="BD42" s="27"/>
       <c r="BE42" t="s">
         <v>71</v>
       </c>
@@ -14024,7 +13686,7 @@
         <f t="shared" si="147"/>
         <v>0</v>
       </c>
-      <c r="CD42" s="30"/>
+      <c r="CD42" s="27"/>
       <c r="CE42" t="s">
         <v>73</v>
       </c>
@@ -14072,7 +13734,7 @@
         <f t="shared" si="148"/>
         <v>0</v>
       </c>
-      <c r="CS42" s="30"/>
+      <c r="CS42" s="27"/>
       <c r="CT42" t="s">
         <v>82</v>
       </c>
@@ -14124,7 +13786,7 @@
         <f t="shared" si="149"/>
         <v>0</v>
       </c>
-      <c r="DI42" s="30"/>
+      <c r="DI42" s="27"/>
       <c r="DJ42" t="s">
         <v>86</v>
       </c>
@@ -14168,7 +13830,7 @@
         <f>(DT41*($Q$18+1)*DT40)/($Q$18*((1-$Q$19)+($Q$19*$F$107/$Q$20))+DT40)</f>
         <v>0.63641731437975002</v>
       </c>
-      <c r="DW42" s="30"/>
+      <c r="DW42" s="27"/>
       <c r="DX42" t="s">
         <v>90</v>
       </c>
@@ -14228,7 +13890,7 @@
         <f t="shared" si="151"/>
         <v>0</v>
       </c>
-      <c r="EO42" s="30"/>
+      <c r="EO42" s="27"/>
       <c r="EP42" t="s">
         <v>94</v>
       </c>
@@ -14316,7 +13978,7 @@
         <f t="shared" si="152"/>
         <v>0</v>
       </c>
-      <c r="FN42" s="30"/>
+      <c r="FN42" s="27"/>
       <c r="FO42" t="s">
         <v>98</v>
       </c>
@@ -14368,7 +14030,7 @@
         <f t="shared" si="153"/>
         <v>0</v>
       </c>
-      <c r="GD42" s="30"/>
+      <c r="GD42" s="27"/>
       <c r="GE42" t="s">
         <v>101</v>
       </c>
@@ -14507,7 +14169,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S43" s="30"/>
+      <c r="S43" s="27"/>
       <c r="T43" t="s">
         <v>68</v>
       </c>
@@ -14515,7 +14177,7 @@
         <f>SUM(U42:AI42)</f>
         <v>0.30538682331536576</v>
       </c>
-      <c r="AL43" s="30"/>
+      <c r="AL43" s="27"/>
       <c r="AM43" t="s">
         <v>70</v>
       </c>
@@ -14523,7 +14185,7 @@
         <f>SUM(AN42:BB42)</f>
         <v>0.81505740713624242</v>
       </c>
-      <c r="BD43" s="30"/>
+      <c r="BD43" s="27"/>
       <c r="BE43" t="s">
         <v>72</v>
       </c>
@@ -14531,7 +14193,7 @@
         <f>SUM(BF42:CA42)</f>
         <v>1.6844690046740833</v>
       </c>
-      <c r="CD43" s="30"/>
+      <c r="CD43" s="27"/>
       <c r="CE43" t="s">
         <v>74</v>
       </c>
@@ -14539,7 +14201,7 @@
         <f>SUM(CF42:CP42)</f>
         <v>0.30538682331536576</v>
       </c>
-      <c r="CS43" s="30"/>
+      <c r="CS43" s="27"/>
       <c r="CT43" t="s">
         <v>83</v>
       </c>
@@ -14547,7 +14209,7 @@
         <f>SUM(CU42:DE42)</f>
         <v>1.8188950208994221</v>
       </c>
-      <c r="DI43" s="30"/>
+      <c r="DI43" s="27"/>
       <c r="DJ43" t="s">
         <v>87</v>
       </c>
@@ -14555,7 +14217,7 @@
         <f>SUM(DK42:DT42)</f>
         <v>1.768338951757684</v>
       </c>
-      <c r="DW43" s="30"/>
+      <c r="DW43" s="27"/>
       <c r="DX43" t="s">
         <v>91</v>
       </c>
@@ -14563,7 +14225,7 @@
         <f>SUM(DY42:EL42)</f>
         <v>0</v>
       </c>
-      <c r="EO43" s="30"/>
+      <c r="EO43" s="27"/>
       <c r="EP43" t="s">
         <v>95</v>
       </c>
@@ -14571,7 +14233,7 @@
         <f>SUM(EQ42:FK42)</f>
         <v>0</v>
       </c>
-      <c r="FN43" s="30"/>
+      <c r="FN43" s="27"/>
       <c r="FO43" t="s">
         <v>99</v>
       </c>
@@ -14579,7 +14241,7 @@
         <f>SUM(FP42:GA42)</f>
         <v>0</v>
       </c>
-      <c r="GD43" s="30"/>
+      <c r="GD43" s="27"/>
       <c r="GE43" t="s">
         <v>102</v>
       </c>
@@ -14691,7 +14353,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S45" s="30">
+      <c r="S45" s="27">
         <v>7</v>
       </c>
       <c r="T45" t="s">
@@ -14757,7 +14419,7 @@
         <f t="shared" si="155"/>
         <v>0</v>
       </c>
-      <c r="AL45" s="30">
+      <c r="AL45" s="27">
         <v>7</v>
       </c>
       <c r="AM45" t="s">
@@ -14819,7 +14481,7 @@
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
-      <c r="BD45" s="30">
+      <c r="BD45" s="27">
         <v>7</v>
       </c>
       <c r="BE45" t="s">
@@ -14913,7 +14575,7 @@
         <f t="shared" si="157"/>
         <v>0</v>
       </c>
-      <c r="CD45" s="30">
+      <c r="CD45" s="27">
         <v>7</v>
       </c>
       <c r="CE45" t="s">
@@ -14963,7 +14625,7 @@
         <f t="shared" si="158"/>
         <v>0</v>
       </c>
-      <c r="CS45" s="30">
+      <c r="CS45" s="27">
         <v>7</v>
       </c>
       <c r="CT45" t="s">
@@ -15017,7 +14679,7 @@
         <f t="shared" si="158"/>
         <v>0</v>
       </c>
-      <c r="DI45" s="30">
+      <c r="DI45" s="27">
         <v>7</v>
       </c>
       <c r="DJ45" t="s">
@@ -15063,7 +14725,7 @@
         <f t="shared" si="159"/>
         <v>0</v>
       </c>
-      <c r="DW45" s="30">
+      <c r="DW45" s="27">
         <v>6</v>
       </c>
       <c r="DX45" t="s">
@@ -15125,7 +14787,7 @@
         <f t="shared" si="160"/>
         <v>0</v>
       </c>
-      <c r="EO45" s="30">
+      <c r="EO45" s="27">
         <v>6</v>
       </c>
       <c r="EP45" t="s">
@@ -15215,7 +14877,7 @@
         <f t="shared" si="161"/>
         <v>0</v>
       </c>
-      <c r="FN45" s="30">
+      <c r="FN45" s="27">
         <v>6</v>
       </c>
       <c r="FO45" t="s">
@@ -15269,7 +14931,7 @@
         <f t="shared" si="162"/>
         <v>0</v>
       </c>
-      <c r="GD45" s="30">
+      <c r="GD45" s="27">
         <v>6</v>
       </c>
       <c r="GE45" t="s">
@@ -15410,7 +15072,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S46" s="30"/>
+      <c r="S46" s="27"/>
       <c r="T46" t="s">
         <v>59</v>
       </c>
@@ -15474,7 +15136,7 @@
         <f t="shared" si="164"/>
         <v>0</v>
       </c>
-      <c r="AL46" s="30"/>
+      <c r="AL46" s="27"/>
       <c r="AM46" t="s">
         <v>59</v>
       </c>
@@ -15534,7 +15196,7 @@
         <f t="shared" si="165"/>
         <v>0</v>
       </c>
-      <c r="BD46" s="30"/>
+      <c r="BD46" s="27"/>
       <c r="BE46" t="s">
         <v>59</v>
       </c>
@@ -15626,7 +15288,7 @@
         <f t="shared" si="166"/>
         <v>0</v>
       </c>
-      <c r="CD46" s="30"/>
+      <c r="CD46" s="27"/>
       <c r="CE46" t="s">
         <v>59</v>
       </c>
@@ -15674,7 +15336,7 @@
         <f t="shared" si="167"/>
         <v>0</v>
       </c>
-      <c r="CS46" s="30"/>
+      <c r="CS46" s="27"/>
       <c r="CT46" t="s">
         <v>59</v>
       </c>
@@ -15726,7 +15388,7 @@
         <f t="shared" si="168"/>
         <v>0</v>
       </c>
-      <c r="DI46" s="30"/>
+      <c r="DI46" s="27"/>
       <c r="DJ46" t="s">
         <v>59</v>
       </c>
@@ -15770,7 +15432,7 @@
         <f t="shared" si="169"/>
         <v>0</v>
       </c>
-      <c r="DW46" s="30"/>
+      <c r="DW46" s="27"/>
       <c r="DX46" t="s">
         <v>59</v>
       </c>
@@ -15830,7 +15492,7 @@
         <f t="shared" si="170"/>
         <v>0</v>
       </c>
-      <c r="EO46" s="30"/>
+      <c r="EO46" s="27"/>
       <c r="EP46" t="s">
         <v>59</v>
       </c>
@@ -15918,7 +15580,7 @@
         <f t="shared" si="171"/>
         <v>0</v>
       </c>
-      <c r="FN46" s="30"/>
+      <c r="FN46" s="27"/>
       <c r="FO46" t="s">
         <v>59</v>
       </c>
@@ -15970,7 +15632,7 @@
         <f t="shared" si="172"/>
         <v>0</v>
       </c>
-      <c r="GD46" s="30"/>
+      <c r="GD46" s="27"/>
       <c r="GE46" t="s">
         <v>59</v>
       </c>
@@ -16109,7 +15771,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S47" s="30"/>
+      <c r="S47" s="27"/>
       <c r="T47" t="s">
         <v>67</v>
       </c>
@@ -16173,7 +15835,7 @@
         <f t="shared" si="174"/>
         <v>0</v>
       </c>
-      <c r="AL47" s="30"/>
+      <c r="AL47" s="27"/>
       <c r="AM47" t="s">
         <v>69</v>
       </c>
@@ -16233,7 +15895,7 @@
         <f t="shared" si="175"/>
         <v>0</v>
       </c>
-      <c r="BD47" s="30"/>
+      <c r="BD47" s="27"/>
       <c r="BE47" t="s">
         <v>71</v>
       </c>
@@ -16325,7 +15987,7 @@
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="CD47" s="30"/>
+      <c r="CD47" s="27"/>
       <c r="CE47" t="s">
         <v>73</v>
       </c>
@@ -16373,7 +16035,7 @@
         <f t="shared" si="177"/>
         <v>0</v>
       </c>
-      <c r="CS47" s="30"/>
+      <c r="CS47" s="27"/>
       <c r="CT47" t="s">
         <v>82</v>
       </c>
@@ -16425,7 +16087,7 @@
         <f t="shared" si="178"/>
         <v>0</v>
       </c>
-      <c r="DI47" s="30"/>
+      <c r="DI47" s="27"/>
       <c r="DJ47" t="s">
         <v>86</v>
       </c>
@@ -16469,7 +16131,7 @@
         <f t="shared" si="179"/>
         <v>0</v>
       </c>
-      <c r="DW47" s="30"/>
+      <c r="DW47" s="27"/>
       <c r="DX47" t="s">
         <v>90</v>
       </c>
@@ -16529,7 +16191,7 @@
         <f t="shared" si="180"/>
         <v>0</v>
       </c>
-      <c r="EO47" s="30"/>
+      <c r="EO47" s="27"/>
       <c r="EP47" t="s">
         <v>94</v>
       </c>
@@ -16617,7 +16279,7 @@
         <f t="shared" si="181"/>
         <v>0</v>
       </c>
-      <c r="FN47" s="30"/>
+      <c r="FN47" s="27"/>
       <c r="FO47" t="s">
         <v>98</v>
       </c>
@@ -16669,7 +16331,7 @@
         <f t="shared" si="182"/>
         <v>0</v>
       </c>
-      <c r="GD47" s="30"/>
+      <c r="GD47" s="27"/>
       <c r="GE47" t="s">
         <v>101</v>
       </c>
@@ -16808,7 +16470,7 @@
         <f t="shared" si="11"/>
         <v>0.33099321904142442</v>
       </c>
-      <c r="S48" s="30"/>
+      <c r="S48" s="27"/>
       <c r="T48" t="s">
         <v>68</v>
       </c>
@@ -16816,7 +16478,7 @@
         <f>SUM(U47:AI47)</f>
         <v>2.4562414708672167</v>
       </c>
-      <c r="AL48" s="30"/>
+      <c r="AL48" s="27"/>
       <c r="AM48" t="s">
         <v>70</v>
       </c>
@@ -16824,7 +16486,7 @@
         <f>SUM(AN47:BB47)</f>
         <v>1.2712125501992406</v>
       </c>
-      <c r="BD48" s="30"/>
+      <c r="BD48" s="27"/>
       <c r="BE48" t="s">
         <v>72</v>
       </c>
@@ -16832,7 +16494,7 @@
         <f>SUM(BF47:CA47)</f>
         <v>1.9861182973163989</v>
       </c>
-      <c r="CD48" s="30"/>
+      <c r="CD48" s="27"/>
       <c r="CE48" t="s">
         <v>74</v>
       </c>
@@ -16840,7 +16502,7 @@
         <f>SUM(CF47:CP47)</f>
         <v>1.2712125501992406</v>
       </c>
-      <c r="CS48" s="30"/>
+      <c r="CS48" s="27"/>
       <c r="CT48" t="s">
         <v>83</v>
       </c>
@@ -16848,7 +16510,7 @@
         <f>SUM(CU47:DE47)</f>
         <v>0</v>
       </c>
-      <c r="DI48" s="30"/>
+      <c r="DI48" s="27"/>
       <c r="DJ48" t="s">
         <v>87</v>
       </c>
@@ -16856,7 +16518,7 @@
         <f>SUM(DK47:DT47)</f>
         <v>1.0713845471065246</v>
       </c>
-      <c r="DW48" s="30"/>
+      <c r="DW48" s="27"/>
       <c r="DX48" t="s">
         <v>91</v>
       </c>
@@ -16864,7 +16526,7 @@
         <f>SUM(DY47:EL47)</f>
         <v>1.1747984208532067</v>
       </c>
-      <c r="EO48" s="30"/>
+      <c r="EO48" s="27"/>
       <c r="EP48" t="s">
         <v>95</v>
       </c>
@@ -16872,7 +16534,7 @@
         <f>SUM(EQ47:FK47)</f>
         <v>0.52018620231393398</v>
       </c>
-      <c r="FN48" s="30"/>
+      <c r="FN48" s="27"/>
       <c r="FO48" t="s">
         <v>99</v>
       </c>
@@ -16880,7 +16542,7 @@
         <f>SUM(FP47:GA47)</f>
         <v>0</v>
       </c>
-      <c r="GD48" s="30"/>
+      <c r="GD48" s="27"/>
       <c r="GE48" t="s">
         <v>102</v>
       </c>
@@ -16992,7 +16654,7 @@
         <f t="shared" si="11"/>
         <v>0.15970084286751185</v>
       </c>
-      <c r="S50" s="30">
+      <c r="S50" s="27">
         <v>8</v>
       </c>
       <c r="T50" t="s">
@@ -17058,7 +16720,7 @@
         <f t="shared" si="184"/>
         <v>0</v>
       </c>
-      <c r="AL50" s="30">
+      <c r="AL50" s="27">
         <v>8</v>
       </c>
       <c r="AM50" t="s">
@@ -17120,7 +16782,7 @@
         <f t="shared" si="185"/>
         <v>0</v>
       </c>
-      <c r="BD50" s="30">
+      <c r="BD50" s="27">
         <v>8</v>
       </c>
       <c r="BE50" t="s">
@@ -17214,7 +16876,7 @@
         <f t="shared" si="186"/>
         <v>0</v>
       </c>
-      <c r="CD50" s="30">
+      <c r="CD50" s="27">
         <v>8</v>
       </c>
       <c r="CE50" t="s">
@@ -17264,7 +16926,7 @@
         <f t="shared" si="187"/>
         <v>1</v>
       </c>
-      <c r="CS50" s="30">
+      <c r="CS50" s="27">
         <v>8</v>
       </c>
       <c r="CT50" t="s">
@@ -17318,7 +16980,7 @@
         <f t="shared" si="187"/>
         <v>0</v>
       </c>
-      <c r="DI50" s="30">
+      <c r="DI50" s="27">
         <v>8</v>
       </c>
       <c r="DJ50" t="s">
@@ -17364,7 +17026,7 @@
         <f t="shared" si="188"/>
         <v>0</v>
       </c>
-      <c r="DW50" s="30">
+      <c r="DW50" s="27">
         <v>8</v>
       </c>
       <c r="DX50" t="s">
@@ -17426,7 +17088,7 @@
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="EO50" s="30">
+      <c r="EO50" s="27">
         <v>7</v>
       </c>
       <c r="EP50" t="s">
@@ -17516,7 +17178,7 @@
         <f t="shared" si="190"/>
         <v>1</v>
       </c>
-      <c r="FN50" s="30">
+      <c r="FN50" s="27">
         <v>7</v>
       </c>
       <c r="FO50" t="s">
@@ -17570,7 +17232,7 @@
         <f t="shared" si="191"/>
         <v>0</v>
       </c>
-      <c r="GD50" s="30">
+      <c r="GD50" s="27">
         <v>7</v>
       </c>
       <c r="GE50" t="s">
@@ -17711,7 +17373,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S51" s="30"/>
+      <c r="S51" s="27"/>
       <c r="T51" t="s">
         <v>59</v>
       </c>
@@ -17775,7 +17437,7 @@
         <f t="shared" si="193"/>
         <v>0</v>
       </c>
-      <c r="AL51" s="30"/>
+      <c r="AL51" s="27"/>
       <c r="AM51" t="s">
         <v>59</v>
       </c>
@@ -17835,7 +17497,7 @@
         <f t="shared" si="194"/>
         <v>0</v>
       </c>
-      <c r="BD51" s="30"/>
+      <c r="BD51" s="27"/>
       <c r="BE51" t="s">
         <v>59</v>
       </c>
@@ -17927,7 +17589,7 @@
         <f t="shared" si="195"/>
         <v>0</v>
       </c>
-      <c r="CD51" s="30"/>
+      <c r="CD51" s="27"/>
       <c r="CE51" t="s">
         <v>59</v>
       </c>
@@ -17975,7 +17637,7 @@
         <f t="shared" si="196"/>
         <v>0.56427143043856254</v>
       </c>
-      <c r="CS51" s="30"/>
+      <c r="CS51" s="27"/>
       <c r="CT51" t="s">
         <v>59</v>
       </c>
@@ -18027,7 +17689,7 @@
         <f t="shared" si="197"/>
         <v>0</v>
       </c>
-      <c r="DI51" s="30"/>
+      <c r="DI51" s="27"/>
       <c r="DJ51" t="s">
         <v>59</v>
       </c>
@@ -18071,7 +17733,7 @@
         <f t="shared" si="198"/>
         <v>0</v>
       </c>
-      <c r="DW51" s="30"/>
+      <c r="DW51" s="27"/>
       <c r="DX51" t="s">
         <v>59</v>
       </c>
@@ -18131,7 +17793,7 @@
         <f t="shared" si="199"/>
         <v>0</v>
       </c>
-      <c r="EO51" s="30"/>
+      <c r="EO51" s="27"/>
       <c r="EP51" t="s">
         <v>59</v>
       </c>
@@ -18219,7 +17881,7 @@
         <f t="shared" si="200"/>
         <v>0.74036268949424389</v>
       </c>
-      <c r="FN51" s="30"/>
+      <c r="FN51" s="27"/>
       <c r="FO51" t="s">
         <v>59</v>
       </c>
@@ -18271,7 +17933,7 @@
         <f t="shared" si="201"/>
         <v>0</v>
       </c>
-      <c r="GD51" s="30"/>
+      <c r="GD51" s="27"/>
       <c r="GE51" t="s">
         <v>59</v>
       </c>
@@ -18410,7 +18072,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S52" s="30"/>
+      <c r="S52" s="27"/>
       <c r="T52" t="s">
         <v>67</v>
       </c>
@@ -18474,7 +18136,7 @@
         <f t="shared" si="203"/>
         <v>0</v>
       </c>
-      <c r="AL52" s="30"/>
+      <c r="AL52" s="27"/>
       <c r="AM52" t="s">
         <v>69</v>
       </c>
@@ -18534,7 +18196,7 @@
         <f t="shared" si="204"/>
         <v>0</v>
       </c>
-      <c r="BD52" s="30"/>
+      <c r="BD52" s="27"/>
       <c r="BE52" t="s">
         <v>71</v>
       </c>
@@ -18626,7 +18288,7 @@
         <f t="shared" si="205"/>
         <v>0</v>
       </c>
-      <c r="CD52" s="30"/>
+      <c r="CD52" s="27"/>
       <c r="CE52" t="s">
         <v>73</v>
       </c>
@@ -18674,7 +18336,7 @@
         <f t="shared" si="206"/>
         <v>0.46749529581706689</v>
       </c>
-      <c r="CS52" s="30"/>
+      <c r="CS52" s="27"/>
       <c r="CT52" t="s">
         <v>82</v>
       </c>
@@ -18726,7 +18388,7 @@
         <f t="shared" si="207"/>
         <v>0</v>
       </c>
-      <c r="DI52" s="30"/>
+      <c r="DI52" s="27"/>
       <c r="DJ52" t="s">
         <v>86</v>
       </c>
@@ -18770,7 +18432,7 @@
         <f t="shared" si="208"/>
         <v>0</v>
       </c>
-      <c r="DW52" s="30"/>
+      <c r="DW52" s="27"/>
       <c r="DX52" t="s">
         <v>90</v>
       </c>
@@ -18830,7 +18492,7 @@
         <f t="shared" si="209"/>
         <v>0</v>
       </c>
-      <c r="EO52" s="30"/>
+      <c r="EO52" s="27"/>
       <c r="EP52" t="s">
         <v>94</v>
       </c>
@@ -18918,7 +18580,7 @@
         <f>(FK51*($Q$18+1)*FK50)/($Q$18*((1-$Q$19)+($Q$19*$H$107/$Q$20))+FK50)</f>
         <v>0.77075386032867133</v>
       </c>
-      <c r="FN52" s="30"/>
+      <c r="FN52" s="27"/>
       <c r="FO52" t="s">
         <v>98</v>
       </c>
@@ -18970,7 +18632,7 @@
         <f t="shared" si="211"/>
         <v>0</v>
       </c>
-      <c r="GD52" s="30"/>
+      <c r="GD52" s="27"/>
       <c r="GE52" t="s">
         <v>101</v>
       </c>
@@ -19109,7 +18771,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S53" s="30"/>
+      <c r="S53" s="27"/>
       <c r="T53" t="s">
         <v>68</v>
       </c>
@@ -19117,7 +18779,7 @@
         <f>SUM(U52:AI52)</f>
         <v>1.6629592839517924</v>
       </c>
-      <c r="AL53" s="30"/>
+      <c r="AL53" s="27"/>
       <c r="AM53" t="s">
         <v>70</v>
       </c>
@@ -19125,7 +18787,7 @@
         <f>SUM(AN52:BB52)</f>
         <v>0</v>
       </c>
-      <c r="BD53" s="30"/>
+      <c r="BD53" s="27"/>
       <c r="BE53" t="s">
         <v>72</v>
       </c>
@@ -19133,7 +18795,7 @@
         <f>SUM(BF52:CA52)</f>
         <v>2.0751305530232154</v>
       </c>
-      <c r="CD53" s="30"/>
+      <c r="CD53" s="27"/>
       <c r="CE53" t="s">
         <v>74</v>
       </c>
@@ -19141,7 +18803,7 @@
         <f>SUM(CF52:CP52)</f>
         <v>0.46749529581706689</v>
       </c>
-      <c r="CS53" s="30"/>
+      <c r="CS53" s="27"/>
       <c r="CT53" t="s">
         <v>83</v>
       </c>
@@ -19149,7 +18811,7 @@
         <f>SUM(CU52:DE52)</f>
         <v>0</v>
       </c>
-      <c r="DI53" s="30"/>
+      <c r="DI53" s="27"/>
       <c r="DJ53" t="s">
         <v>87</v>
       </c>
@@ -19157,7 +18819,7 @@
         <f>SUM(DK52:DT52)</f>
         <v>0.41217126907142304</v>
       </c>
-      <c r="DW53" s="30"/>
+      <c r="DW53" s="27"/>
       <c r="DX53" t="s">
         <v>91</v>
       </c>
@@ -19165,7 +18827,7 @@
         <f>SUM(DY52:EL52)</f>
         <v>3.2706346070576262</v>
       </c>
-      <c r="EO53" s="30"/>
+      <c r="EO53" s="27"/>
       <c r="EP53" t="s">
         <v>95</v>
       </c>
@@ -19173,7 +18835,7 @@
         <f>SUM(EQ52:FK52)</f>
         <v>3.5276260179737413</v>
       </c>
-      <c r="FN53" s="30"/>
+      <c r="FN53" s="27"/>
       <c r="FO53" t="s">
         <v>99</v>
       </c>
@@ -19181,7 +18843,7 @@
         <f>SUM(FP52:GA52)</f>
         <v>0.35647879998936638</v>
       </c>
-      <c r="GD53" s="30"/>
+      <c r="GD53" s="27"/>
       <c r="GE53" t="s">
         <v>102</v>
       </c>
@@ -19293,7 +18955,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S55" s="30">
+      <c r="S55" s="27">
         <v>9</v>
       </c>
       <c r="T55" t="s">
@@ -19359,7 +19021,7 @@
         <f t="shared" si="213"/>
         <v>0</v>
       </c>
-      <c r="AL55" s="30">
+      <c r="AL55" s="27">
         <v>9</v>
       </c>
       <c r="AM55" t="s">
@@ -19421,7 +19083,7 @@
         <f t="shared" si="214"/>
         <v>0</v>
       </c>
-      <c r="BD55" s="30">
+      <c r="BD55" s="27">
         <v>9</v>
       </c>
       <c r="BE55" t="s">
@@ -19515,7 +19177,7 @@
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="CD55" s="30">
+      <c r="CD55" s="27">
         <v>9</v>
       </c>
       <c r="CE55" t="s">
@@ -19565,7 +19227,7 @@
         <f t="shared" si="217"/>
         <v>0</v>
       </c>
-      <c r="CS55" s="30">
+      <c r="CS55" s="27">
         <v>9</v>
       </c>
       <c r="CT55" t="s">
@@ -19619,7 +19281,7 @@
         <f t="shared" si="218"/>
         <v>0</v>
       </c>
-      <c r="DI55" s="30">
+      <c r="DI55" s="27">
         <v>9</v>
       </c>
       <c r="DJ55" t="s">
@@ -19665,7 +19327,7 @@
         <f t="shared" si="219"/>
         <v>0</v>
       </c>
-      <c r="DW55" s="30">
+      <c r="DW55" s="27">
         <v>9</v>
       </c>
       <c r="DX55" t="s">
@@ -19727,7 +19389,7 @@
         <f t="shared" si="220"/>
         <v>0</v>
       </c>
-      <c r="EO55" s="30">
+      <c r="EO55" s="27">
         <v>9</v>
       </c>
       <c r="EP55" t="s">
@@ -19817,7 +19479,7 @@
         <f t="shared" si="221"/>
         <v>0</v>
       </c>
-      <c r="FN55" s="30">
+      <c r="FN55" s="27">
         <v>8</v>
       </c>
       <c r="FO55" t="s">
@@ -19871,7 +19533,7 @@
         <f t="shared" si="222"/>
         <v>0</v>
       </c>
-      <c r="GD55" s="30">
+      <c r="GD55" s="27">
         <v>8</v>
       </c>
       <c r="GE55" t="s">
@@ -20012,7 +19674,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="S56" s="30"/>
+      <c r="S56" s="27"/>
       <c r="T56" t="s">
         <v>59</v>
       </c>
@@ -20076,7 +19738,7 @@
         <f t="shared" si="213"/>
         <v>0</v>
       </c>
-      <c r="AL56" s="30"/>
+      <c r="AL56" s="27"/>
       <c r="AM56" t="s">
         <v>59</v>
       </c>
@@ -20136,7 +19798,7 @@
         <f t="shared" si="224"/>
         <v>0</v>
       </c>
-      <c r="BD56" s="30"/>
+      <c r="BD56" s="27"/>
       <c r="BE56" t="s">
         <v>59</v>
       </c>
@@ -20228,7 +19890,7 @@
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="CD56" s="30"/>
+      <c r="CD56" s="27"/>
       <c r="CE56" t="s">
         <v>59</v>
       </c>
@@ -20276,7 +19938,7 @@
         <f t="shared" si="225"/>
         <v>0</v>
       </c>
-      <c r="CS56" s="30"/>
+      <c r="CS56" s="27"/>
       <c r="CT56" t="s">
         <v>59</v>
       </c>
@@ -20328,7 +19990,7 @@
         <f t="shared" si="226"/>
         <v>0</v>
       </c>
-      <c r="DI56" s="30"/>
+      <c r="DI56" s="27"/>
       <c r="DJ56" t="s">
         <v>59</v>
       </c>
@@ -20372,7 +20034,7 @@
         <f t="shared" si="227"/>
         <v>0</v>
       </c>
-      <c r="DW56" s="30"/>
+      <c r="DW56" s="27"/>
       <c r="DX56" t="s">
         <v>59</v>
       </c>
@@ -20432,7 +20094,7 @@
         <f t="shared" si="228"/>
         <v>0</v>
       </c>
-      <c r="EO56" s="30"/>
+      <c r="EO56" s="27"/>
       <c r="EP56" t="s">
         <v>59</v>
       </c>
@@ -20520,7 +20182,7 @@
         <f t="shared" si="229"/>
         <v>0</v>
       </c>
-      <c r="FN56" s="30"/>
+      <c r="FN56" s="27"/>
       <c r="FO56" t="s">
         <v>59</v>
       </c>
@@ -20572,7 +20234,7 @@
         <f t="shared" si="230"/>
         <v>0</v>
       </c>
-      <c r="GD56" s="30"/>
+      <c r="GD56" s="27"/>
       <c r="GE56" t="s">
         <v>59</v>
       </c>
@@ -20711,7 +20373,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S57" s="30"/>
+      <c r="S57" s="27"/>
       <c r="T57" t="s">
         <v>67</v>
       </c>
@@ -20775,7 +20437,7 @@
         <f t="shared" si="213"/>
         <v>0</v>
       </c>
-      <c r="AL57" s="30"/>
+      <c r="AL57" s="27"/>
       <c r="AM57" t="s">
         <v>69</v>
       </c>
@@ -20835,7 +20497,7 @@
         <f t="shared" si="232"/>
         <v>0</v>
       </c>
-      <c r="BD57" s="30"/>
+      <c r="BD57" s="27"/>
       <c r="BE57" t="s">
         <v>71</v>
       </c>
@@ -20927,7 +20589,7 @@
         <f t="shared" si="216"/>
         <v>0</v>
       </c>
-      <c r="CD57" s="30"/>
+      <c r="CD57" s="27"/>
       <c r="CE57" t="s">
         <v>73</v>
       </c>
@@ -20975,7 +20637,7 @@
         <f t="shared" si="233"/>
         <v>0</v>
       </c>
-      <c r="CS57" s="30"/>
+      <c r="CS57" s="27"/>
       <c r="CT57" t="s">
         <v>82</v>
       </c>
@@ -21027,7 +20689,7 @@
         <f t="shared" si="234"/>
         <v>0</v>
       </c>
-      <c r="DI57" s="30"/>
+      <c r="DI57" s="27"/>
       <c r="DJ57" t="s">
         <v>86</v>
       </c>
@@ -21071,7 +20733,7 @@
         <f t="shared" si="235"/>
         <v>0</v>
       </c>
-      <c r="DW57" s="30"/>
+      <c r="DW57" s="27"/>
       <c r="DX57" t="s">
         <v>90</v>
       </c>
@@ -21131,7 +20793,7 @@
         <f t="shared" si="236"/>
         <v>0</v>
       </c>
-      <c r="EO57" s="30"/>
+      <c r="EO57" s="27"/>
       <c r="EP57" t="s">
         <v>94</v>
       </c>
@@ -21219,7 +20881,7 @@
         <f t="shared" si="237"/>
         <v>0</v>
       </c>
-      <c r="FN57" s="30"/>
+      <c r="FN57" s="27"/>
       <c r="FO57" t="s">
         <v>98</v>
       </c>
@@ -21271,7 +20933,7 @@
         <f t="shared" si="238"/>
         <v>0</v>
       </c>
-      <c r="GD57" s="30"/>
+      <c r="GD57" s="27"/>
       <c r="GE57" t="s">
         <v>101</v>
       </c>
@@ -21410,7 +21072,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S58" s="30"/>
+      <c r="S58" s="27"/>
       <c r="T58" t="s">
         <v>68</v>
       </c>
@@ -21474,7 +21136,7 @@
         <f t="shared" si="213"/>
         <v>0</v>
       </c>
-      <c r="AL58" s="30"/>
+      <c r="AL58" s="27"/>
       <c r="AM58" t="s">
         <v>70</v>
       </c>
@@ -21482,7 +21144,7 @@
         <f>SUM(AN57:BA57)</f>
         <v>0.38620371536834386</v>
       </c>
-      <c r="BD58" s="30"/>
+      <c r="BD58" s="27"/>
       <c r="BE58" t="s">
         <v>72</v>
       </c>
@@ -21490,7 +21152,7 @@
         <f>VLOOKUP(BF$19,$A$20:$M$106,10)</f>
         <v>0</v>
       </c>
-      <c r="CD58" s="30"/>
+      <c r="CD58" s="27"/>
       <c r="CE58" t="s">
         <v>74</v>
       </c>
@@ -21498,7 +21160,7 @@
         <f>SUM(CF57:CP57)</f>
         <v>0.38620371536834386</v>
       </c>
-      <c r="CS58" s="30"/>
+      <c r="CS58" s="27"/>
       <c r="CT58" t="s">
         <v>83</v>
       </c>
@@ -21506,7 +21168,7 @@
         <f>SUM(CU57:DE57)</f>
         <v>0</v>
       </c>
-      <c r="DI58" s="30"/>
+      <c r="DI58" s="27"/>
       <c r="DJ58" t="s">
         <v>87</v>
       </c>
@@ -21514,7 +21176,7 @@
         <f>SUM(DK57:DT57)</f>
         <v>0</v>
       </c>
-      <c r="DW58" s="30"/>
+      <c r="DW58" s="27"/>
       <c r="DX58" t="s">
         <v>91</v>
       </c>
@@ -21522,7 +21184,7 @@
         <f>SUM(DY57:EL57)</f>
         <v>0.38620371536834386</v>
       </c>
-      <c r="EO58" s="30"/>
+      <c r="EO58" s="27"/>
       <c r="EP58" t="s">
         <v>95</v>
       </c>
@@ -21530,7 +21192,7 @@
         <f>SUM(EQ57:FD57)</f>
         <v>0</v>
       </c>
-      <c r="FN58" s="30"/>
+      <c r="FN58" s="27"/>
       <c r="FO58" t="s">
         <v>99</v>
       </c>
@@ -21538,7 +21200,7 @@
         <f>SUM(FP57:GA57)</f>
         <v>0</v>
       </c>
-      <c r="GD58" s="30"/>
+      <c r="GD58" s="27"/>
       <c r="GE58" t="s">
         <v>102</v>
       </c>
@@ -21650,7 +21312,7 @@
         <f t="shared" si="11"/>
         <v>0.33099321904142442</v>
       </c>
-      <c r="S60" s="30">
+      <c r="S60" s="27">
         <v>10</v>
       </c>
       <c r="T60" t="s">
@@ -21716,7 +21378,7 @@
         <f t="shared" si="240"/>
         <v>0</v>
       </c>
-      <c r="AL60" s="30">
+      <c r="AL60" s="27">
         <v>10</v>
       </c>
       <c r="AM60" t="s">
@@ -21778,7 +21440,7 @@
         <f t="shared" si="241"/>
         <v>1</v>
       </c>
-      <c r="BD60" s="30">
+      <c r="BD60" s="27">
         <v>10</v>
       </c>
       <c r="BE60" t="s">
@@ -21872,7 +21534,7 @@
         <f t="shared" si="242"/>
         <v>0</v>
       </c>
-      <c r="CD60" s="30">
+      <c r="CD60" s="27">
         <v>10</v>
       </c>
       <c r="CE60" t="s">
@@ -21922,7 +21584,7 @@
         <f t="shared" si="243"/>
         <v>0</v>
       </c>
-      <c r="CS60" s="30">
+      <c r="CS60" s="27">
         <v>10</v>
       </c>
       <c r="CT60" t="s">
@@ -21976,7 +21638,7 @@
         <f t="shared" si="243"/>
         <v>0</v>
       </c>
-      <c r="DI60" s="30">
+      <c r="DI60" s="27">
         <v>10</v>
       </c>
       <c r="DJ60" t="s">
@@ -22022,7 +21684,7 @@
         <f t="shared" si="244"/>
         <v>1</v>
       </c>
-      <c r="DW60" s="30">
+      <c r="DW60" s="27">
         <v>10</v>
       </c>
       <c r="DX60" t="s">
@@ -22084,7 +21746,7 @@
         <f t="shared" si="245"/>
         <v>0</v>
       </c>
-      <c r="EO60" s="30">
+      <c r="EO60" s="27">
         <v>10</v>
       </c>
       <c r="EP60" t="s">
@@ -22174,7 +21836,7 @@
         <f t="shared" si="246"/>
         <v>0</v>
       </c>
-      <c r="FN60" s="30">
+      <c r="FN60" s="27">
         <v>10</v>
       </c>
       <c r="FO60" t="s">
@@ -22228,7 +21890,7 @@
         <f t="shared" si="247"/>
         <v>0</v>
       </c>
-      <c r="GD60" s="30">
+      <c r="GD60" s="27">
         <v>9</v>
       </c>
       <c r="GE60" t="s">
@@ -22369,7 +22031,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S61" s="30"/>
+      <c r="S61" s="27"/>
       <c r="T61" t="s">
         <v>59</v>
       </c>
@@ -22433,7 +22095,7 @@
         <f t="shared" si="249"/>
         <v>0</v>
       </c>
-      <c r="AL61" s="30"/>
+      <c r="AL61" s="27"/>
       <c r="AM61" t="s">
         <v>59</v>
       </c>
@@ -22493,7 +22155,7 @@
         <f t="shared" si="250"/>
         <v>0.34242268082220628</v>
       </c>
-      <c r="BD61" s="30"/>
+      <c r="BD61" s="27"/>
       <c r="BE61" t="s">
         <v>59</v>
       </c>
@@ -22585,7 +22247,7 @@
         <f t="shared" si="251"/>
         <v>0</v>
       </c>
-      <c r="CD61" s="30"/>
+      <c r="CD61" s="27"/>
       <c r="CE61" t="s">
         <v>59</v>
       </c>
@@ -22633,7 +22295,7 @@
         <f t="shared" si="252"/>
         <v>0</v>
       </c>
-      <c r="CS61" s="30"/>
+      <c r="CS61" s="27"/>
       <c r="CT61" t="s">
         <v>59</v>
       </c>
@@ -22685,7 +22347,7 @@
         <f t="shared" si="253"/>
         <v>0</v>
       </c>
-      <c r="DI61" s="30"/>
+      <c r="DI61" s="27"/>
       <c r="DJ61" t="s">
         <v>59</v>
       </c>
@@ -22729,7 +22391,7 @@
         <f t="shared" si="254"/>
         <v>0.56427143043856254</v>
       </c>
-      <c r="DW61" s="30"/>
+      <c r="DW61" s="27"/>
       <c r="DX61" t="s">
         <v>59</v>
       </c>
@@ -22789,7 +22451,7 @@
         <f t="shared" si="255"/>
         <v>0</v>
       </c>
-      <c r="EO61" s="30"/>
+      <c r="EO61" s="27"/>
       <c r="EP61" t="s">
         <v>59</v>
       </c>
@@ -22877,7 +22539,7 @@
         <f t="shared" si="256"/>
         <v>0</v>
       </c>
-      <c r="FN61" s="30"/>
+      <c r="FN61" s="27"/>
       <c r="FO61" t="s">
         <v>59</v>
       </c>
@@ -22929,7 +22591,7 @@
         <f t="shared" si="257"/>
         <v>0</v>
       </c>
-      <c r="GD61" s="30"/>
+      <c r="GD61" s="27"/>
       <c r="GE61" t="s">
         <v>59</v>
       </c>
@@ -23068,7 +22730,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S62" s="30"/>
+      <c r="S62" s="27"/>
       <c r="T62" t="s">
         <v>67</v>
       </c>
@@ -23132,7 +22794,7 @@
         <f t="shared" si="259"/>
         <v>0</v>
       </c>
-      <c r="AL62" s="30"/>
+      <c r="AL62" s="27"/>
       <c r="AM62" t="s">
         <v>69</v>
       </c>
@@ -23192,7 +22854,7 @@
         <f t="shared" si="260"/>
         <v>0.29577285486345728</v>
       </c>
-      <c r="BD62" s="30"/>
+      <c r="BD62" s="27"/>
       <c r="BE62" t="s">
         <v>71</v>
       </c>
@@ -23284,7 +22946,7 @@
         <f t="shared" si="261"/>
         <v>0</v>
       </c>
-      <c r="CD62" s="30"/>
+      <c r="CD62" s="27"/>
       <c r="CE62" t="s">
         <v>73</v>
       </c>
@@ -23332,7 +22994,7 @@
         <f t="shared" si="262"/>
         <v>0</v>
       </c>
-      <c r="CS62" s="30"/>
+      <c r="CS62" s="27"/>
       <c r="CT62" t="s">
         <v>82</v>
       </c>
@@ -23384,7 +23046,7 @@
         <f t="shared" si="263"/>
         <v>0</v>
       </c>
-      <c r="DI62" s="30"/>
+      <c r="DI62" s="27"/>
       <c r="DJ62" t="s">
         <v>86</v>
       </c>
@@ -23428,7 +23090,7 @@
         <f t="shared" si="264"/>
         <v>0.48739812298051816</v>
       </c>
-      <c r="DW62" s="30"/>
+      <c r="DW62" s="27"/>
       <c r="DX62" t="s">
         <v>90</v>
       </c>
@@ -23488,7 +23150,7 @@
         <f t="shared" si="265"/>
         <v>0</v>
       </c>
-      <c r="EO62" s="30"/>
+      <c r="EO62" s="27"/>
       <c r="EP62" t="s">
         <v>94</v>
       </c>
@@ -23576,7 +23238,7 @@
         <f t="shared" si="266"/>
         <v>0</v>
       </c>
-      <c r="FN62" s="30"/>
+      <c r="FN62" s="27"/>
       <c r="FO62" t="s">
         <v>98</v>
       </c>
@@ -23628,7 +23290,7 @@
         <f t="shared" si="267"/>
         <v>0</v>
       </c>
-      <c r="GD62" s="30"/>
+      <c r="GD62" s="27"/>
       <c r="GE62" t="s">
         <v>101</v>
       </c>
@@ -23767,7 +23429,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="S63" s="30"/>
+      <c r="S63" s="27"/>
       <c r="T63" t="s">
         <v>68</v>
       </c>
@@ -23775,7 +23437,7 @@
         <f>SUM(U62:AI62)</f>
         <v>0.52315169114462368</v>
       </c>
-      <c r="AL63" s="30"/>
+      <c r="AL63" s="27"/>
       <c r="AM63" t="s">
         <v>70</v>
       </c>
@@ -23783,7 +23445,7 @@
         <f>SUM(AN62:BB62)</f>
         <v>2.9321618973627688</v>
       </c>
-      <c r="BD63" s="30"/>
+      <c r="BD63" s="27"/>
       <c r="BE63" t="s">
         <v>72</v>
       </c>
@@ -23791,7 +23453,7 @@
         <f>SUM(BF62:CA62)</f>
         <v>2.07482108286333</v>
       </c>
-      <c r="CD63" s="30"/>
+      <c r="CD63" s="27"/>
       <c r="CE63" t="s">
         <v>74</v>
       </c>
@@ -23799,7 +23461,7 @@
         <f>SUM(CF62:CP62)</f>
         <v>1.5778852829371819</v>
       </c>
-      <c r="CS63" s="30"/>
+      <c r="CS63" s="27"/>
       <c r="CT63" t="s">
         <v>83</v>
       </c>
@@ -23807,7 +23469,7 @@
         <f>SUM(CU62:DF62)</f>
         <v>2.4811743925700074</v>
       </c>
-      <c r="DI63" s="30"/>
+      <c r="DI63" s="27"/>
       <c r="DJ63" t="s">
         <v>87</v>
       </c>
@@ -23815,7 +23477,7 @@
         <f>SUM(DK62:DT62)</f>
         <v>3.1333248424254592</v>
       </c>
-      <c r="DW63" s="30"/>
+      <c r="DW63" s="27"/>
       <c r="DX63" t="s">
         <v>91</v>
       </c>
@@ -23823,7 +23485,7 @@
         <f>SUM(DY62:EL62)</f>
         <v>1.9669033283473623</v>
       </c>
-      <c r="EO63" s="30"/>
+      <c r="EO63" s="27"/>
       <c r="EP63" t="s">
         <v>95</v>
       </c>
@@ -23831,7 +23493,7 @@
         <f>SUM(EQ62:FK62)</f>
         <v>0.42477161357428583</v>
       </c>
-      <c r="FN63" s="30"/>
+      <c r="FN63" s="27"/>
       <c r="FO63" t="s">
         <v>99</v>
       </c>
@@ -23839,7 +23501,7 @@
         <f>SUM(FP62:GA62)</f>
         <v>0.93527251002735967</v>
       </c>
-      <c r="GD63" s="30"/>
+      <c r="GD63" s="27"/>
       <c r="GE63" t="s">
         <v>102</v>
       </c>
@@ -24038,18 +23700,18 @@
         <v>0.33099321904142442</v>
       </c>
       <c r="S67" s="16"/>
-      <c r="T67" s="29" t="s">
+      <c r="T67" s="25" t="s">
         <v>182</v>
       </c>
-      <c r="U67" s="29"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="29"/>
-      <c r="X67" s="29"/>
-      <c r="Y67" s="29"/>
-      <c r="Z67" s="29"/>
-      <c r="AA67" s="29"/>
-      <c r="AB67" s="29"/>
-      <c r="AC67" s="29"/>
+      <c r="U67" s="25"/>
+      <c r="V67" s="25"/>
+      <c r="W67" s="25"/>
+      <c r="X67" s="25"/>
+      <c r="Y67" s="25"/>
+      <c r="Z67" s="25"/>
+      <c r="AA67" s="25"/>
+      <c r="AB67" s="25"/>
+      <c r="AC67" s="25"/>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
@@ -24175,7 +23837,7 @@
         <f t="shared" si="11"/>
         <v>0.53147891704225514</v>
       </c>
-      <c r="R69" s="34" t="s">
+      <c r="R69" s="26" t="s">
         <v>56</v>
       </c>
       <c r="S69" s="17">
@@ -24265,7 +23927,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="R70" s="34"/>
+      <c r="R70" s="26"/>
       <c r="S70" s="17">
         <v>2</v>
       </c>
@@ -24353,7 +24015,7 @@
         <f t="shared" si="11"/>
         <v>-0.15970084286751185</v>
       </c>
-      <c r="R71" s="34"/>
+      <c r="R71" s="26"/>
       <c r="S71" s="17">
         <v>3</v>
       </c>
@@ -24441,7 +24103,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="R72" s="34"/>
+      <c r="R72" s="26"/>
       <c r="S72" s="17">
         <v>4</v>
       </c>
@@ -24529,7 +24191,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="R73" s="34"/>
+      <c r="R73" s="26"/>
       <c r="S73" s="17">
         <v>5</v>
       </c>
@@ -24617,7 +24279,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="R74" s="34"/>
+      <c r="R74" s="26"/>
       <c r="S74" s="17">
         <v>6</v>
       </c>
@@ -24705,7 +24367,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="R75" s="34"/>
+      <c r="R75" s="26"/>
       <c r="S75" s="17">
         <v>7</v>
       </c>
@@ -24793,7 +24455,7 @@
         <f t="shared" si="11"/>
         <v>0.53147891704225514</v>
       </c>
-      <c r="R76" s="34"/>
+      <c r="R76" s="26"/>
       <c r="S76" s="17">
         <v>8</v>
       </c>
@@ -24881,7 +24543,7 @@
         <f t="shared" si="11"/>
         <v>0.33099321904142442</v>
       </c>
-      <c r="R77" s="34"/>
+      <c r="R77" s="26"/>
       <c r="S77" s="17">
         <v>9</v>
       </c>
@@ -24969,7 +24631,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="R78" s="34"/>
+      <c r="R78" s="26"/>
       <c r="S78" s="17">
         <v>10</v>
       </c>
@@ -26393,64 +26055,40 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="T67:AC67"/>
-    <mergeCell ref="R69:R78"/>
-    <mergeCell ref="S55:S58"/>
-    <mergeCell ref="S60:S63"/>
-    <mergeCell ref="S25:S28"/>
-    <mergeCell ref="S30:S33"/>
-    <mergeCell ref="S35:S38"/>
-    <mergeCell ref="S40:S43"/>
-    <mergeCell ref="S45:S48"/>
-    <mergeCell ref="S50:S53"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="AN17:BA17"/>
-    <mergeCell ref="AN18:BA18"/>
-    <mergeCell ref="AL20:AL23"/>
-    <mergeCell ref="AL25:AL28"/>
-    <mergeCell ref="AL30:AL33"/>
-    <mergeCell ref="AL35:AL38"/>
-    <mergeCell ref="S20:S23"/>
-    <mergeCell ref="U17:AI17"/>
-    <mergeCell ref="U18:AI18"/>
-    <mergeCell ref="AL40:AL43"/>
-    <mergeCell ref="AL45:AL48"/>
-    <mergeCell ref="AL50:AL53"/>
-    <mergeCell ref="BD50:BD53"/>
-    <mergeCell ref="BD55:BD58"/>
-    <mergeCell ref="BD60:BD63"/>
-    <mergeCell ref="CD20:CD23"/>
-    <mergeCell ref="CD25:CD28"/>
-    <mergeCell ref="CD30:CD33"/>
-    <mergeCell ref="CD35:CD38"/>
-    <mergeCell ref="CD40:CD43"/>
-    <mergeCell ref="AL55:AL58"/>
-    <mergeCell ref="AL60:AL63"/>
-    <mergeCell ref="BD20:BD23"/>
-    <mergeCell ref="BD25:BD28"/>
-    <mergeCell ref="BD30:BD33"/>
-    <mergeCell ref="BD35:BD38"/>
-    <mergeCell ref="BD40:BD43"/>
-    <mergeCell ref="BD45:BD48"/>
-    <mergeCell ref="BF17:CA17"/>
-    <mergeCell ref="BF18:CA18"/>
-    <mergeCell ref="CS20:CS23"/>
-    <mergeCell ref="CS25:CS28"/>
-    <mergeCell ref="CD45:CD48"/>
-    <mergeCell ref="CD50:CD53"/>
-    <mergeCell ref="CD55:CD58"/>
-    <mergeCell ref="CD60:CD63"/>
-    <mergeCell ref="CF17:CP17"/>
-    <mergeCell ref="CF18:CP18"/>
-    <mergeCell ref="CS60:CS63"/>
-    <mergeCell ref="CS30:CS33"/>
-    <mergeCell ref="CS35:CS38"/>
-    <mergeCell ref="CS40:CS43"/>
-    <mergeCell ref="CS45:CS48"/>
-    <mergeCell ref="CS50:CS53"/>
-    <mergeCell ref="CS55:CS58"/>
+    <mergeCell ref="DY17:EL17"/>
+    <mergeCell ref="DY18:EL18"/>
+    <mergeCell ref="CU17:DF17"/>
+    <mergeCell ref="CU18:DF18"/>
+    <mergeCell ref="GF17:HA17"/>
+    <mergeCell ref="GF18:HA18"/>
+    <mergeCell ref="FP17:GA17"/>
+    <mergeCell ref="FP18:GA18"/>
+    <mergeCell ref="EQ17:FK17"/>
+    <mergeCell ref="EQ18:FK18"/>
+    <mergeCell ref="DK17:DT17"/>
+    <mergeCell ref="DK18:DT18"/>
+    <mergeCell ref="GD20:GD23"/>
+    <mergeCell ref="GD25:GD28"/>
+    <mergeCell ref="GD30:GD33"/>
+    <mergeCell ref="EO45:EO48"/>
+    <mergeCell ref="EO50:EO53"/>
+    <mergeCell ref="EO55:EO58"/>
+    <mergeCell ref="EO60:EO63"/>
+    <mergeCell ref="FN20:FN23"/>
+    <mergeCell ref="FN25:FN28"/>
+    <mergeCell ref="FN30:FN33"/>
+    <mergeCell ref="FN35:FN38"/>
+    <mergeCell ref="GD35:GD38"/>
+    <mergeCell ref="GD40:GD43"/>
+    <mergeCell ref="GD45:GD48"/>
+    <mergeCell ref="GD50:GD53"/>
+    <mergeCell ref="GD55:GD58"/>
+    <mergeCell ref="GD60:GD63"/>
+    <mergeCell ref="FN40:FN43"/>
+    <mergeCell ref="FN45:FN48"/>
+    <mergeCell ref="FN50:FN53"/>
+    <mergeCell ref="FN55:FN58"/>
+    <mergeCell ref="FN60:FN63"/>
     <mergeCell ref="DW50:DW53"/>
     <mergeCell ref="DW55:DW58"/>
     <mergeCell ref="DW60:DW63"/>
@@ -26474,40 +26112,64 @@
     <mergeCell ref="DI40:DI43"/>
     <mergeCell ref="DI45:DI48"/>
     <mergeCell ref="DI50:DI53"/>
-    <mergeCell ref="GD20:GD23"/>
-    <mergeCell ref="GD25:GD28"/>
-    <mergeCell ref="GD30:GD33"/>
-    <mergeCell ref="EO45:EO48"/>
-    <mergeCell ref="EO50:EO53"/>
-    <mergeCell ref="EO55:EO58"/>
-    <mergeCell ref="EO60:EO63"/>
-    <mergeCell ref="FN20:FN23"/>
-    <mergeCell ref="FN25:FN28"/>
-    <mergeCell ref="FN30:FN33"/>
-    <mergeCell ref="FN35:FN38"/>
-    <mergeCell ref="GD35:GD38"/>
-    <mergeCell ref="GD40:GD43"/>
-    <mergeCell ref="GD45:GD48"/>
-    <mergeCell ref="GD50:GD53"/>
-    <mergeCell ref="GD55:GD58"/>
-    <mergeCell ref="GD60:GD63"/>
-    <mergeCell ref="FN40:FN43"/>
-    <mergeCell ref="FN45:FN48"/>
-    <mergeCell ref="FN50:FN53"/>
-    <mergeCell ref="FN55:FN58"/>
-    <mergeCell ref="FN60:FN63"/>
-    <mergeCell ref="DY17:EL17"/>
-    <mergeCell ref="DY18:EL18"/>
-    <mergeCell ref="CU17:DF17"/>
-    <mergeCell ref="CU18:DF18"/>
-    <mergeCell ref="GF17:HA17"/>
-    <mergeCell ref="GF18:HA18"/>
-    <mergeCell ref="FP17:GA17"/>
-    <mergeCell ref="FP18:GA18"/>
-    <mergeCell ref="EQ17:FK17"/>
-    <mergeCell ref="EQ18:FK18"/>
-    <mergeCell ref="DK17:DT17"/>
-    <mergeCell ref="DK18:DT18"/>
+    <mergeCell ref="BF17:CA17"/>
+    <mergeCell ref="BF18:CA18"/>
+    <mergeCell ref="CS20:CS23"/>
+    <mergeCell ref="CS25:CS28"/>
+    <mergeCell ref="CD45:CD48"/>
+    <mergeCell ref="CD50:CD53"/>
+    <mergeCell ref="CD55:CD58"/>
+    <mergeCell ref="CD60:CD63"/>
+    <mergeCell ref="CF17:CP17"/>
+    <mergeCell ref="CF18:CP18"/>
+    <mergeCell ref="CS60:CS63"/>
+    <mergeCell ref="CS30:CS33"/>
+    <mergeCell ref="CS35:CS38"/>
+    <mergeCell ref="CS40:CS43"/>
+    <mergeCell ref="CS45:CS48"/>
+    <mergeCell ref="CS50:CS53"/>
+    <mergeCell ref="CS55:CS58"/>
+    <mergeCell ref="AL40:AL43"/>
+    <mergeCell ref="AL45:AL48"/>
+    <mergeCell ref="AL50:AL53"/>
+    <mergeCell ref="BD50:BD53"/>
+    <mergeCell ref="BD55:BD58"/>
+    <mergeCell ref="BD60:BD63"/>
+    <mergeCell ref="CD20:CD23"/>
+    <mergeCell ref="CD25:CD28"/>
+    <mergeCell ref="CD30:CD33"/>
+    <mergeCell ref="CD35:CD38"/>
+    <mergeCell ref="CD40:CD43"/>
+    <mergeCell ref="AL55:AL58"/>
+    <mergeCell ref="AL60:AL63"/>
+    <mergeCell ref="BD20:BD23"/>
+    <mergeCell ref="BD25:BD28"/>
+    <mergeCell ref="BD30:BD33"/>
+    <mergeCell ref="BD35:BD38"/>
+    <mergeCell ref="BD40:BD43"/>
+    <mergeCell ref="BD45:BD48"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="AN17:BA17"/>
+    <mergeCell ref="AN18:BA18"/>
+    <mergeCell ref="AL20:AL23"/>
+    <mergeCell ref="AL25:AL28"/>
+    <mergeCell ref="AL30:AL33"/>
+    <mergeCell ref="AL35:AL38"/>
+    <mergeCell ref="S20:S23"/>
+    <mergeCell ref="U17:AI17"/>
+    <mergeCell ref="U18:AI18"/>
+    <mergeCell ref="T67:AC67"/>
+    <mergeCell ref="R69:R78"/>
+    <mergeCell ref="S55:S58"/>
+    <mergeCell ref="S60:S63"/>
+    <mergeCell ref="S25:S28"/>
+    <mergeCell ref="S30:S33"/>
+    <mergeCell ref="S35:S38"/>
+    <mergeCell ref="S40:S43"/>
+    <mergeCell ref="S45:S48"/>
+    <mergeCell ref="S50:S53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26521,8 +26183,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN70"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30714,1183 +30376,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:E12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="2" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="25" t="s">
-        <v>292</v>
-      </c>
-      <c r="D3" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="D4" s="28">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f>LOG10(4/D4)</f>
-        <v>0.6020599913279624</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="27" t="s">
-        <v>294</v>
-      </c>
-      <c r="D5" s="28">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" ref="E5:E12" si="0">LOG10(4/D5)</f>
-        <v>0.6020599913279624</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="27" t="s">
-        <v>295</v>
-      </c>
-      <c r="D6" s="28">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>0.6020599913279624</v>
-      </c>
-    </row>
-    <row r="7" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="27" t="s">
-        <v>296</v>
-      </c>
-      <c r="D7" s="28">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>0.6020599913279624</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="27" t="s">
-        <v>297</v>
-      </c>
-      <c r="D8" s="28">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>0.6020599913279624</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="D9" s="28">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.6020599913279624</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D10" s="28">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0.6020599913279624</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="28">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.6020599913279624</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="27" t="s">
-        <v>299</v>
-      </c>
-      <c r="D12" s="28">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0.6020599913279624</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:M15"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D4" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>5</v>
-      </c>
-      <c r="I5">
-        <v>6</v>
-      </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
-      <c r="K5">
-        <v>8</v>
-      </c>
-      <c r="L5">
-        <v>9</v>
-      </c>
-      <c r="M5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6">
-        <v>2.0867093472984299</v>
-      </c>
-      <c r="F6">
-        <v>3.9357065164898635</v>
-      </c>
-      <c r="G6">
-        <v>1.3572441595047966</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0.30538682331536576</v>
-      </c>
-      <c r="J6">
-        <v>2.4562414708672167</v>
-      </c>
-      <c r="K6">
-        <v>1.6629592839517924</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0.52315169114462368</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="29"/>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7">
-        <v>2.0202327040927357</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7">
-        <v>2.261878676221392</v>
-      </c>
-      <c r="G7">
-        <v>2.1192182262574351</v>
-      </c>
-      <c r="H7">
-        <v>1.1319216373779339</v>
-      </c>
-      <c r="I7">
-        <v>0.81505740713624242</v>
-      </c>
-      <c r="J7">
-        <v>1.2712125501992406</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0.38620371536834386</v>
-      </c>
-      <c r="M7">
-        <v>2.9321618973627688</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="29"/>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>4.3941072548284881</v>
-      </c>
-      <c r="E8">
-        <v>2.6741435730571617</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8">
-        <v>0.70263194096552373</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>1.6844690046740833</v>
-      </c>
-      <c r="J8">
-        <v>1.9861182973163989</v>
-      </c>
-      <c r="K8">
-        <v>2.0751305530232154</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>2.07482108286333</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="29"/>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>1.2870969822833596</v>
-      </c>
-      <c r="E9">
-        <v>1.9997338114102676</v>
-      </c>
-      <c r="F9">
-        <v>0.50178887254071436</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9">
-        <v>2.5050690630324084</v>
-      </c>
-      <c r="I9">
-        <v>0.30538682331536576</v>
-      </c>
-      <c r="J9">
-        <v>1.2712125501992406</v>
-      </c>
-      <c r="K9">
-        <v>0.46749529581706689</v>
-      </c>
-      <c r="L9">
-        <v>0.38620371536834386</v>
-      </c>
-      <c r="M9">
-        <v>1.5778852829371819</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="29"/>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>1.0448011008636686</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>2.5766879371343512</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10">
-        <v>1.8188950208994221</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>2.4811743925700074</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="29"/>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>0.26067183291669505</v>
-      </c>
-      <c r="E11">
-        <v>0.82940933632659775</v>
-      </c>
-      <c r="F11">
-        <v>1.1151746579383957</v>
-      </c>
-      <c r="G11">
-        <v>0.30538682331536576</v>
-      </c>
-      <c r="H11">
-        <v>1.768338951757684</v>
-      </c>
-      <c r="I11" s="4"/>
-      <c r="J11">
-        <v>1.0713845471065246</v>
-      </c>
-      <c r="K11">
-        <v>0.41217126907142304</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>3.1333248424254592</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="29"/>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12">
-        <v>2.3363598372565613</v>
-      </c>
-      <c r="E12">
-        <v>1.2712125501992406</v>
-      </c>
-      <c r="F12">
-        <v>1.4791590040972249</v>
-      </c>
-      <c r="G12">
-        <v>1.4165862852919111</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1.1747984208532067</v>
-      </c>
-      <c r="J12" s="4"/>
-      <c r="K12">
-        <v>3.2706346070576262</v>
-      </c>
-      <c r="L12">
-        <v>0.38620371536834386</v>
-      </c>
-      <c r="M12">
-        <v>1.9669033283473623</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="29"/>
-      <c r="C13">
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <v>2.1995021868335436</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>2.279127662467423</v>
-      </c>
-      <c r="G13">
-        <v>0.65461221853927276</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0.52018620231393398</v>
-      </c>
-      <c r="J13">
-        <v>3.5276260179737413</v>
-      </c>
-      <c r="K13" s="4"/>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0.42477161357428583</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="29"/>
-      <c r="C14">
-        <v>9</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0.35647879998936638</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0.39724511765015802</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0.35647879998936638</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14" s="4"/>
-      <c r="M14">
-        <v>0.93527251002735967</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="29"/>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>0.72833362437619298</v>
-      </c>
-      <c r="E15">
-        <v>3.6319691380326677</v>
-      </c>
-      <c r="F15">
-        <v>1.8663649697179618</v>
-      </c>
-      <c r="G15">
-        <v>2.1192182262574346</v>
-      </c>
-      <c r="H15">
-        <v>3.2397792871482367</v>
-      </c>
-      <c r="I15">
-        <v>4.1579762441127786</v>
-      </c>
-      <c r="J15">
-        <v>2.3425970973057653</v>
-      </c>
-      <c r="K15">
-        <v>0.41217126907142304</v>
-      </c>
-      <c r="L15">
-        <v>1.2212267363791467</v>
-      </c>
-      <c r="M15" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="B6:B15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39"/>
-      <c r="B1" s="40"/>
-      <c r="C1" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="45"/>
-      <c r="I1" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="J1" s="51" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="35">
-        <v>1</v>
-      </c>
-      <c r="D2" s="35">
-        <v>2</v>
-      </c>
-      <c r="E2" s="35">
-        <v>3</v>
-      </c>
-      <c r="F2" s="35">
-        <v>4</v>
-      </c>
-      <c r="G2" s="35">
-        <v>5</v>
-      </c>
-      <c r="I2" s="52">
-        <v>1</v>
-      </c>
-      <c r="J2" s="53">
-        <v>0.40082786599999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="36">
-        <v>1</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38">
-        <v>2.0867089999999999</v>
-      </c>
-      <c r="E3" s="38">
-        <v>3.9357069999999998</v>
-      </c>
-      <c r="F3" s="38">
-        <v>1.3572439999999999</v>
-      </c>
-      <c r="G3" s="38">
-        <v>0</v>
-      </c>
-      <c r="I3" s="52">
-        <v>2</v>
-      </c>
-      <c r="J3" s="53">
-        <v>0.86317008699999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46"/>
-      <c r="B4" s="36">
-        <v>2</v>
-      </c>
-      <c r="C4" s="38">
-        <v>2.0202330000000002</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38">
-        <v>2.261879</v>
-      </c>
-      <c r="F4" s="38">
-        <v>2.119218</v>
-      </c>
-      <c r="G4" s="38">
-        <v>1.1319220000000001</v>
-      </c>
-      <c r="I4" s="52">
-        <v>3</v>
-      </c>
-      <c r="J4" s="53">
-        <v>0.38918776199999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="46"/>
-      <c r="B5" s="36">
-        <v>3</v>
-      </c>
-      <c r="C5" s="38">
-        <v>4.394107</v>
-      </c>
-      <c r="D5" s="38">
-        <v>2.6741440000000001</v>
-      </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38">
-        <v>0.70263200000000003</v>
-      </c>
-      <c r="G5" s="38">
-        <v>0</v>
-      </c>
-      <c r="I5" s="52">
-        <v>4</v>
-      </c>
-      <c r="J5" s="53">
-        <v>0.92409475100000005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="36">
-        <v>4</v>
-      </c>
-      <c r="C6" s="38">
-        <v>1.2870969999999999</v>
-      </c>
-      <c r="D6" s="38">
-        <v>1.9997339999999999</v>
-      </c>
-      <c r="E6" s="38">
-        <v>0.50178900000000004</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38">
-        <v>2.5050690000000002</v>
-      </c>
-      <c r="I6" s="52">
-        <v>5</v>
-      </c>
-      <c r="J6" s="53">
-        <v>0.15764060799999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46"/>
-      <c r="B7" s="36">
-        <v>5</v>
-      </c>
-      <c r="C7" s="38">
-        <v>0</v>
-      </c>
-      <c r="D7" s="38">
-        <v>1.0448010000000001</v>
-      </c>
-      <c r="E7" s="38">
-        <v>0</v>
-      </c>
-      <c r="F7" s="38">
-        <v>2.5766879999999999</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="I7" s="52">
-        <v>6</v>
-      </c>
-      <c r="J7" s="53">
-        <v>0.71498095800000006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="46"/>
-      <c r="B8" s="36">
-        <v>6</v>
-      </c>
-      <c r="C8" s="38">
-        <v>0.26067200000000001</v>
-      </c>
-      <c r="D8" s="38">
-        <v>0.82940899999999995</v>
-      </c>
-      <c r="E8" s="38">
-        <v>1.115175</v>
-      </c>
-      <c r="F8" s="38">
-        <v>0.30538700000000002</v>
-      </c>
-      <c r="G8" s="38">
-        <v>1.7683390000000001</v>
-      </c>
-      <c r="I8" s="52">
-        <v>7</v>
-      </c>
-      <c r="J8" s="53">
-        <v>0.21685853399999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="46"/>
-      <c r="B9" s="36">
-        <v>7</v>
-      </c>
-      <c r="C9" s="38">
-        <v>2.33636</v>
-      </c>
-      <c r="D9" s="38">
-        <v>1.2712129999999999</v>
-      </c>
-      <c r="E9" s="38">
-        <v>1.4791589999999999</v>
-      </c>
-      <c r="F9" s="38">
-        <v>1.4165859999999999</v>
-      </c>
-      <c r="G9" s="38">
-        <v>0</v>
-      </c>
-      <c r="I9" s="52">
-        <v>8</v>
-      </c>
-      <c r="J9" s="53">
-        <v>0.23722153600000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="46"/>
-      <c r="B10" s="36">
-        <v>8</v>
-      </c>
-      <c r="C10" s="38">
-        <v>2.1995019999999998</v>
-      </c>
-      <c r="D10" s="38">
-        <v>0</v>
-      </c>
-      <c r="E10" s="38">
-        <v>2.279128</v>
-      </c>
-      <c r="F10" s="38">
-        <v>0.65461199999999997</v>
-      </c>
-      <c r="G10" s="38">
-        <v>0</v>
-      </c>
-      <c r="I10" s="52">
-        <v>9</v>
-      </c>
-      <c r="J10" s="53">
-        <v>7.6112858000000005E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="36">
-        <v>9</v>
-      </c>
-      <c r="C11" s="38">
-        <v>0</v>
-      </c>
-      <c r="D11" s="38">
-        <v>0.35647899999999999</v>
-      </c>
-      <c r="E11" s="38">
-        <v>0</v>
-      </c>
-      <c r="F11" s="38">
-        <v>0.39724500000000001</v>
-      </c>
-      <c r="G11" s="38">
-        <v>0</v>
-      </c>
-      <c r="I11" s="52">
-        <v>10</v>
-      </c>
-      <c r="J11" s="53">
-        <v>0.84140168100000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="48"/>
-      <c r="B12" s="36">
-        <v>10</v>
-      </c>
-      <c r="C12" s="38">
-        <v>0.72833400000000004</v>
-      </c>
-      <c r="D12" s="38">
-        <v>3.6319689999999998</v>
-      </c>
-      <c r="E12" s="38">
-        <v>1.8663650000000001</v>
-      </c>
-      <c r="F12" s="38">
-        <v>2.119218</v>
-      </c>
-      <c r="G12" s="38">
-        <v>3.239779</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="39"/>
-      <c r="B14" s="40"/>
-      <c r="C14" s="44" t="s">
-        <v>300</v>
-      </c>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="45"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="35">
-        <v>6</v>
-      </c>
-      <c r="D15" s="35">
-        <v>7</v>
-      </c>
-      <c r="E15" s="35">
-        <v>8</v>
-      </c>
-      <c r="F15" s="35">
-        <v>9</v>
-      </c>
-      <c r="G15" s="35">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
-        <v>301</v>
-      </c>
-      <c r="B16" s="36">
-        <v>1</v>
-      </c>
-      <c r="C16" s="38">
-        <v>0.30538700000000002</v>
-      </c>
-      <c r="D16" s="38">
-        <v>2.4562409999999999</v>
-      </c>
-      <c r="E16" s="38">
-        <v>1.6629590000000001</v>
-      </c>
-      <c r="F16" s="38">
-        <v>0</v>
-      </c>
-      <c r="G16" s="38">
-        <v>0.52315199999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="46"/>
-      <c r="B17" s="36">
-        <v>2</v>
-      </c>
-      <c r="C17" s="38">
-        <v>0.81505700000000003</v>
-      </c>
-      <c r="D17" s="38">
-        <v>1.2712129999999999</v>
-      </c>
-      <c r="E17" s="38">
-        <v>0</v>
-      </c>
-      <c r="F17" s="38">
-        <v>0.38620399999999999</v>
-      </c>
-      <c r="G17" s="38">
-        <v>2.9321619999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="36">
-        <v>3</v>
-      </c>
-      <c r="C18" s="38">
-        <v>1.684469</v>
-      </c>
-      <c r="D18" s="38">
-        <v>1.9861180000000001</v>
-      </c>
-      <c r="E18" s="38">
-        <v>2.0751309999999998</v>
-      </c>
-      <c r="F18" s="38">
-        <v>0</v>
-      </c>
-      <c r="G18" s="38">
-        <v>2.074821</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="36">
-        <v>4</v>
-      </c>
-      <c r="C19" s="38">
-        <v>0.30538700000000002</v>
-      </c>
-      <c r="D19" s="38">
-        <v>1.2712129999999999</v>
-      </c>
-      <c r="E19" s="38">
-        <v>0.46749499999999999</v>
-      </c>
-      <c r="F19" s="38">
-        <v>0.38620399999999999</v>
-      </c>
-      <c r="G19" s="38">
-        <v>1.577885</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="36">
-        <v>5</v>
-      </c>
-      <c r="C20" s="38">
-        <v>1.8188949999999999</v>
-      </c>
-      <c r="D20" s="38">
-        <v>0</v>
-      </c>
-      <c r="E20" s="38">
-        <v>0</v>
-      </c>
-      <c r="F20" s="38">
-        <v>0</v>
-      </c>
-      <c r="G20" s="38">
-        <v>2.4811740000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="36">
-        <v>6</v>
-      </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="38">
-        <v>1.071385</v>
-      </c>
-      <c r="E21" s="38">
-        <v>0.41217100000000001</v>
-      </c>
-      <c r="F21" s="38">
-        <v>0</v>
-      </c>
-      <c r="G21" s="38">
-        <v>3.1333250000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="36">
-        <v>7</v>
-      </c>
-      <c r="C22" s="38">
-        <v>1.174798</v>
-      </c>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38">
-        <v>3.270635</v>
-      </c>
-      <c r="F22" s="38">
-        <v>0.38620399999999999</v>
-      </c>
-      <c r="G22" s="38">
-        <v>1.9669030000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="36">
-        <v>8</v>
-      </c>
-      <c r="C23" s="38">
-        <v>0.52018600000000004</v>
-      </c>
-      <c r="D23" s="38">
-        <v>3.5276260000000002</v>
-      </c>
-      <c r="E23" s="37"/>
-      <c r="F23" s="38">
-        <v>0</v>
-      </c>
-      <c r="G23" s="38">
-        <v>0.42477199999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="36">
-        <v>9</v>
-      </c>
-      <c r="C24" s="38">
-        <v>0</v>
-      </c>
-      <c r="D24" s="38">
-        <v>0.35647899999999999</v>
-      </c>
-      <c r="E24" s="38">
-        <v>0</v>
-      </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="38">
-        <v>0.93527300000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="36">
-        <v>10</v>
-      </c>
-      <c r="C25" s="38">
-        <v>4.1579759999999997</v>
-      </c>
-      <c r="D25" s="38">
-        <v>2.342597</v>
-      </c>
-      <c r="E25" s="38">
-        <v>0.41217100000000001</v>
-      </c>
-      <c r="F25" s="38">
-        <v>1.2212270000000001</v>
-      </c>
-      <c r="G25" s="37"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A16:A25"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/manualisasi/manualisasi 10docs baru.xlsx
+++ b/manualisasi/manualisasi 10docs baru.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="system" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1224" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="292">
   <si>
     <t>dokumen</t>
   </si>
@@ -992,7 +992,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1049,10 +1049,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1064,6 +1064,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1418,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1446,7 +1449,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1466,7 +1469,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1486,7 +1489,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>15</v>
@@ -1506,7 +1509,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>20</v>
@@ -1526,7 +1529,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -1546,7 +1549,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>30</v>
@@ -1566,7 +1569,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -1586,7 +1589,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>40</v>
@@ -1606,7 +1609,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>45</v>
@@ -1626,7 +1629,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>50</v>
@@ -1808,189 +1811,189 @@
       <c r="M17" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="U17" s="25" t="s">
+      <c r="U17" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="V17" s="25"/>
-      <c r="W17" s="25"/>
-      <c r="X17" s="25"/>
-      <c r="Y17" s="25"/>
-      <c r="Z17" s="25"/>
-      <c r="AA17" s="25"/>
-      <c r="AB17" s="25"/>
-      <c r="AC17" s="25"/>
-      <c r="AD17" s="25"/>
-      <c r="AE17" s="25"/>
-      <c r="AF17" s="25"/>
-      <c r="AG17" s="25"/>
-      <c r="AH17" s="25"/>
-      <c r="AI17" s="25"/>
-      <c r="AN17" s="25" t="s">
+      <c r="V17" s="26"/>
+      <c r="W17" s="26"/>
+      <c r="X17" s="26"/>
+      <c r="Y17" s="26"/>
+      <c r="Z17" s="26"/>
+      <c r="AA17" s="26"/>
+      <c r="AB17" s="26"/>
+      <c r="AC17" s="26"/>
+      <c r="AD17" s="26"/>
+      <c r="AE17" s="26"/>
+      <c r="AF17" s="26"/>
+      <c r="AG17" s="26"/>
+      <c r="AH17" s="26"/>
+      <c r="AI17" s="26"/>
+      <c r="AN17" s="26" t="s">
         <v>75</v>
       </c>
-      <c r="AO17" s="25"/>
-      <c r="AP17" s="25"/>
-      <c r="AQ17" s="25"/>
-      <c r="AR17" s="25"/>
-      <c r="AS17" s="25"/>
-      <c r="AT17" s="25"/>
-      <c r="AU17" s="25"/>
-      <c r="AV17" s="25"/>
-      <c r="AW17" s="25"/>
-      <c r="AX17" s="25"/>
-      <c r="AY17" s="25"/>
-      <c r="AZ17" s="25"/>
-      <c r="BA17" s="25"/>
-      <c r="BF17" s="25" t="s">
+      <c r="AO17" s="26"/>
+      <c r="AP17" s="26"/>
+      <c r="AQ17" s="26"/>
+      <c r="AR17" s="26"/>
+      <c r="AS17" s="26"/>
+      <c r="AT17" s="26"/>
+      <c r="AU17" s="26"/>
+      <c r="AV17" s="26"/>
+      <c r="AW17" s="26"/>
+      <c r="AX17" s="26"/>
+      <c r="AY17" s="26"/>
+      <c r="AZ17" s="26"/>
+      <c r="BA17" s="26"/>
+      <c r="BF17" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="BG17" s="25"/>
-      <c r="BH17" s="25"/>
-      <c r="BI17" s="25"/>
-      <c r="BJ17" s="25"/>
-      <c r="BK17" s="25"/>
-      <c r="BL17" s="25"/>
-      <c r="BM17" s="25"/>
-      <c r="BN17" s="25"/>
-      <c r="BO17" s="25"/>
-      <c r="BP17" s="25"/>
-      <c r="BQ17" s="25"/>
-      <c r="BR17" s="25"/>
-      <c r="BS17" s="25"/>
-      <c r="BT17" s="25"/>
-      <c r="BU17" s="25"/>
-      <c r="BV17" s="25"/>
-      <c r="BW17" s="25"/>
-      <c r="BX17" s="25"/>
-      <c r="BY17" s="25"/>
-      <c r="BZ17" s="25"/>
-      <c r="CA17" s="25"/>
-      <c r="CF17" s="25" t="s">
+      <c r="BG17" s="26"/>
+      <c r="BH17" s="26"/>
+      <c r="BI17" s="26"/>
+      <c r="BJ17" s="26"/>
+      <c r="BK17" s="26"/>
+      <c r="BL17" s="26"/>
+      <c r="BM17" s="26"/>
+      <c r="BN17" s="26"/>
+      <c r="BO17" s="26"/>
+      <c r="BP17" s="26"/>
+      <c r="BQ17" s="26"/>
+      <c r="BR17" s="26"/>
+      <c r="BS17" s="26"/>
+      <c r="BT17" s="26"/>
+      <c r="BU17" s="26"/>
+      <c r="BV17" s="26"/>
+      <c r="BW17" s="26"/>
+      <c r="BX17" s="26"/>
+      <c r="BY17" s="26"/>
+      <c r="BZ17" s="26"/>
+      <c r="CA17" s="26"/>
+      <c r="CF17" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="CG17" s="25"/>
-      <c r="CH17" s="25"/>
-      <c r="CI17" s="25"/>
-      <c r="CJ17" s="25"/>
-      <c r="CK17" s="25"/>
-      <c r="CL17" s="25"/>
-      <c r="CM17" s="25"/>
-      <c r="CN17" s="25"/>
-      <c r="CO17" s="25"/>
-      <c r="CP17" s="25"/>
+      <c r="CG17" s="26"/>
+      <c r="CH17" s="26"/>
+      <c r="CI17" s="26"/>
+      <c r="CJ17" s="26"/>
+      <c r="CK17" s="26"/>
+      <c r="CL17" s="26"/>
+      <c r="CM17" s="26"/>
+      <c r="CN17" s="26"/>
+      <c r="CO17" s="26"/>
+      <c r="CP17" s="26"/>
       <c r="CQ17" s="3"/>
       <c r="CR17" s="3"/>
       <c r="CS17" s="4"/>
-      <c r="CU17" s="25" t="s">
+      <c r="CU17" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="CV17" s="25"/>
-      <c r="CW17" s="25"/>
-      <c r="CX17" s="25"/>
-      <c r="CY17" s="25"/>
-      <c r="CZ17" s="25"/>
-      <c r="DA17" s="25"/>
-      <c r="DB17" s="25"/>
-      <c r="DC17" s="25"/>
-      <c r="DD17" s="25"/>
-      <c r="DE17" s="25"/>
-      <c r="DF17" s="25"/>
+      <c r="CV17" s="26"/>
+      <c r="CW17" s="26"/>
+      <c r="CX17" s="26"/>
+      <c r="CY17" s="26"/>
+      <c r="CZ17" s="26"/>
+      <c r="DA17" s="26"/>
+      <c r="DB17" s="26"/>
+      <c r="DC17" s="26"/>
+      <c r="DD17" s="26"/>
+      <c r="DE17" s="26"/>
+      <c r="DF17" s="26"/>
       <c r="DG17" s="3"/>
       <c r="DI17" s="4"/>
-      <c r="DK17" s="25" t="s">
+      <c r="DK17" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="DL17" s="25"/>
-      <c r="DM17" s="25"/>
-      <c r="DN17" s="25"/>
-      <c r="DO17" s="25"/>
-      <c r="DP17" s="25"/>
-      <c r="DQ17" s="25"/>
-      <c r="DR17" s="25"/>
-      <c r="DS17" s="25"/>
-      <c r="DT17" s="25"/>
+      <c r="DL17" s="26"/>
+      <c r="DM17" s="26"/>
+      <c r="DN17" s="26"/>
+      <c r="DO17" s="26"/>
+      <c r="DP17" s="26"/>
+      <c r="DQ17" s="26"/>
+      <c r="DR17" s="26"/>
+      <c r="DS17" s="26"/>
+      <c r="DT17" s="26"/>
       <c r="DU17" s="3"/>
       <c r="DW17" s="4"/>
-      <c r="DY17" s="25" t="s">
+      <c r="DY17" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="DZ17" s="25"/>
-      <c r="EA17" s="25"/>
-      <c r="EB17" s="25"/>
-      <c r="EC17" s="25"/>
-      <c r="ED17" s="25"/>
-      <c r="EE17" s="25"/>
-      <c r="EF17" s="25"/>
-      <c r="EG17" s="25"/>
-      <c r="EH17" s="25"/>
-      <c r="EI17" s="25"/>
-      <c r="EJ17" s="25"/>
-      <c r="EK17" s="25"/>
-      <c r="EL17" s="25"/>
+      <c r="DZ17" s="26"/>
+      <c r="EA17" s="26"/>
+      <c r="EB17" s="26"/>
+      <c r="EC17" s="26"/>
+      <c r="ED17" s="26"/>
+      <c r="EE17" s="26"/>
+      <c r="EF17" s="26"/>
+      <c r="EG17" s="26"/>
+      <c r="EH17" s="26"/>
+      <c r="EI17" s="26"/>
+      <c r="EJ17" s="26"/>
+      <c r="EK17" s="26"/>
+      <c r="EL17" s="26"/>
       <c r="EO17" s="4"/>
-      <c r="EQ17" s="25" t="s">
+      <c r="EQ17" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="ER17" s="25"/>
-      <c r="ES17" s="25"/>
-      <c r="ET17" s="25"/>
-      <c r="EU17" s="25"/>
-      <c r="EV17" s="25"/>
-      <c r="EW17" s="25"/>
-      <c r="EX17" s="25"/>
-      <c r="EY17" s="25"/>
-      <c r="EZ17" s="25"/>
-      <c r="FA17" s="25"/>
-      <c r="FB17" s="25"/>
-      <c r="FC17" s="25"/>
-      <c r="FD17" s="25"/>
-      <c r="FE17" s="25"/>
-      <c r="FF17" s="25"/>
-      <c r="FG17" s="25"/>
-      <c r="FH17" s="25"/>
-      <c r="FI17" s="25"/>
-      <c r="FJ17" s="25"/>
-      <c r="FK17" s="25"/>
+      <c r="ER17" s="26"/>
+      <c r="ES17" s="26"/>
+      <c r="ET17" s="26"/>
+      <c r="EU17" s="26"/>
+      <c r="EV17" s="26"/>
+      <c r="EW17" s="26"/>
+      <c r="EX17" s="26"/>
+      <c r="EY17" s="26"/>
+      <c r="EZ17" s="26"/>
+      <c r="FA17" s="26"/>
+      <c r="FB17" s="26"/>
+      <c r="FC17" s="26"/>
+      <c r="FD17" s="26"/>
+      <c r="FE17" s="26"/>
+      <c r="FF17" s="26"/>
+      <c r="FG17" s="26"/>
+      <c r="FH17" s="26"/>
+      <c r="FI17" s="26"/>
+      <c r="FJ17" s="26"/>
+      <c r="FK17" s="26"/>
       <c r="FN17" s="4"/>
-      <c r="FP17" s="25" t="s">
+      <c r="FP17" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="FQ17" s="25"/>
-      <c r="FR17" s="25"/>
-      <c r="FS17" s="25"/>
-      <c r="FT17" s="25"/>
-      <c r="FU17" s="25"/>
-      <c r="FV17" s="25"/>
-      <c r="FW17" s="25"/>
-      <c r="FX17" s="25"/>
-      <c r="FY17" s="25"/>
-      <c r="FZ17" s="25"/>
-      <c r="GA17" s="25"/>
+      <c r="FQ17" s="26"/>
+      <c r="FR17" s="26"/>
+      <c r="FS17" s="26"/>
+      <c r="FT17" s="26"/>
+      <c r="FU17" s="26"/>
+      <c r="FV17" s="26"/>
+      <c r="FW17" s="26"/>
+      <c r="FX17" s="26"/>
+      <c r="FY17" s="26"/>
+      <c r="FZ17" s="26"/>
+      <c r="GA17" s="26"/>
       <c r="GD17" s="4"/>
-      <c r="GF17" s="25" t="s">
+      <c r="GF17" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="GG17" s="25"/>
-      <c r="GH17" s="25"/>
-      <c r="GI17" s="25"/>
-      <c r="GJ17" s="25"/>
-      <c r="GK17" s="25"/>
-      <c r="GL17" s="25"/>
-      <c r="GM17" s="25"/>
-      <c r="GN17" s="25"/>
-      <c r="GO17" s="25"/>
-      <c r="GP17" s="25"/>
-      <c r="GQ17" s="25"/>
-      <c r="GR17" s="25"/>
-      <c r="GS17" s="25"/>
-      <c r="GT17" s="25"/>
-      <c r="GU17" s="25"/>
-      <c r="GV17" s="25"/>
-      <c r="GW17" s="25"/>
-      <c r="GX17" s="25"/>
-      <c r="GY17" s="25"/>
-      <c r="GZ17" s="25"/>
-      <c r="HA17" s="25"/>
+      <c r="GG17" s="26"/>
+      <c r="GH17" s="26"/>
+      <c r="GI17" s="26"/>
+      <c r="GJ17" s="26"/>
+      <c r="GK17" s="26"/>
+      <c r="GL17" s="26"/>
+      <c r="GM17" s="26"/>
+      <c r="GN17" s="26"/>
+      <c r="GO17" s="26"/>
+      <c r="GP17" s="26"/>
+      <c r="GQ17" s="26"/>
+      <c r="GR17" s="26"/>
+      <c r="GS17" s="26"/>
+      <c r="GT17" s="26"/>
+      <c r="GU17" s="26"/>
+      <c r="GV17" s="26"/>
+      <c r="GW17" s="26"/>
+      <c r="GX17" s="26"/>
+      <c r="GY17" s="26"/>
+      <c r="GZ17" s="26"/>
+      <c r="HA17" s="26"/>
     </row>
     <row r="18" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
@@ -2018,189 +2021,189 @@
       <c r="Q18">
         <v>1.2</v>
       </c>
-      <c r="U18" s="25" t="s">
+      <c r="U18" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="V18" s="25"/>
-      <c r="W18" s="25"/>
-      <c r="X18" s="25"/>
-      <c r="Y18" s="25"/>
-      <c r="Z18" s="25"/>
-      <c r="AA18" s="25"/>
-      <c r="AB18" s="25"/>
-      <c r="AC18" s="25"/>
-      <c r="AD18" s="25"/>
-      <c r="AE18" s="25"/>
-      <c r="AF18" s="25"/>
-      <c r="AG18" s="25"/>
-      <c r="AH18" s="25"/>
-      <c r="AI18" s="25"/>
-      <c r="AN18" s="25" t="s">
+      <c r="V18" s="26"/>
+      <c r="W18" s="26"/>
+      <c r="X18" s="26"/>
+      <c r="Y18" s="26"/>
+      <c r="Z18" s="26"/>
+      <c r="AA18" s="26"/>
+      <c r="AB18" s="26"/>
+      <c r="AC18" s="26"/>
+      <c r="AD18" s="26"/>
+      <c r="AE18" s="26"/>
+      <c r="AF18" s="26"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="26"/>
+      <c r="AI18" s="26"/>
+      <c r="AN18" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="AO18" s="25"/>
-      <c r="AP18" s="25"/>
-      <c r="AQ18" s="25"/>
-      <c r="AR18" s="25"/>
-      <c r="AS18" s="25"/>
-      <c r="AT18" s="25"/>
-      <c r="AU18" s="25"/>
-      <c r="AV18" s="25"/>
-      <c r="AW18" s="25"/>
-      <c r="AX18" s="25"/>
-      <c r="AY18" s="25"/>
-      <c r="AZ18" s="25"/>
-      <c r="BA18" s="25"/>
-      <c r="BF18" s="25" t="s">
+      <c r="AO18" s="26"/>
+      <c r="AP18" s="26"/>
+      <c r="AQ18" s="26"/>
+      <c r="AR18" s="26"/>
+      <c r="AS18" s="26"/>
+      <c r="AT18" s="26"/>
+      <c r="AU18" s="26"/>
+      <c r="AV18" s="26"/>
+      <c r="AW18" s="26"/>
+      <c r="AX18" s="26"/>
+      <c r="AY18" s="26"/>
+      <c r="AZ18" s="26"/>
+      <c r="BA18" s="26"/>
+      <c r="BF18" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="BG18" s="25"/>
-      <c r="BH18" s="25"/>
-      <c r="BI18" s="25"/>
-      <c r="BJ18" s="25"/>
-      <c r="BK18" s="25"/>
-      <c r="BL18" s="25"/>
-      <c r="BM18" s="25"/>
-      <c r="BN18" s="25"/>
-      <c r="BO18" s="25"/>
-      <c r="BP18" s="25"/>
-      <c r="BQ18" s="25"/>
-      <c r="BR18" s="25"/>
-      <c r="BS18" s="25"/>
-      <c r="BT18" s="25"/>
-      <c r="BU18" s="25"/>
-      <c r="BV18" s="25"/>
-      <c r="BW18" s="25"/>
-      <c r="BX18" s="25"/>
-      <c r="BY18" s="25"/>
-      <c r="BZ18" s="25"/>
-      <c r="CA18" s="25"/>
-      <c r="CF18" s="25" t="s">
+      <c r="BG18" s="26"/>
+      <c r="BH18" s="26"/>
+      <c r="BI18" s="26"/>
+      <c r="BJ18" s="26"/>
+      <c r="BK18" s="26"/>
+      <c r="BL18" s="26"/>
+      <c r="BM18" s="26"/>
+      <c r="BN18" s="26"/>
+      <c r="BO18" s="26"/>
+      <c r="BP18" s="26"/>
+      <c r="BQ18" s="26"/>
+      <c r="BR18" s="26"/>
+      <c r="BS18" s="26"/>
+      <c r="BT18" s="26"/>
+      <c r="BU18" s="26"/>
+      <c r="BV18" s="26"/>
+      <c r="BW18" s="26"/>
+      <c r="BX18" s="26"/>
+      <c r="BY18" s="26"/>
+      <c r="BZ18" s="26"/>
+      <c r="CA18" s="26"/>
+      <c r="CF18" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="CG18" s="25"/>
-      <c r="CH18" s="25"/>
-      <c r="CI18" s="25"/>
-      <c r="CJ18" s="25"/>
-      <c r="CK18" s="25"/>
-      <c r="CL18" s="25"/>
-      <c r="CM18" s="25"/>
-      <c r="CN18" s="25"/>
-      <c r="CO18" s="25"/>
-      <c r="CP18" s="25"/>
+      <c r="CG18" s="26"/>
+      <c r="CH18" s="26"/>
+      <c r="CI18" s="26"/>
+      <c r="CJ18" s="26"/>
+      <c r="CK18" s="26"/>
+      <c r="CL18" s="26"/>
+      <c r="CM18" s="26"/>
+      <c r="CN18" s="26"/>
+      <c r="CO18" s="26"/>
+      <c r="CP18" s="26"/>
       <c r="CQ18" s="3"/>
       <c r="CR18" s="3"/>
       <c r="CS18" s="4"/>
-      <c r="CU18" s="25" t="s">
+      <c r="CU18" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="CV18" s="25"/>
-      <c r="CW18" s="25"/>
-      <c r="CX18" s="25"/>
-      <c r="CY18" s="25"/>
-      <c r="CZ18" s="25"/>
-      <c r="DA18" s="25"/>
-      <c r="DB18" s="25"/>
-      <c r="DC18" s="25"/>
-      <c r="DD18" s="25"/>
-      <c r="DE18" s="25"/>
-      <c r="DF18" s="25"/>
+      <c r="CV18" s="26"/>
+      <c r="CW18" s="26"/>
+      <c r="CX18" s="26"/>
+      <c r="CY18" s="26"/>
+      <c r="CZ18" s="26"/>
+      <c r="DA18" s="26"/>
+      <c r="DB18" s="26"/>
+      <c r="DC18" s="26"/>
+      <c r="DD18" s="26"/>
+      <c r="DE18" s="26"/>
+      <c r="DF18" s="26"/>
       <c r="DG18" s="3"/>
       <c r="DI18" s="4"/>
-      <c r="DK18" s="25" t="s">
+      <c r="DK18" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="DL18" s="25"/>
-      <c r="DM18" s="25"/>
-      <c r="DN18" s="25"/>
-      <c r="DO18" s="25"/>
-      <c r="DP18" s="25"/>
-      <c r="DQ18" s="25"/>
-      <c r="DR18" s="25"/>
-      <c r="DS18" s="25"/>
-      <c r="DT18" s="25"/>
+      <c r="DL18" s="26"/>
+      <c r="DM18" s="26"/>
+      <c r="DN18" s="26"/>
+      <c r="DO18" s="26"/>
+      <c r="DP18" s="26"/>
+      <c r="DQ18" s="26"/>
+      <c r="DR18" s="26"/>
+      <c r="DS18" s="26"/>
+      <c r="DT18" s="26"/>
       <c r="DU18" s="3"/>
       <c r="DW18" s="4"/>
-      <c r="DY18" s="25" t="s">
+      <c r="DY18" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="DZ18" s="25"/>
-      <c r="EA18" s="25"/>
-      <c r="EB18" s="25"/>
-      <c r="EC18" s="25"/>
-      <c r="ED18" s="25"/>
-      <c r="EE18" s="25"/>
-      <c r="EF18" s="25"/>
-      <c r="EG18" s="25"/>
-      <c r="EH18" s="25"/>
-      <c r="EI18" s="25"/>
-      <c r="EJ18" s="25"/>
-      <c r="EK18" s="25"/>
-      <c r="EL18" s="25"/>
+      <c r="DZ18" s="26"/>
+      <c r="EA18" s="26"/>
+      <c r="EB18" s="26"/>
+      <c r="EC18" s="26"/>
+      <c r="ED18" s="26"/>
+      <c r="EE18" s="26"/>
+      <c r="EF18" s="26"/>
+      <c r="EG18" s="26"/>
+      <c r="EH18" s="26"/>
+      <c r="EI18" s="26"/>
+      <c r="EJ18" s="26"/>
+      <c r="EK18" s="26"/>
+      <c r="EL18" s="26"/>
       <c r="EO18" s="4"/>
-      <c r="EQ18" s="25" t="s">
+      <c r="EQ18" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="ER18" s="25"/>
-      <c r="ES18" s="25"/>
-      <c r="ET18" s="25"/>
-      <c r="EU18" s="25"/>
-      <c r="EV18" s="25"/>
-      <c r="EW18" s="25"/>
-      <c r="EX18" s="25"/>
-      <c r="EY18" s="25"/>
-      <c r="EZ18" s="25"/>
-      <c r="FA18" s="25"/>
-      <c r="FB18" s="25"/>
-      <c r="FC18" s="25"/>
-      <c r="FD18" s="25"/>
-      <c r="FE18" s="25"/>
-      <c r="FF18" s="25"/>
-      <c r="FG18" s="25"/>
-      <c r="FH18" s="25"/>
-      <c r="FI18" s="25"/>
-      <c r="FJ18" s="25"/>
-      <c r="FK18" s="25"/>
+      <c r="ER18" s="26"/>
+      <c r="ES18" s="26"/>
+      <c r="ET18" s="26"/>
+      <c r="EU18" s="26"/>
+      <c r="EV18" s="26"/>
+      <c r="EW18" s="26"/>
+      <c r="EX18" s="26"/>
+      <c r="EY18" s="26"/>
+      <c r="EZ18" s="26"/>
+      <c r="FA18" s="26"/>
+      <c r="FB18" s="26"/>
+      <c r="FC18" s="26"/>
+      <c r="FD18" s="26"/>
+      <c r="FE18" s="26"/>
+      <c r="FF18" s="26"/>
+      <c r="FG18" s="26"/>
+      <c r="FH18" s="26"/>
+      <c r="FI18" s="26"/>
+      <c r="FJ18" s="26"/>
+      <c r="FK18" s="26"/>
       <c r="FN18" s="4"/>
-      <c r="FP18" s="25" t="s">
+      <c r="FP18" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="FQ18" s="25"/>
-      <c r="FR18" s="25"/>
-      <c r="FS18" s="25"/>
-      <c r="FT18" s="25"/>
-      <c r="FU18" s="25"/>
-      <c r="FV18" s="25"/>
-      <c r="FW18" s="25"/>
-      <c r="FX18" s="25"/>
-      <c r="FY18" s="25"/>
-      <c r="FZ18" s="25"/>
-      <c r="GA18" s="25"/>
+      <c r="FQ18" s="26"/>
+      <c r="FR18" s="26"/>
+      <c r="FS18" s="26"/>
+      <c r="FT18" s="26"/>
+      <c r="FU18" s="26"/>
+      <c r="FV18" s="26"/>
+      <c r="FW18" s="26"/>
+      <c r="FX18" s="26"/>
+      <c r="FY18" s="26"/>
+      <c r="FZ18" s="26"/>
+      <c r="GA18" s="26"/>
       <c r="GD18" s="4"/>
-      <c r="GF18" s="25" t="s">
+      <c r="GF18" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="GG18" s="25"/>
-      <c r="GH18" s="25"/>
-      <c r="GI18" s="25"/>
-      <c r="GJ18" s="25"/>
-      <c r="GK18" s="25"/>
-      <c r="GL18" s="25"/>
-      <c r="GM18" s="25"/>
-      <c r="GN18" s="25"/>
-      <c r="GO18" s="25"/>
-      <c r="GP18" s="25"/>
-      <c r="GQ18" s="25"/>
-      <c r="GR18" s="25"/>
-      <c r="GS18" s="25"/>
-      <c r="GT18" s="25"/>
-      <c r="GU18" s="25"/>
-      <c r="GV18" s="25"/>
-      <c r="GW18" s="25"/>
-      <c r="GX18" s="25"/>
-      <c r="GY18" s="25"/>
-      <c r="GZ18" s="25"/>
-      <c r="HA18" s="25"/>
+      <c r="GG18" s="26"/>
+      <c r="GH18" s="26"/>
+      <c r="GI18" s="26"/>
+      <c r="GJ18" s="26"/>
+      <c r="GK18" s="26"/>
+      <c r="GL18" s="26"/>
+      <c r="GM18" s="26"/>
+      <c r="GN18" s="26"/>
+      <c r="GO18" s="26"/>
+      <c r="GP18" s="26"/>
+      <c r="GQ18" s="26"/>
+      <c r="GR18" s="26"/>
+      <c r="GS18" s="26"/>
+      <c r="GT18" s="26"/>
+      <c r="GU18" s="26"/>
+      <c r="GV18" s="26"/>
+      <c r="GW18" s="26"/>
+      <c r="GX18" s="26"/>
+      <c r="GY18" s="26"/>
+      <c r="GZ18" s="26"/>
+      <c r="HA18" s="26"/>
     </row>
     <row r="19" spans="1:209" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
@@ -23700,18 +23703,18 @@
         <v>0.33099321904142442</v>
       </c>
       <c r="S67" s="16"/>
-      <c r="T67" s="25" t="s">
+      <c r="T67" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="U67" s="25"/>
-      <c r="V67" s="25"/>
-      <c r="W67" s="25"/>
-      <c r="X67" s="25"/>
-      <c r="Y67" s="25"/>
-      <c r="Z67" s="25"/>
-      <c r="AA67" s="25"/>
-      <c r="AB67" s="25"/>
-      <c r="AC67" s="25"/>
+      <c r="U67" s="26"/>
+      <c r="V67" s="26"/>
+      <c r="W67" s="26"/>
+      <c r="X67" s="26"/>
+      <c r="Y67" s="26"/>
+      <c r="Z67" s="26"/>
+      <c r="AA67" s="26"/>
+      <c r="AB67" s="26"/>
+      <c r="AC67" s="26"/>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
@@ -23837,7 +23840,7 @@
         <f t="shared" si="11"/>
         <v>0.53147891704225514</v>
       </c>
-      <c r="R69" s="26" t="s">
+      <c r="R69" s="31" t="s">
         <v>56</v>
       </c>
       <c r="S69" s="17">
@@ -23927,7 +23930,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="R70" s="26"/>
+      <c r="R70" s="31"/>
       <c r="S70" s="17">
         <v>2</v>
       </c>
@@ -24015,7 +24018,7 @@
         <f t="shared" si="11"/>
         <v>-0.15970084286751185</v>
       </c>
-      <c r="R71" s="26"/>
+      <c r="R71" s="31"/>
       <c r="S71" s="17">
         <v>3</v>
       </c>
@@ -24103,7 +24106,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="R72" s="26"/>
+      <c r="R72" s="31"/>
       <c r="S72" s="17">
         <v>4</v>
       </c>
@@ -24191,7 +24194,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="R73" s="26"/>
+      <c r="R73" s="31"/>
       <c r="S73" s="17">
         <v>5</v>
       </c>
@@ -24279,7 +24282,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="R74" s="26"/>
+      <c r="R74" s="31"/>
       <c r="S74" s="17">
         <v>6</v>
       </c>
@@ -24367,7 +24370,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="R75" s="26"/>
+      <c r="R75" s="31"/>
       <c r="S75" s="17">
         <v>7</v>
       </c>
@@ -24455,7 +24458,7 @@
         <f t="shared" si="11"/>
         <v>0.53147891704225514</v>
       </c>
-      <c r="R76" s="26"/>
+      <c r="R76" s="31"/>
       <c r="S76" s="17">
         <v>8</v>
       </c>
@@ -24543,7 +24546,7 @@
         <f t="shared" si="11"/>
         <v>0.33099321904142442</v>
       </c>
-      <c r="R77" s="26"/>
+      <c r="R77" s="31"/>
       <c r="S77" s="17">
         <v>9</v>
       </c>
@@ -24631,7 +24634,7 @@
         <f t="shared" si="11"/>
         <v>0.80163234623316648</v>
       </c>
-      <c r="R78" s="26"/>
+      <c r="R78" s="31"/>
       <c r="S78" s="17">
         <v>10</v>
       </c>
@@ -26055,40 +26058,64 @@
     </row>
   </sheetData>
   <mergeCells count="115">
-    <mergeCell ref="DY17:EL17"/>
-    <mergeCell ref="DY18:EL18"/>
-    <mergeCell ref="CU17:DF17"/>
-    <mergeCell ref="CU18:DF18"/>
-    <mergeCell ref="GF17:HA17"/>
-    <mergeCell ref="GF18:HA18"/>
-    <mergeCell ref="FP17:GA17"/>
-    <mergeCell ref="FP18:GA18"/>
-    <mergeCell ref="EQ17:FK17"/>
-    <mergeCell ref="EQ18:FK18"/>
-    <mergeCell ref="DK17:DT17"/>
-    <mergeCell ref="DK18:DT18"/>
-    <mergeCell ref="GD20:GD23"/>
-    <mergeCell ref="GD25:GD28"/>
-    <mergeCell ref="GD30:GD33"/>
-    <mergeCell ref="EO45:EO48"/>
-    <mergeCell ref="EO50:EO53"/>
-    <mergeCell ref="EO55:EO58"/>
-    <mergeCell ref="EO60:EO63"/>
-    <mergeCell ref="FN20:FN23"/>
-    <mergeCell ref="FN25:FN28"/>
-    <mergeCell ref="FN30:FN33"/>
-    <mergeCell ref="FN35:FN38"/>
-    <mergeCell ref="GD35:GD38"/>
-    <mergeCell ref="GD40:GD43"/>
-    <mergeCell ref="GD45:GD48"/>
-    <mergeCell ref="GD50:GD53"/>
-    <mergeCell ref="GD55:GD58"/>
-    <mergeCell ref="GD60:GD63"/>
-    <mergeCell ref="FN40:FN43"/>
-    <mergeCell ref="FN45:FN48"/>
-    <mergeCell ref="FN50:FN53"/>
-    <mergeCell ref="FN55:FN58"/>
-    <mergeCell ref="FN60:FN63"/>
+    <mergeCell ref="T67:AC67"/>
+    <mergeCell ref="R69:R78"/>
+    <mergeCell ref="S55:S58"/>
+    <mergeCell ref="S60:S63"/>
+    <mergeCell ref="S25:S28"/>
+    <mergeCell ref="S30:S33"/>
+    <mergeCell ref="S35:S38"/>
+    <mergeCell ref="S40:S43"/>
+    <mergeCell ref="S45:S48"/>
+    <mergeCell ref="S50:S53"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="AN17:BA17"/>
+    <mergeCell ref="AN18:BA18"/>
+    <mergeCell ref="AL20:AL23"/>
+    <mergeCell ref="AL25:AL28"/>
+    <mergeCell ref="AL30:AL33"/>
+    <mergeCell ref="AL35:AL38"/>
+    <mergeCell ref="S20:S23"/>
+    <mergeCell ref="U17:AI17"/>
+    <mergeCell ref="U18:AI18"/>
+    <mergeCell ref="AL40:AL43"/>
+    <mergeCell ref="AL45:AL48"/>
+    <mergeCell ref="AL50:AL53"/>
+    <mergeCell ref="BD50:BD53"/>
+    <mergeCell ref="BD55:BD58"/>
+    <mergeCell ref="BD60:BD63"/>
+    <mergeCell ref="CD20:CD23"/>
+    <mergeCell ref="CD25:CD28"/>
+    <mergeCell ref="CD30:CD33"/>
+    <mergeCell ref="CD35:CD38"/>
+    <mergeCell ref="CD40:CD43"/>
+    <mergeCell ref="AL55:AL58"/>
+    <mergeCell ref="AL60:AL63"/>
+    <mergeCell ref="BD20:BD23"/>
+    <mergeCell ref="BD25:BD28"/>
+    <mergeCell ref="BD30:BD33"/>
+    <mergeCell ref="BD35:BD38"/>
+    <mergeCell ref="BD40:BD43"/>
+    <mergeCell ref="BD45:BD48"/>
+    <mergeCell ref="BF17:CA17"/>
+    <mergeCell ref="BF18:CA18"/>
+    <mergeCell ref="CS20:CS23"/>
+    <mergeCell ref="CS25:CS28"/>
+    <mergeCell ref="CD45:CD48"/>
+    <mergeCell ref="CD50:CD53"/>
+    <mergeCell ref="CD55:CD58"/>
+    <mergeCell ref="CD60:CD63"/>
+    <mergeCell ref="CF17:CP17"/>
+    <mergeCell ref="CF18:CP18"/>
+    <mergeCell ref="CS60:CS63"/>
+    <mergeCell ref="CS30:CS33"/>
+    <mergeCell ref="CS35:CS38"/>
+    <mergeCell ref="CS40:CS43"/>
+    <mergeCell ref="CS45:CS48"/>
+    <mergeCell ref="CS50:CS53"/>
+    <mergeCell ref="CS55:CS58"/>
     <mergeCell ref="DW50:DW53"/>
     <mergeCell ref="DW55:DW58"/>
     <mergeCell ref="DW60:DW63"/>
@@ -26112,64 +26139,40 @@
     <mergeCell ref="DI40:DI43"/>
     <mergeCell ref="DI45:DI48"/>
     <mergeCell ref="DI50:DI53"/>
-    <mergeCell ref="BF17:CA17"/>
-    <mergeCell ref="BF18:CA18"/>
-    <mergeCell ref="CS20:CS23"/>
-    <mergeCell ref="CS25:CS28"/>
-    <mergeCell ref="CD45:CD48"/>
-    <mergeCell ref="CD50:CD53"/>
-    <mergeCell ref="CD55:CD58"/>
-    <mergeCell ref="CD60:CD63"/>
-    <mergeCell ref="CF17:CP17"/>
-    <mergeCell ref="CF18:CP18"/>
-    <mergeCell ref="CS60:CS63"/>
-    <mergeCell ref="CS30:CS33"/>
-    <mergeCell ref="CS35:CS38"/>
-    <mergeCell ref="CS40:CS43"/>
-    <mergeCell ref="CS45:CS48"/>
-    <mergeCell ref="CS50:CS53"/>
-    <mergeCell ref="CS55:CS58"/>
-    <mergeCell ref="AL40:AL43"/>
-    <mergeCell ref="AL45:AL48"/>
-    <mergeCell ref="AL50:AL53"/>
-    <mergeCell ref="BD50:BD53"/>
-    <mergeCell ref="BD55:BD58"/>
-    <mergeCell ref="BD60:BD63"/>
-    <mergeCell ref="CD20:CD23"/>
-    <mergeCell ref="CD25:CD28"/>
-    <mergeCell ref="CD30:CD33"/>
-    <mergeCell ref="CD35:CD38"/>
-    <mergeCell ref="CD40:CD43"/>
-    <mergeCell ref="AL55:AL58"/>
-    <mergeCell ref="AL60:AL63"/>
-    <mergeCell ref="BD20:BD23"/>
-    <mergeCell ref="BD25:BD28"/>
-    <mergeCell ref="BD30:BD33"/>
-    <mergeCell ref="BD35:BD38"/>
-    <mergeCell ref="BD40:BD43"/>
-    <mergeCell ref="BD45:BD48"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="AN17:BA17"/>
-    <mergeCell ref="AN18:BA18"/>
-    <mergeCell ref="AL20:AL23"/>
-    <mergeCell ref="AL25:AL28"/>
-    <mergeCell ref="AL30:AL33"/>
-    <mergeCell ref="AL35:AL38"/>
-    <mergeCell ref="S20:S23"/>
-    <mergeCell ref="U17:AI17"/>
-    <mergeCell ref="U18:AI18"/>
-    <mergeCell ref="T67:AC67"/>
-    <mergeCell ref="R69:R78"/>
-    <mergeCell ref="S55:S58"/>
-    <mergeCell ref="S60:S63"/>
-    <mergeCell ref="S25:S28"/>
-    <mergeCell ref="S30:S33"/>
-    <mergeCell ref="S35:S38"/>
-    <mergeCell ref="S40:S43"/>
-    <mergeCell ref="S45:S48"/>
-    <mergeCell ref="S50:S53"/>
+    <mergeCell ref="GD20:GD23"/>
+    <mergeCell ref="GD25:GD28"/>
+    <mergeCell ref="GD30:GD33"/>
+    <mergeCell ref="EO45:EO48"/>
+    <mergeCell ref="EO50:EO53"/>
+    <mergeCell ref="EO55:EO58"/>
+    <mergeCell ref="EO60:EO63"/>
+    <mergeCell ref="FN20:FN23"/>
+    <mergeCell ref="FN25:FN28"/>
+    <mergeCell ref="FN30:FN33"/>
+    <mergeCell ref="FN35:FN38"/>
+    <mergeCell ref="GD35:GD38"/>
+    <mergeCell ref="GD40:GD43"/>
+    <mergeCell ref="GD45:GD48"/>
+    <mergeCell ref="GD50:GD53"/>
+    <mergeCell ref="GD55:GD58"/>
+    <mergeCell ref="GD60:GD63"/>
+    <mergeCell ref="FN40:FN43"/>
+    <mergeCell ref="FN45:FN48"/>
+    <mergeCell ref="FN50:FN53"/>
+    <mergeCell ref="FN55:FN58"/>
+    <mergeCell ref="FN60:FN63"/>
+    <mergeCell ref="DY17:EL17"/>
+    <mergeCell ref="DY18:EL18"/>
+    <mergeCell ref="CU17:DF17"/>
+    <mergeCell ref="CU18:DF18"/>
+    <mergeCell ref="GF17:HA17"/>
+    <mergeCell ref="GF18:HA18"/>
+    <mergeCell ref="FP17:GA17"/>
+    <mergeCell ref="FP18:GA18"/>
+    <mergeCell ref="EQ17:FK17"/>
+    <mergeCell ref="EQ18:FK18"/>
+    <mergeCell ref="DK17:DT17"/>
+    <mergeCell ref="DK18:DT18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -26181,10 +26184,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN70"/>
+  <dimension ref="A1:AN75"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S24" sqref="S24"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H73" sqref="H73:N73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26196,7 +26199,7 @@
     <col min="5" max="5" width="6.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="18"/>
     <col min="7" max="7" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="18" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="18" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16" style="18" bestFit="1" customWidth="1"/>
@@ -30371,7 +30374,46 @@
       <c r="AH70" s="20"/>
       <c r="AI70" s="20"/>
     </row>
+    <row r="73" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="G73" s="18">
+        <v>2</v>
+      </c>
+      <c r="H73" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="I73" s="31"/>
+      <c r="J73" s="31"/>
+      <c r="K73" s="31"/>
+      <c r="L73" s="31"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="31"/>
+    </row>
+    <row r="74" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="G74" s="18">
+        <v>3</v>
+      </c>
+      <c r="H74" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="25"/>
+      <c r="L74" s="25"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="25"/>
+    </row>
+    <row r="75" spans="7:36" x14ac:dyDescent="0.25">
+      <c r="G75" s="18">
+        <v>10</v>
+      </c>
+      <c r="H75" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H73:N73"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
